--- a/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
+++ b/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,15 +496,20 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>CEP_Frequency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Coordinates</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
@@ -565,15 +570,18 @@
           <t>[(16000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>(46.223837969921874, 6.18890019296875)</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>46.22383796992187</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>6.18890019296875</v>
       </c>
     </row>
@@ -632,15 +640,18 @@
           <t>[(8823.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -699,15 +710,18 @@
           <t>[(7246.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -766,16 +780,19 @@
           <t>[(4672.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>46.2097742377551</v>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>(46.20979588645105, 6.145230406643356)</t>
+        </is>
       </c>
       <c r="O5" t="n">
-        <v>6.145239649744898</v>
+        <v>46.20979588645105</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.145230406643356</v>
       </c>
     </row>
     <row r="6">
@@ -833,15 +850,18 @@
           <t>[(5190.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -900,15 +920,18 @@
           <t>[(4500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -967,15 +990,18 @@
           <t>[(2255.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>(46.18939533575419, 6.107730086592179)</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>46.18939533575419</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>6.107730086592179</v>
       </c>
     </row>
@@ -1034,15 +1060,18 @@
           <t>[(3600.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>(46.202068743257, 6.15902832086514)</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>46.202068743257</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>6.15902832086514</v>
       </c>
     </row>
@@ -1101,15 +1130,18 @@
           <t>[(3500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>(46.222301047222224, 6.127768602083334)</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>46.22230104722222</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>6.127768602083334</v>
       </c>
     </row>
@@ -1168,15 +1200,18 @@
           <t>[(5750.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>(46.222301047222224, 6.127768602083334)</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>46.22230104722222</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>6.127768602083334</v>
       </c>
     </row>
@@ -1235,15 +1270,18 @@
           <t>[(14000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>(46.25389747727272, 6.1427165071428576)</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>46.25389747727272</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>6.142716507142858</v>
       </c>
     </row>
@@ -1302,15 +1340,18 @@
           <t>[(7720.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -1369,16 +1410,19 @@
           <t>[(5460.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>46.20221909543828</v>
+      <c r="M14" t="n">
+        <v>8</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>(46.20221224904977, 6.146710279457014)</t>
+        </is>
       </c>
       <c r="O14" t="n">
-        <v>6.146693037119857</v>
+        <v>46.20221224904977</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.146710279457014</v>
       </c>
     </row>
     <row r="15">
@@ -1436,15 +1480,18 @@
           <t>[(3330.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>(46.20784685737705, 6.125383191803278)</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>46.20784685737705</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>6.125383191803278</v>
       </c>
     </row>
@@ -1503,15 +1550,18 @@
           <t>[(4130.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -1570,16 +1620,19 @@
           <t>[(2090.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>(46.198029410050246, 6.19765671758794)</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>46.19802941005025</v>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>(46.198010457, 6.1976358235)</t>
+        </is>
       </c>
       <c r="O17" t="n">
-        <v>6.19765671758794</v>
+        <v>46.198010457</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.1976358235</v>
       </c>
     </row>
     <row r="18">
@@ -1637,15 +1690,18 @@
           <t>[(2590.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>(46.20784685737705, 6.125383191803278)</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>46.20784685737705</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>6.125383191803278</v>
       </c>
     </row>
@@ -1704,15 +1760,18 @@
           <t>[(28000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>(46.18634033076923, 6.177149759615385)</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>46.18634033076923</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>6.177149759615385</v>
       </c>
     </row>
@@ -1771,15 +1830,18 @@
           <t>[(10500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="n">
+        <v>22</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -1838,15 +1900,18 @@
           <t>[(8900.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" t="n">
+        <v>22</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -1905,15 +1970,18 @@
           <t>[(7500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>22</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -1972,16 +2040,19 @@
           <t>[(35000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>(46.22393593385827, 6.188916518503937)</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>46.22393593385827</v>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>(46.223837969921874, 6.18890019296875)</t>
+        </is>
       </c>
       <c r="O23" t="n">
-        <v>6.188916518503937</v>
+        <v>46.22383796992187</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.18890019296875</v>
       </c>
     </row>
     <row r="24">
@@ -2039,15 +2110,18 @@
           <t>[(5510.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>46.20221909543828</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>6.146693037119857</v>
       </c>
     </row>
@@ -2106,15 +2180,18 @@
           <t>[(4000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M25" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -2173,15 +2250,18 @@
           <t>[(2550.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>(46.1739691, 6.02370601)</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>46.1739691</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>6.02370601</v>
       </c>
     </row>
@@ -2240,15 +2320,18 @@
           <t>[(6380.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>(46.24317873491736, 6.140910617561984)</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>46.24317873491736</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>6.140910617561984</v>
       </c>
     </row>
@@ -2307,15 +2390,18 @@
           <t>[(5430.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M28" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -2374,15 +2460,18 @@
           <t>[(5650.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>(46.24317873491736, 6.140910617561984)</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>46.24317873491736</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>6.140910617561984</v>
       </c>
     </row>
@@ -2441,15 +2530,18 @@
           <t>[(7850.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M30" t="n">
+        <v>8</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>46.20221909543828</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>6.146693037119857</v>
       </c>
     </row>
@@ -2508,15 +2600,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>(46.29489699752066, 6.152340249586777)</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>46.29489699752066</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>6.152340249586777</v>
       </c>
     </row>
@@ -2575,15 +2670,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>(46.18634033076923, 6.177149759615385)</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>46.18634033076923</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>6.177149759615385</v>
       </c>
     </row>
@@ -2642,15 +2740,18 @@
           <t>[(3200.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>(46.19662702658228, 6.141429925474683)</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>46.19662702658228</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>6.141429925474683</v>
       </c>
     </row>
@@ -2709,15 +2810,18 @@
           <t>[(9400.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M34" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>(46.20784685737705, 6.125383191803278)</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>46.20784685737705</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>6.125383191803278</v>
       </c>
     </row>
@@ -2776,15 +2880,18 @@
           <t>[(8000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M35" t="n">
+        <v>22</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -2843,15 +2950,18 @@
           <t>[(25000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>(46.26431024, 6.1530291)</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>46.26431024</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>6.1530291</v>
       </c>
     </row>
@@ -2910,15 +3020,18 @@
           <t>[(5586.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M37" t="n">
+        <v>22</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -2977,15 +3090,18 @@
           <t>[(5950.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M38" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>46.2172232616622</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>6.142129813136729</v>
       </c>
     </row>
@@ -3044,16 +3160,19 @@
           <t>[(3340.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>(46.20784685737705, 6.125383191803278)</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>46.20784685737705</v>
+      <c r="M39" t="n">
+        <v>7</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>(46.20785189572192, 6.125428418716577)</t>
+        </is>
       </c>
       <c r="O39" t="n">
-        <v>6.125383191803278</v>
+        <v>46.20785189572192</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.125428418716577</v>
       </c>
     </row>
     <row r="40">
@@ -3111,15 +3230,18 @@
           <t>[(2730.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>(46.18939533575419, 6.107730086592179)</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>46.18939533575419</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>6.107730086592179</v>
       </c>
     </row>
@@ -3178,16 +3300,19 @@
           <t>[(1640.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>(46.20979588645105, 6.145230406643356)</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>46.20979588645105</v>
+      <c r="M41" t="n">
+        <v>10</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>(46.2097742377551, 6.145239649744898)</t>
+        </is>
       </c>
       <c r="O41" t="n">
-        <v>6.145230406643356</v>
+        <v>46.2097742377551</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6.145239649744898</v>
       </c>
     </row>
     <row r="42">
@@ -3245,15 +3370,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>(46.223837969921874, 6.18890019296875)</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>46.22383796992187</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>6.18890019296875</v>
       </c>
     </row>
@@ -3312,15 +3440,18 @@
           <t>[(7000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M43" t="n">
+        <v>22</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -3379,15 +3510,18 @@
           <t>[(4120.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M44" t="n">
+        <v>11</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -3446,15 +3580,18 @@
           <t>[(10500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M45" t="n">
+        <v>22</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -3513,15 +3650,18 @@
           <t>[(6300.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="M46" t="n">
+        <v>22</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -3580,15 +3720,18 @@
           <t>[(8500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>(46.174640405614035, 6.148398427719298)</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>46.17464040561403</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>6.148398427719298</v>
       </c>
     </row>
@@ -3647,15 +3790,18 @@
           <t>[(6100.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>(46.222301047222224, 6.127768602083334)</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>46.22230104722222</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>6.127768602083334</v>
       </c>
     </row>
@@ -3714,15 +3860,18 @@
           <t>[(4000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M49" t="n">
+        <v>22</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -3781,15 +3930,18 @@
           <t>[(5300.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>(46.22943967876106, 6.073280719911504)</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>46.22943967876106</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>6.073280719911504</v>
       </c>
     </row>
@@ -3848,15 +4000,18 @@
           <t>[(4760.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M51" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>46.2172232616622</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>6.142129813136729</v>
       </c>
     </row>
@@ -3915,15 +4070,18 @@
           <t>[(2090.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M52" t="n">
+        <v>6</v>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>46.2172232616622</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>6.142129813136729</v>
       </c>
     </row>
@@ -3982,15 +4140,18 @@
           <t>[(2300.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M53" t="n">
+        <v>8</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>46.20221909543828</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>6.146693037119857</v>
       </c>
     </row>
@@ -4049,15 +4210,18 @@
           <t>[(5100.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>(46.16637367333333, 6.113939658095238)</t>
         </is>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>46.16637367333333</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>6.113939658095238</v>
       </c>
     </row>
@@ -4116,15 +4280,18 @@
           <t>[(1718.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M55" t="n">
+        <v>8</v>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>46.20221909543828</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>6.146693037119857</v>
       </c>
     </row>
@@ -4183,15 +4350,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="n">
+        <v>22</v>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -4250,15 +4420,18 @@
           <t>[(1780.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M57" t="n">
+        <v>10</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>46.2097742377551</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>6.145239649744898</v>
       </c>
     </row>
@@ -4317,15 +4490,18 @@
           <t>[(1600.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M58" t="n">
+        <v>11</v>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -4384,15 +4560,18 @@
           <t>[(1992.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>(46.2063713, 6.1316504)</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>46.2063713</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>6.1316504</v>
       </c>
     </row>
@@ -4451,15 +4630,18 @@
           <t>[(5421.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>(46.19662702658228, 6.141429925474683)</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>46.19662702658228</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>6.141429925474683</v>
       </c>
     </row>
@@ -4518,15 +4700,18 @@
           <t>[(2550.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>(46.176846119148934, 6.0778733106382985)</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>46.17684611914893</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>6.077873310638298</v>
       </c>
     </row>
@@ -4585,15 +4770,18 @@
           <t>[(11500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="M62" t="n">
+        <v>22</v>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -4652,15 +4840,18 @@
           <t>[(5950.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="M63" t="n">
+        <v>10</v>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -4719,15 +4910,18 @@
           <t>[(3095.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>(46.2063713, 6.1316504)</t>
         </is>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>46.2063713</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>6.1316504</v>
       </c>
     </row>
@@ -4786,15 +4980,18 @@
           <t>[(7250.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>(46.174640405614035, 6.148398427719298)</t>
         </is>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>46.17464040561403</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>6.148398427719298</v>
       </c>
     </row>
@@ -4853,15 +5050,18 @@
           <t>[(8000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>(46.243823885074626, 6.2095837)</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>46.24382388507463</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>6.2095837</v>
       </c>
     </row>
@@ -4920,15 +5120,18 @@
           <t>[(11800.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="M67" t="n">
+        <v>10</v>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -4987,15 +5190,18 @@
           <t>[(2430.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="M68" t="n">
+        <v>11</v>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -5054,15 +5260,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>(46.223837969921874, 6.18890019296875)</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>46.22383796992187</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>6.18890019296875</v>
       </c>
     </row>
@@ -5121,16 +5330,19 @@
           <t>[(6800.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>(46.198010457, 6.1976358235)</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>46.198010457</v>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>(46.198029410050246, 6.19765671758794)</t>
+        </is>
       </c>
       <c r="O70" t="n">
-        <v>6.1976358235</v>
+        <v>46.19802941005025</v>
+      </c>
+      <c r="P70" t="n">
+        <v>6.19765671758794</v>
       </c>
     </row>
     <row r="71">
@@ -5188,15 +5400,18 @@
           <t>[(3500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="M71" t="n">
+        <v>22</v>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -5255,15 +5470,18 @@
           <t>[(7500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr">
         <is>
           <t>(46.2768531, 6.222811466666666)</t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>46.2768531</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>6.222811466666666</v>
       </c>
     </row>
@@ -5322,15 +5540,18 @@
           <t>[(4990.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="M73" t="n">
+        <v>22</v>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -5389,15 +5610,18 @@
           <t>[(2510.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="M74" t="n">
+        <v>7</v>
+      </c>
+      <c r="N74" t="inlineStr">
         <is>
           <t>(46.20784685737705, 6.125383191803278)</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>46.20784685737705</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>6.125383191803278</v>
       </c>
     </row>
@@ -5456,15 +5680,18 @@
           <t>[(7550.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>(46.202068743257, 6.15902832086514)</t>
         </is>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>46.202068743257</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>6.15902832086514</v>
       </c>
     </row>
@@ -5523,15 +5750,18 @@
           <t>[(3250.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>(46.211841474242426, 6.132065015151515)</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>46.21184147424243</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>6.132065015151515</v>
       </c>
     </row>
@@ -5590,15 +5820,18 @@
           <t>[(5100.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>(46.18634033076923, 6.177149759615385)</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>46.18634033076923</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>6.177149759615385</v>
       </c>
     </row>
@@ -5657,16 +5890,19 @@
           <t>[(6300.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>(46.295351811403506, 6.151693814035088)</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>46.29535181140351</v>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>(46.29489699752066, 6.152340249586777)</t>
+        </is>
       </c>
       <c r="O78" t="n">
-        <v>6.151693814035088</v>
+        <v>46.29489699752066</v>
+      </c>
+      <c r="P78" t="n">
+        <v>6.152340249586777</v>
       </c>
     </row>
     <row r="79">
@@ -5724,15 +5960,18 @@
           <t>[(2850.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>(46.19662702658228, 6.141429925474683)</t>
         </is>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>46.19662702658228</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>6.141429925474683</v>
       </c>
     </row>
@@ -5791,15 +6030,18 @@
           <t>[(5405.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>(46.24317873491736, 6.140910617561984)</t>
         </is>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>46.24317873491736</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>6.140910617561984</v>
       </c>
     </row>
@@ -5858,15 +6100,18 @@
           <t>[(4500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="M81" t="n">
+        <v>22</v>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -5925,15 +6170,18 @@
           <t>[(7500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="M82" t="n">
+        <v>22</v>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -5992,15 +6240,18 @@
           <t>[(3350.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>(46.176846119148934, 6.0778733106382985)</t>
         </is>
       </c>
-      <c r="N83" t="n">
+      <c r="O83" t="n">
         <v>46.17684611914893</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>6.077873310638298</v>
       </c>
     </row>
@@ -6059,15 +6310,18 @@
           <t>[(4870.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>(46.2063713, 6.1316504)</t>
         </is>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>46.2063713</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>6.1316504</v>
       </c>
     </row>
@@ -6126,15 +6380,18 @@
           <t>[(5683.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="inlineStr">
         <is>
           <t>(46.222301047222224, 6.127768602083334)</t>
         </is>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>46.22230104722222</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>6.127768602083334</v>
       </c>
     </row>
@@ -6193,15 +6450,18 @@
           <t>[(1978.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="M86" t="n">
+        <v>7</v>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>(46.20784685737705, 6.125383191803278)</t>
         </is>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>46.20784685737705</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>6.125383191803278</v>
       </c>
     </row>
@@ -6260,15 +6520,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr">
         <is>
           <t>(46.30168452777778, 6.2427298944444445)</t>
         </is>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
         <v>46.30168452777778</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>6.242729894444444</v>
       </c>
     </row>
@@ -6327,15 +6590,18 @@
           <t>[(3020.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>(46.174640405614035, 6.148398427719298)</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="O88" t="n">
         <v>46.17464040561403</v>
       </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
         <v>6.148398427719298</v>
       </c>
     </row>
@@ -6394,16 +6660,19 @@
           <t>[(2750.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>(46.191307215555554, 6.1553057877777775)</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>46.19130721555555</v>
+      <c r="M89" t="n">
+        <v>11</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>(46.19132117569061, 6.155295059668508)</t>
+        </is>
       </c>
       <c r="O89" t="n">
-        <v>6.155305787777777</v>
+        <v>46.19132117569061</v>
+      </c>
+      <c r="P89" t="n">
+        <v>6.155295059668508</v>
       </c>
     </row>
     <row r="90">
@@ -6461,15 +6730,18 @@
           <t>[(5500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="M90" t="n">
+        <v>22</v>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -6528,15 +6800,18 @@
           <t>[(1850.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="M91" t="n">
+        <v>8</v>
+      </c>
+      <c r="N91" t="inlineStr">
         <is>
           <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
-      <c r="N91" t="n">
+      <c r="O91" t="n">
         <v>46.20221909543828</v>
       </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
         <v>6.146693037119857</v>
       </c>
     </row>
@@ -6595,15 +6870,18 @@
           <t>[(2780.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>(46.29489699752066, 6.152340249586777)</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>46.29489699752066</v>
       </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
         <v>6.152340249586777</v>
       </c>
     </row>
@@ -6662,15 +6940,18 @@
           <t>[(6600.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="inlineStr">
         <is>
           <t>(46.21421326621622, 6.039813513513514)</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="O93" t="n">
         <v>46.21421326621622</v>
       </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
         <v>6.039813513513514</v>
       </c>
     </row>
@@ -6729,15 +7010,18 @@
           <t>[(3950.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr">
         <is>
           <t>(46.23105252, 6.1211587256)</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="O94" t="n">
         <v>46.23105252</v>
       </c>
-      <c r="O94" t="n">
+      <c r="P94" t="n">
         <v>6.1211587256</v>
       </c>
     </row>
@@ -6796,15 +7080,18 @@
           <t>[(5750.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>(46.21421326621622, 6.039813513513514)</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="O95" t="n">
         <v>46.21421326621622</v>
       </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
         <v>6.039813513513514</v>
       </c>
     </row>
@@ -6863,15 +7150,18 @@
           <t>[(1270.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="M96" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" t="inlineStr">
         <is>
           <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="O96" t="n">
         <v>46.2172232616622</v>
       </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
         <v>6.142129813136729</v>
       </c>
     </row>
@@ -6930,15 +7220,18 @@
           <t>[(3840.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>(46.211841474242426, 6.132065015151515)</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="O97" t="n">
         <v>46.21184147424243</v>
       </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
         <v>6.132065015151515</v>
       </c>
     </row>
@@ -6997,16 +7290,19 @@
           <t>[(4735.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>(46.202068743257, 6.15902832086514)</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>46.202068743257</v>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>(46.20206330841837, 6.1590288285714285)</t>
+        </is>
       </c>
       <c r="O98" t="n">
-        <v>6.15902832086514</v>
+        <v>46.20206330841837</v>
+      </c>
+      <c r="P98" t="n">
+        <v>6.159028828571429</v>
       </c>
     </row>
     <row r="99">
@@ -7064,15 +7360,18 @@
           <t>[(3900.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="inlineStr">
         <is>
           <t>(46.202068743257, 6.15902832086514)</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
         <v>46.202068743257</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>6.15902832086514</v>
       </c>
     </row>
@@ -7131,15 +7430,18 @@
           <t>[(1820.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>(46.199071180898876, 6.16370553483146)</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
         <v>46.19907118089888</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>6.16370553483146</v>
       </c>
     </row>
@@ -7198,15 +7500,18 @@
           <t>[(2800.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="M101" t="n">
+        <v>22</v>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -7265,15 +7570,18 @@
           <t>[(4900.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="M102" t="n">
+        <v>22</v>
+      </c>
+      <c r="N102" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="O102" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O102" t="n">
+      <c r="P102" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -7332,15 +7640,18 @@
           <t>[(7500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="M103" t="n">
+        <v>10</v>
+      </c>
+      <c r="N103" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="O103" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O103" t="n">
+      <c r="P103" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -7399,15 +7710,18 @@
           <t>[(4250.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>(46.19278529014084, 6.203413232394366)</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="O104" t="n">
         <v>46.19278529014084</v>
       </c>
-      <c r="O104" t="n">
+      <c r="P104" t="n">
         <v>6.203413232394366</v>
       </c>
     </row>
@@ -7466,15 +7780,18 @@
           <t>[(4550.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="inlineStr">
         <is>
           <t>(46.16526566, 6.1431175200000006)</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="O105" t="n">
         <v>46.16526566</v>
       </c>
-      <c r="O105" t="n">
+      <c r="P105" t="n">
         <v>6.143117520000001</v>
       </c>
     </row>
@@ -7533,15 +7850,18 @@
           <t>[(2700.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="M106" t="n">
+        <v>10</v>
+      </c>
+      <c r="N106" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="O106" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O106" t="n">
+      <c r="P106" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -7600,15 +7920,18 @@
           <t>[(8900.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="inlineStr">
         <is>
           <t>(46.29489699752066, 6.152340249586777)</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="O107" t="n">
         <v>46.29489699752066</v>
       </c>
-      <c r="O107" t="n">
+      <c r="P107" t="n">
         <v>6.152340249586777</v>
       </c>
     </row>
@@ -7667,15 +7990,18 @@
           <t>[(2760.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="M108" t="n">
+        <v>10</v>
+      </c>
+      <c r="N108" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="O108" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O108" t="n">
+      <c r="P108" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -7734,15 +8060,18 @@
           <t>[(1680.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="M109" t="n">
+        <v>10</v>
+      </c>
+      <c r="N109" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="O109" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O109" t="n">
+      <c r="P109" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -7801,15 +8130,18 @@
           <t>[(2450.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="inlineStr">
         <is>
           <t>(46.19662702658228, 6.141429925474683)</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="O110" t="n">
         <v>46.19662702658228</v>
       </c>
-      <c r="O110" t="n">
+      <c r="P110" t="n">
         <v>6.141429925474683</v>
       </c>
     </row>
@@ -7868,15 +8200,18 @@
           <t>[(1980.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr">
         <is>
           <t>(46.19454185, 6.1392286)</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="O111" t="n">
         <v>46.19454185</v>
       </c>
-      <c r="O111" t="n">
+      <c r="P111" t="n">
         <v>6.1392286</v>
       </c>
     </row>
@@ -7935,15 +8270,18 @@
           <t>[(3085.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="M112" t="n">
+        <v>22</v>
+      </c>
+      <c r="N112" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="O112" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O112" t="n">
+      <c r="P112" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -8002,15 +8340,18 @@
           <t>[(5400.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="inlineStr">
         <is>
           <t>(46.18939533575419, 6.107730086592179)</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="O113" t="n">
         <v>46.18939533575419</v>
       </c>
-      <c r="O113" t="n">
+      <c r="P113" t="n">
         <v>6.107730086592179</v>
       </c>
     </row>
@@ -8069,15 +8410,18 @@
           <t>[(10000.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="M114" t="n">
+        <v>22</v>
+      </c>
+      <c r="N114" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="O114" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O114" t="n">
+      <c r="P114" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -8136,15 +8480,18 @@
           <t>[(10490.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr">
         <is>
           <t>(46.22059501568627, 6.109087723529412)</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="O115" t="n">
         <v>46.22059501568627</v>
       </c>
-      <c r="O115" t="n">
+      <c r="P115" t="n">
         <v>6.109087723529412</v>
       </c>
     </row>
@@ -8203,16 +8550,19 @@
           <t>[(9500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>(46.216670255555556, 6.200812236625514)</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>46.21667025555556</v>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>(46.21662502520661, 6.200824415289256)</t>
+        </is>
       </c>
       <c r="O116" t="n">
-        <v>6.200812236625514</v>
+        <v>46.21662502520661</v>
+      </c>
+      <c r="P116" t="n">
+        <v>6.200824415289256</v>
       </c>
     </row>
     <row r="117">
@@ -8270,15 +8620,18 @@
           <t>[(6200.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>(46.243823885074626, 6.2095837)</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="O117" t="n">
         <v>46.24382388507463</v>
       </c>
-      <c r="O117" t="n">
+      <c r="P117" t="n">
         <v>6.2095837</v>
       </c>
     </row>
@@ -8337,15 +8690,18 @@
           <t>[(4426.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="M118" t="n">
+        <v>11</v>
+      </c>
+      <c r="N118" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="O118" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O118" t="n">
+      <c r="P118" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -8404,15 +8760,18 @@
           <t>[(4800.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="M119" t="n">
+        <v>3</v>
+      </c>
+      <c r="N119" t="inlineStr">
         <is>
           <t>(46.211841474242426, 6.132065015151515)</t>
         </is>
       </c>
-      <c r="N119" t="n">
+      <c r="O119" t="n">
         <v>46.21184147424243</v>
       </c>
-      <c r="O119" t="n">
+      <c r="P119" t="n">
         <v>6.132065015151515</v>
       </c>
     </row>
@@ -8471,15 +8830,18 @@
           <t>[(2392.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="M120" t="n">
+        <v>8</v>
+      </c>
+      <c r="N120" t="inlineStr">
         <is>
           <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="O120" t="n">
         <v>46.20221909543828</v>
       </c>
-      <c r="O120" t="n">
+      <c r="P120" t="n">
         <v>6.146693037119857</v>
       </c>
     </row>
@@ -8538,15 +8900,18 @@
           <t>[(4800.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="M121" t="n">
+        <v>11</v>
+      </c>
+      <c r="N121" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N121" t="n">
+      <c r="O121" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O121" t="n">
+      <c r="P121" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -8605,15 +8970,18 @@
           <t>[(1850.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="M122" t="n">
+        <v>8</v>
+      </c>
+      <c r="N122" t="inlineStr">
         <is>
           <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
-      <c r="N122" t="n">
+      <c r="O122" t="n">
         <v>46.20221909543828</v>
       </c>
-      <c r="O122" t="n">
+      <c r="P122" t="n">
         <v>6.146693037119857</v>
       </c>
     </row>
@@ -8672,15 +9040,18 @@
           <t>[(10500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="M123" t="n">
+        <v>11</v>
+      </c>
+      <c r="N123" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N123" t="n">
+      <c r="O123" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O123" t="n">
+      <c r="P123" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -8739,15 +9110,18 @@
           <t>[(2136.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="M124" t="n">
+        <v>3</v>
+      </c>
+      <c r="N124" t="inlineStr">
         <is>
           <t>(46.176846119148934, 6.0778733106382985)</t>
         </is>
       </c>
-      <c r="N124" t="n">
+      <c r="O124" t="n">
         <v>46.17684611914893</v>
       </c>
-      <c r="O124" t="n">
+      <c r="P124" t="n">
         <v>6.077873310638298</v>
       </c>
     </row>
@@ -8806,15 +9180,18 @@
           <t>[(4650.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="M125" t="n">
+        <v>10</v>
+      </c>
+      <c r="N125" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N125" t="n">
+      <c r="O125" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O125" t="n">
+      <c r="P125" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -8873,15 +9250,18 @@
           <t>[(1400.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="M126" t="n">
+        <v>22</v>
+      </c>
+      <c r="N126" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N126" t="n">
+      <c r="O126" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O126" t="n">
+      <c r="P126" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -8940,15 +9320,18 @@
           <t>[(5730.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="M127" t="n">
+        <v>5</v>
+      </c>
+      <c r="N127" t="inlineStr">
         <is>
           <t>(46.223837969921874, 6.18890019296875)</t>
         </is>
       </c>
-      <c r="N127" t="n">
+      <c r="O127" t="n">
         <v>46.22383796992187</v>
       </c>
-      <c r="O127" t="n">
+      <c r="P127" t="n">
         <v>6.18890019296875</v>
       </c>
     </row>
@@ -9007,15 +9390,18 @@
           <t>[(2910.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr">
         <is>
           <t>(46.229994966666666, 6.107003983333334)</t>
         </is>
       </c>
-      <c r="N128" t="n">
+      <c r="O128" t="n">
         <v>46.22999496666667</v>
       </c>
-      <c r="O128" t="n">
+      <c r="P128" t="n">
         <v>6.107003983333334</v>
       </c>
     </row>
@@ -9074,15 +9460,18 @@
           <t>[(4200.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="M129" t="n">
+        <v>4</v>
+      </c>
+      <c r="N129" t="inlineStr">
         <is>
           <t>(46.2063713, 6.1316504)</t>
         </is>
       </c>
-      <c r="N129" t="n">
+      <c r="O129" t="n">
         <v>46.2063713</v>
       </c>
-      <c r="O129" t="n">
+      <c r="P129" t="n">
         <v>6.1316504</v>
       </c>
     </row>
@@ -9141,15 +9530,18 @@
           <t>[(2850.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="M130" t="n">
+        <v>11</v>
+      </c>
+      <c r="N130" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N130" t="n">
+      <c r="O130" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O130" t="n">
+      <c r="P130" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -9208,15 +9600,18 @@
           <t>[(2990.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="M131" t="n">
+        <v>5</v>
+      </c>
+      <c r="N131" t="inlineStr">
         <is>
           <t>(46.222301047222224, 6.127768602083334)</t>
         </is>
       </c>
-      <c r="N131" t="n">
+      <c r="O131" t="n">
         <v>46.22230104722222</v>
       </c>
-      <c r="O131" t="n">
+      <c r="P131" t="n">
         <v>6.127768602083334</v>
       </c>
     </row>
@@ -9275,15 +9670,18 @@
           <t>[(4750.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="M132" t="n">
+        <v>2</v>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>(46.16526566, 6.1431175200000006)</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="O132" t="n">
         <v>46.16526566</v>
       </c>
-      <c r="O132" t="n">
+      <c r="P132" t="n">
         <v>6.143117520000001</v>
       </c>
     </row>
@@ -9342,15 +9740,18 @@
           <t>[(2650.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="M133" t="n">
+        <v>3</v>
+      </c>
+      <c r="N133" t="inlineStr">
         <is>
           <t>(46.16637367333333, 6.113939658095238)</t>
         </is>
       </c>
-      <c r="N133" t="n">
+      <c r="O133" t="n">
         <v>46.16637367333333</v>
       </c>
-      <c r="O133" t="n">
+      <c r="P133" t="n">
         <v>6.113939658095238</v>
       </c>
     </row>
@@ -9409,15 +9810,18 @@
           <t>[(2400.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="inlineStr">
         <is>
           <t>(46.17752554195804, 6.122828578787879)</t>
         </is>
       </c>
-      <c r="N134" t="n">
+      <c r="O134" t="n">
         <v>46.17752554195804</v>
       </c>
-      <c r="O134" t="n">
+      <c r="P134" t="n">
         <v>6.122828578787879</v>
       </c>
     </row>
@@ -9476,15 +9880,18 @@
           <t>[(2500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="M135" t="n">
+        <v>10</v>
+      </c>
+      <c r="N135" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="O135" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O135" t="n">
+      <c r="P135" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -9543,15 +9950,18 @@
           <t>[(2950.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="M136" t="n">
+        <v>7</v>
+      </c>
+      <c r="N136" t="inlineStr">
         <is>
           <t>(46.20784685737705, 6.125383191803278)</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="O136" t="n">
         <v>46.20784685737705</v>
       </c>
-      <c r="O136" t="n">
+      <c r="P136" t="n">
         <v>6.125383191803278</v>
       </c>
     </row>
@@ -9610,15 +10020,18 @@
           <t>[(4100.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="M137" t="n">
+        <v>6</v>
+      </c>
+      <c r="N137" t="inlineStr">
         <is>
           <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="O137" t="n">
         <v>46.2172232616622</v>
       </c>
-      <c r="O137" t="n">
+      <c r="P137" t="n">
         <v>6.142129813136729</v>
       </c>
     </row>
@@ -9677,15 +10090,18 @@
           <t>[(1608.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="M138" t="n">
+        <v>11</v>
+      </c>
+      <c r="N138" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="O138" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O138" t="n">
+      <c r="P138" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -9744,15 +10160,18 @@
           <t>[(1785.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="M139" t="n">
+        <v>10</v>
+      </c>
+      <c r="N139" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N139" t="n">
+      <c r="O139" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O139" t="n">
+      <c r="P139" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -9811,15 +10230,18 @@
           <t>[(5800.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="inlineStr">
         <is>
           <t>(46.243823885074626, 6.2095837)</t>
         </is>
       </c>
-      <c r="N140" t="n">
+      <c r="O140" t="n">
         <v>46.24382388507463</v>
       </c>
-      <c r="O140" t="n">
+      <c r="P140" t="n">
         <v>6.2095837</v>
       </c>
     </row>
@@ -9878,15 +10300,18 @@
           <t>[(5030.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
+      <c r="M141" t="n">
+        <v>11</v>
+      </c>
+      <c r="N141" t="inlineStr">
         <is>
           <t>(46.191307215555554, 6.1553057877777775)</t>
         </is>
       </c>
-      <c r="N141" t="n">
+      <c r="O141" t="n">
         <v>46.19130721555555</v>
       </c>
-      <c r="O141" t="n">
+      <c r="P141" t="n">
         <v>6.155305787777777</v>
       </c>
     </row>
@@ -9945,15 +10370,18 @@
           <t>[(7500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="M142" t="n">
+        <v>22</v>
+      </c>
+      <c r="N142" t="inlineStr">
         <is>
           <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
-      <c r="N142" t="n">
+      <c r="O142" t="n">
         <v>46.2017559</v>
       </c>
-      <c r="O142" t="n">
+      <c r="P142" t="n">
         <v>6.1466014</v>
       </c>
     </row>
@@ -10012,15 +10440,18 @@
           <t>[(3900.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="M143" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" t="inlineStr">
         <is>
           <t>(46.16637367333333, 6.113939658095238)</t>
         </is>
       </c>
-      <c r="N143" t="n">
+      <c r="O143" t="n">
         <v>46.16637367333333</v>
       </c>
-      <c r="O143" t="n">
+      <c r="P143" t="n">
         <v>6.113939658095238</v>
       </c>
     </row>
@@ -10079,15 +10510,18 @@
           <t>[(2800.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr">
         <is>
           <t>(46.26270862626263, 6.209230067676768)</t>
         </is>
       </c>
-      <c r="N144" t="n">
+      <c r="O144" t="n">
         <v>46.26270862626263</v>
       </c>
-      <c r="O144" t="n">
+      <c r="P144" t="n">
         <v>6.209230067676768</v>
       </c>
     </row>
@@ -10146,15 +10580,18 @@
           <t>[(1390.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="M145" t="n">
+        <v>6</v>
+      </c>
+      <c r="N145" t="inlineStr">
         <is>
           <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
-      <c r="N145" t="n">
+      <c r="O145" t="n">
         <v>46.2172232616622</v>
       </c>
-      <c r="O145" t="n">
+      <c r="P145" t="n">
         <v>6.142129813136729</v>
       </c>
     </row>
@@ -10213,15 +10650,18 @@
           <t>[(1630.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="inlineStr">
         <is>
           <t>(46.199071180898876, 6.16370553483146)</t>
         </is>
       </c>
-      <c r="N146" t="n">
+      <c r="O146" t="n">
         <v>46.19907118089888</v>
       </c>
-      <c r="O146" t="n">
+      <c r="P146" t="n">
         <v>6.16370553483146</v>
       </c>
     </row>
@@ -10280,15 +10720,18 @@
           <t>[(2450.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr">
         <is>
           <t>(46.2197184, 6.0947024)</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="O147" t="n">
         <v>46.2197184</v>
       </c>
-      <c r="O147" t="n">
+      <c r="P147" t="n">
         <v>6.0947024</v>
       </c>
     </row>
@@ -10347,15 +10790,18 @@
           <t>[(4480.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="inlineStr">
         <is>
           <t>(46.17752554195804, 6.122828578787879)</t>
         </is>
       </c>
-      <c r="N148" t="n">
+      <c r="O148" t="n">
         <v>46.17752554195804</v>
       </c>
-      <c r="O148" t="n">
+      <c r="P148" t="n">
         <v>6.122828578787879</v>
       </c>
     </row>
@@ -10414,16 +10860,19 @@
           <t>[(10500.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>(46.18634033076923, 6.177149759615385)</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
-        <v>46.18634033076923</v>
+      <c r="M149" t="n">
+        <v>4</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>(46.18634076346154, 6.177149178846154)</t>
+        </is>
       </c>
       <c r="O149" t="n">
-        <v>6.177149759615385</v>
+        <v>46.18634076346154</v>
+      </c>
+      <c r="P149" t="n">
+        <v>6.177149178846154</v>
       </c>
     </row>
     <row r="150">
@@ -10481,15 +10930,18 @@
           <t>[(1430.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="M150" t="n">
+        <v>10</v>
+      </c>
+      <c r="N150" t="inlineStr">
         <is>
           <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
-      <c r="N150" t="n">
+      <c r="O150" t="n">
         <v>46.18724205396518</v>
       </c>
-      <c r="O150" t="n">
+      <c r="P150" t="n">
         <v>6.137160952417795</v>
       </c>
     </row>
@@ -10548,15 +11000,18 @@
           <t>[(5930.0, '2024-18-08')]</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="M151" t="n">
+        <v>5</v>
+      </c>
+      <c r="N151" t="inlineStr">
         <is>
           <t>(46.202068743257, 6.15902832086514)</t>
         </is>
       </c>
-      <c r="N151" t="n">
+      <c r="O151" t="n">
         <v>46.202068743257</v>
       </c>
-      <c r="O151" t="n">
+      <c r="P151" t="n">
         <v>6.15902832086514</v>
       </c>
     </row>

--- a/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
+++ b/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,24 +524,29 @@
           <t>Longitude</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Latest_Price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4001389730</v>
+        <v>4000681665</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appartement avec un emplacement incroyable à Genève</t>
+          <t>Mieten Sie ein Stockwerk im SWISS BUSINESS CASTLE IN ZURICH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rue de la Dôle 24, 1203 Genève</t>
+          <t>8002 Zürich</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -551,12 +556,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,22 +571,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001389730</t>
+          <t>https://www.homegate.ch/rent/4000681665</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>55</v>
+        <v>1750</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08'), (1550.0, '2024-23-08')]</t>
+          <t>[(750.0, '2024-18-08'), (750.0, '2024-20-08'), (750.0, '2024-21-08'), (750.0, '2024-22-08'), (750.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -589,32 +594,35 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>(46.2063713, 6.1316504)</t>
+          <t>(47.3744489, 8.5410422)</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>46.2063713</v>
+        <v>47.3744489</v>
       </c>
       <c r="R2" t="n">
-        <v>6.1316504</v>
+        <v>8.5410422</v>
+      </c>
+      <c r="S2" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4001404554</v>
+        <v>4001405006</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OHRID VIEW - Exklusive Wohnträume am Ohridsee</t>
+          <t>3.0-Zimmerwohnung in Albisrieden</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8001 Zurich</t>
+          <t>Albert-Schneider-Weg 10, 8047 Zürich</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -629,75 +637,78 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>8047</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/buy/4001404554</t>
+          <t>https://www.homegate.ch/rent/4001405006</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[(200000.0, '2024-21-08'), (200000.0, '2024-22-08'), (200000.0, '2024-23-08')]</t>
+          <t>[(979.0, '2024-21-08')]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200000</v>
+        <v>979</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-21-08</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>(47.3744489, 8.5410422)</t>
+          <t>(47.37438331278027, 8.49097973542601)</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>47.3744489</v>
+        <v>47.37438331278027</v>
       </c>
       <c r="R3" t="n">
-        <v>8.5410422</v>
+        <v>8.490979735426009</v>
+      </c>
+      <c r="S3" t="n">
+        <v>979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4001400049</v>
+        <v>4001402352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zu verkaufen 2 kleine Wohnungen in Laupen ZH ab 350'000.-CHF</t>
+          <t>Appartement de 2 pièces à la Servette.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diezikonerstrasse 17, 8637 Laupen</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -707,12 +718,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8637</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -722,22 +733,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001400049</t>
+          <t>https://www.homegate.ch/rent/4001402352</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[(350000.0, '2024-20-08'), (350000.0, '2024-21-08'), (350000.0, '2024-22-08'), (350000.0, '2024-23-08')]</t>
+          <t>[(1023.0, '2024-20-08'), (1023.0, '2024-21-08'), (1023.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>350000</v>
+        <v>1023</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -745,37 +756,40 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>(47.26570490434783, 8.930098334621578)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>47.26570490434783</v>
+        <v>46.2017559</v>
       </c>
       <c r="R4" t="n">
-        <v>8.930098334621578</v>
+        <v>6.1466014</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4001306914</v>
+        <v>4001405544</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEMÜTLICH &amp; RUHIG!</t>
+          <t>Studio en parfait état à Montbrillant proche des Nations disponible au 1er octobre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Neubrunn 971, 8488 Turbenthal</t>
+          <t>Rue du Valais 18, 1202 Genève</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -785,12 +799,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8488</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -800,22 +814,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001306914</t>
+          <t>https://www.homegate.ch/rent/4001405544</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[(365000.0, '2024-18-08'), (365000.0, '2024-20-08'), (365000.0, '2024-21-08'), (365000.0, '2024-22-08')]</t>
+          <t>[(1165.0, '2024-21-08'), (1165.0, '2024-22-08'), (1165.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>365000</v>
+        <v>1165</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -823,32 +837,35 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>(47.43921979710438, 8.85257186161616)</t>
+          <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>47.43921979710438</v>
+        <v>46.2172232616622</v>
       </c>
       <c r="R5" t="n">
-        <v>8.852571861616161</v>
+        <v>6.142129813136729</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4001317326</v>
+        <v>4001400450</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Traumhafte Ferienwohnung in Curaglia, Graubünden</t>
+          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8000 Zürich</t>
+          <t>Baumackerstrasse 47, 8050 Zürich</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -863,12 +880,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -878,22 +895,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001317326</t>
+          <t>https://www.homegate.ch/rent/4001400450</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[(370000.0, '2024-18-08'), (370000.0, '2024-20-08'), (370000.0, '2024-21-08'), (370000.0, '2024-22-08'), (370000.0, '2024-23-08')]</t>
+          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>370000</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -901,32 +918,35 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>(47.3744489, 8.5410422)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>47.3744489</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R6" t="n">
-        <v>8.5410422</v>
+        <v>8.552227190564137</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4001394938</v>
+        <v>4001401166</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Opportunité à saisir : Superbe 6 pièces à Veigy-Foncenex, à 20 minutes du centre de Genève</t>
+          <t>Studio situé à la Servette</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1207 Genève</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -946,7 +966,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,22 +976,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001394938</t>
+          <t>https://www.homegate.ch/rent/4001401166</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[(395000.0, '2024-18-08'), (395000.0, '2024-20-08'), (395000.0, '2024-21-08'), (395000.0, '2024-22-08'), (395000.0, '2024-23-08')]</t>
+          <t>[(1248.0, '2024-20-08'), (1248.0, '2024-21-08'), (1248.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>395000</v>
+        <v>1248</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -979,7 +999,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -992,19 +1012,22 @@
       <c r="R7" t="n">
         <v>6.1466014</v>
       </c>
+      <c r="S7" t="n">
+        <v>1248</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4001327170</v>
+        <v>4001401691</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Altersgerechtes Wohnen im sonnigsten Dorf der Schweiz</t>
+          <t>Chambre à Zurich</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Blachenstrasse, 8467 Truttikon</t>
+          <t>Hottingerstrasse 34, 8032 Zürich</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1019,12 +1042,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8467</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1034,41 +1057,7577 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001327170</t>
+          <t>https://www.homegate.ch/rent/4001401691</t>
         </is>
       </c>
       <c r="J8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>(47.366720333062524, 8.561976071105615)</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>47.36672033306252</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.561976071105615</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4001391266</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Glättlistrasse 1, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001391266</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1254</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>(47.38784678183972, 8.486769005132254)</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>47.38784678183972</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.486769005132254</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4001365270</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Studio à Genève.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1205 Genève</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001365270</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[(1256.0, '2024-18-08'), (1256.0, '2024-20-08'), (1256.0, '2024-21-08'), (1256.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1256</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>16</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4001243823</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Appartement à Genève</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001243823</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[(1270.0, '2024-18-08'), (1270.0, '2024-20-08'), (1270.0, '2024-21-08'), (1270.0, '2024-22-08'), (1270.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1270</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>(46.2172232616622, 6.142129813136729)</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>46.2172232616622</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.142129813136729</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4001296829</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pâquis / Proche de la gare Cornavin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001296829</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[(1390.0, '2024-18-08'), (1390.0, '2024-20-08'), (1390.0, '2024-21-08')]</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1390</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2024-21-08</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>(46.2172232616622, 6.142129813136729)</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>46.2172232616622</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.142129813136729</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4001281444</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces à la Servette.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001281444</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>33</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>16</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4001398165</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Appartement à Genève</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rue de Richemont, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001398165</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>(46.2097742377551, 6.145239649744898)</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>46.2097742377551</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.145239649744898</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4001393841</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Magnusstrasse 8, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001393841</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>(47.37722915823373, 8.522798633266932)</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>47.37722915823373</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8.522798633266932</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4001381179</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Studio situé à la Servette</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1203 Genève</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001381179</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>33</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>16</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4001355523</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Appartement à Genève</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rue de la Navigation, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001355523</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[(1430.0, '2024-18-08'), (1430.0, '2024-20-08'), (1430.0, '2024-21-08'), (1430.0, '2024-22-08'), (1430.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1430</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>(46.2097742377551, 6.145239649744898)</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>46.2097742377551</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.145239649744898</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4001336642</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bel appartement 2 pièces de style ancien à Carouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>avenue Industrielle, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001336642</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[(1483.0, '2024-18-08'), (1483.0, '2024-20-08'), (1483.0, '2024-21-08'), (1483.0, '2024-22-08'), (1483.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1483</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>7</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>(46.18724205396518, 6.137160952417795)</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>46.18724205396518</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.137160952417795</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4001355584</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Studio komplett möbliert und ausgestattet</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Unterfeldstrasse 4, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001355584</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>48</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1490</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>8</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4001401164</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Studio situé aux pâquis</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1201 Genève</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001401164</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1490</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>16</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4001401033</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wohnung in Zürich</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Stiglenstrasse 37, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001401033</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>2.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K21" t="n">
+        <v>60</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08')]</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>1490</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2024-21-08</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>(47.422124091133846, 8.544782277237852)</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>47.42212409113385</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8.544782277237852</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4001402351</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces à la Servette.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001402351</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>30</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>16</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4001337045</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Appartement à Genève</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001337045</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>(46.20221909543828, 6.146693037119857)</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>46.20221909543828</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6.146693037119857</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4001406104</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Birnbaumstrasse 17, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001406104</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>55</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>(47.41188227578912, 8.552227190564137)</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>47.41188227578912</v>
+      </c>
+      <c r="R24" t="n">
+        <v>8.552227190564137</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4001356877</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Appartement Location - Bon emplacement - Disponible imémédiatement.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1227 Acacias</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001356877</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>35</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>7</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>(46.18724205396518, 6.137160952417795)</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>46.18724205396518</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6.137160952417795</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4001320202</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Studio à la Servette.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001320202</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>30</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>16</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4001366897</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces à Plainpalais.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1205 Genève</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001366897</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[(1505.0, '2024-18-08'), (1505.0, '2024-20-08'), (1505.0, '2024-21-08'), (1505.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1505</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>16</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4001351379</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rue du Nant 23, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351379</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[(1510.0, '2024-18-08'), (1510.0, '2024-20-08'), (1510.0, '2024-21-08'), (1510.0, '2024-22-08'), (1510.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1510</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>(46.202068743257, 6.15902832086514)</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>46.202068743257</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6.15902832086514</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4001373053</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Appartement lumineux de 30 m situé dans 1203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rue Daubin, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8973</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001373053</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[(1520.0, '2024-18-08'), (1520.0, '2024-20-08'), (1520.0, '2024-21-08'), (1520.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>(46.2063713, 6.1316504)</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>46.2063713</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6.1316504</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4001364077</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Studio situé aux Pâquis</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1201 Genève</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001364077</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>35</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1550</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>16</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4001343788</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Meyrin.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001343788</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>45</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[(1558.0, '2024-18-08'), (1558.0, '2024-20-08'), (1558.0, '2024-21-08'), (1558.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1558</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>(46.22410254895833, 6.106731841666666)</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>46.22410254895833</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6.106731841666666</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4001133546</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2-Zimmer-Wohnung an bester Lage</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hallwylstrasse 40, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001133546</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>38</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1559</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>(47.37722915823373, 8.522798633266932)</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>47.37722915823373</v>
+      </c>
+      <c r="R32" t="n">
+        <v>8.522798633266932</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4001390278</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gemütliche Single-Wohnung</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390278</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>51</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1590</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>(47.419050886211345, 8.512615560824743)</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>47.41905088621134</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8.512615560824743</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4001383897</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Les Hauts de Saint-Jean</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rue de l'Encyclopédie 7, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8973</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001383897</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>37</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1590</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>(46.2063713, 6.1316504)</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>46.2063713</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.1316504</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3001912350</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Viktoriastrasse 29, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/3001912350</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>23</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>(47.39948119888603, 8.542812898886032)</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>47.39948119888603</v>
+      </c>
+      <c r="R35" t="n">
+        <v>8.542812898886032</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4001292968</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13 Rue Sautter, 1.5 pièce</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rue Sautter 13, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001292968</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>36</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[(1608.0, '2024-18-08'), (1608.0, '2024-20-08'), (1608.0, '2024-21-08')]</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1608</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2024-21-08</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>(46.191307215555554, 6.1553057877777775)</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>46.19130721555555</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6.155305787777777</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4001389721</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Studio in Geneva</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Grand-Rue 12, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001389721</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>56</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[(1610.0, '2024-18-08'), (1610.0, '2024-20-08'), (1610.0, '2024-21-08'), (1610.0, '2024-22-08'), (1610.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1610</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>5</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>(46.20221909543828, 6.146693037119857)</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>46.20221909543828</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6.146693037119857</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4001405543</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Spacieux studio en attique dans le quartier prisé de Carouge disponible au 16 septembre</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rue de la Filature 23, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001405543</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>35</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[(1612.0, '2024-21-08'), (1612.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>1612</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>7</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>(46.18724205396518, 6.137160952417795)</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>46.18724205396518</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6.137160952417795</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4001328195</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Studio situé aux Servettes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1203 Genève</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001328195</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>36</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[(1554.0, '2024-18-08'), (1554.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1620</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>16</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4001369307</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Wir suchen genau Sie</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Badenerstrasse 779, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369307</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>59</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[(1620.0, '2024-18-08'), (1620.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08'), (1620.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>1620</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>(47.38784678183972, 8.486769005132254)</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>47.38784678183972</v>
+      </c>
+      <c r="R40" t="n">
+        <v>8.486769005132254</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4001297083</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces au 5ème en face du Parc la Grange</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001297083</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[(1630.0, '2024-18-08'), (1630.0, '2024-20-08'), (1630.0, '2024-21-08'), (1630.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>1630</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>(46.199071180898876, 6.16370553483146)</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>46.19907118089888</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6.16370553483146</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4001066000</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces au 2ème étage</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rue Voltaire 31, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001066000</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>28</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[(1640.0, '2024-18-08'), (1640.0, '2024-20-08'), (1640.0, '2024-21-08'), (1640.0, '2024-22-08'), (1640.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1640</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>(46.2097742377551, 6.145239649744898)</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>46.2097742377551</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6.145239649744898</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4001361662</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2.0 Zimmerwohnung in Zürich</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Dübendorfstrasse 333, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001361662</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>51</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>1643</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>8</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R43" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4001402922</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Buchzelgstrasse 91, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001402922</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>55</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>(47.35846491585127, 8.590339297586432)</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>47.35846491585127</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8.590339297586432</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4001386498</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Singlewohnung in Zürich Seebach Kopie</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Arianestrasse 11, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386498</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>34</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1654</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>5</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>(47.422124091133846, 8.544782277237852)</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>47.42212409113385</v>
+      </c>
+      <c r="R45" t="n">
+        <v>8.544782277237852</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4001383533</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Felsenrainstrasse 15, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001383533</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1663</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>5</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>(47.422124091133846, 8.544782277237852)</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>47.42212409113385</v>
+      </c>
+      <c r="R46" t="n">
+        <v>8.544782277237852</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4001342150</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Chambre a louer au Eaux-Vives!</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Chemin Neuf, 1207 Geneva</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001342150</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>91</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>[(1665.0, '2024-18-08'), (1665.0, '2024-20-08'), (1665.0, '2024-21-08'), (1665.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1665</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>(46.202068743257, 6.15902832086514)</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>46.202068743257</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6.15902832086514</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4001313115</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Studio à Genève.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1204 Genève</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313115</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>23</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>[(1670.0, '2024-18-08'), (1670.0, '2024-20-08'), (1670.0, '2024-21-08'), (1670.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1670</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>16</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4001364577</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Glatttalstrasse 79, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001364577</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>34</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1678</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>5</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>(47.422124091133846, 8.544782277237852)</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>47.42212409113385</v>
+      </c>
+      <c r="R49" t="n">
+        <v>8.544782277237852</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4001259400</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001259400</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>[(1680.0, '2024-18-08'), (1680.0, '2024-20-08'), (1680.0, '2024-21-08'), (1680.0, '2024-22-08'), (1680.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1680</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>7</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>(46.18724205396518, 6.137160952417795)</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>46.18724205396518</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6.137160952417795</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4001385233</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Charmantes zentrales Studio zu mieten</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Aprikosenstrasse 5, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001385233</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>23</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1690</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>8</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4001385958</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001385958</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>40</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>(47.39948119888603, 8.542812898886032)</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>47.39948119888603</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8.542812898886032</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4001407318</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces avec balcon, situé au rez-de-chaussé.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Chemin Du-Villard 2, 1219 CHATELAINE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001407318</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>58</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[(1710.0, '2024-22-08'), (1710.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1710</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>(46.20368202088608, 6.101213236286919)</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>46.20368202088608</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.101213236286919</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4001380884</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Wiesliacher 95, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001380884</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>64</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>1715</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>(47.35846491585127, 8.590339297586432)</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>47.35846491585127</v>
+      </c>
+      <c r="R54" t="n">
+        <v>8.590339297586432</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4001333905</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333905</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>1715</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>(47.38784678183972, 8.486769005132254)</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>47.38784678183972</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8.486769005132254</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4001151789</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Joli studio au 3ème étage en plein coeur de la Vieille-Ville</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001151789</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>28</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>[(1718.0, '2024-18-08'), (1718.0, '2024-20-08'), (1718.0, '2024-21-08'), (1718.0, '2024-22-08'), (1718.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>1718</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>(46.20221909543828, 6.146693037119857)</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>46.20221909543828</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6.146693037119857</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4001407904</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>A saisir ! Bel appartement à côté de la gare CFF de Genève Cornavin !</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001407904</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>48</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[(1720.0, '2024-22-08'), (1720.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>1720</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>(46.2097742377551, 6.145239649744898)</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>46.2097742377551</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6.145239649744898</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4001372133</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Quartier des Eaux-Vives</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Avenue Théodore Flournoy 8, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372133</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>40</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[(1750.0, '2024-18-08'), (1750.0, '2024-20-08'), (1750.0, '2024-21-08'), (1750.0, '2024-22-08'), (1750.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>1750</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>(46.199071180898876, 6.16370553483146)</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>46.19907118089888</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6.16370553483146</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4001389683</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Karstlernstrasse 6, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001389683</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>58</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>1751</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>(47.38784678183972, 8.486769005132254)</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>47.38784678183972</v>
+      </c>
+      <c r="R59" t="n">
+        <v>8.486769005132254</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4001390016</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Moderne 1.5 Zimmer-Wohnung in Zürich (Neubau)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Schaffhauserstrasse 453, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390016</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>34</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>5</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>(47.422124091133846, 8.544782277237852)</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>47.42212409113385</v>
+      </c>
+      <c r="R60" t="n">
+        <v>8.544782277237852</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4001400576</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001400576</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>56</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>(47.3744489, 8.5410422)</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>47.3744489</v>
+      </c>
+      <c r="R61" t="n">
+        <v>8.5410422</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4001395817</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VERSOIX - 3 pièces</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001395817</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>62</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>(46.29489699752066, 6.152340249586777)</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>46.29489699752066</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6.152340249586777</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4001395818</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VERSOIX - 3 pièces</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001395818</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>62</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>(46.29489699752066, 6.152340249586777)</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>46.29489699752066</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.152340249586777</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4001362025</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001362025</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>58</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>1780</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>8</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R64" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4001156178</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>A saisir ! Au coeur de Genève !</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001156178</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>41</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1780</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>6</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>(46.2097742377551, 6.145239649744898)</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>46.2097742377551</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6.145239649744898</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4001292988</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Carouge.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1227 Carouge</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001292988</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>51</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>[(1785.0, '2024-18-08'), (1785.0, '2024-20-08'), (1785.0, '2024-21-08'), (1785.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1785</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>7</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>(46.18724205396518, 6.137160952417795)</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>46.18724205396518</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6.137160952417795</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4001318915</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Erstvermietung</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001318915</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>37</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>(47.419142437571594, 8.511772920389461)</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>47.41914243757159</v>
+      </c>
+      <c r="R67" t="n">
+        <v>8.511772920389461</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4001351110</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ihre neue Wohnung im Grünen?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Balberstrasse 74, 8038 Zürich</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8038</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351110</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>56</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>(47.34339435560345, 8.531125890517242)</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>47.34339435560345</v>
+      </c>
+      <c r="R68" t="n">
+        <v>8.531125890517242</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4001289661</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>EINMALIGES WOHNEN NAHE ZÜRCHER -ZENTRUM IN EINER TRAUMHAFTEN ETAGENWOHNUNG</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Albisstrasse 161, 8038 Zürich</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8038</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001289661</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>65</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>(47.34339435560345, 8.531125890517242)</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>47.34339435560345</v>
+      </c>
+      <c r="R69" t="n">
+        <v>8.531125890517242</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4001403040</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Schöne Stadtnahe Wohnung</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001403040</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>55</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1791</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>(47.39948119888603, 8.542812898886032)</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>47.39948119888603</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8.542812898886032</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>4001336703</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Centre-ville / Proche de la gare Cornavin</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001336703</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>40</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>5</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>(46.2172232616622, 6.142129813136729)</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>46.2172232616622</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6.142129813136729</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>4001349266</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Route de Meinier 15, 1253 Vandoeuvres</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001349266</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
         <v>54</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[(395000.0, '2024-18-08'), (395000.0, '2024-20-08'), (395000.0, '2024-21-08'), (395000.0, '2024-22-08')]</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>395000</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>(47.629467558181815, 8.727018168484848)</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>47.62946755818182</v>
-      </c>
-      <c r="R8" t="n">
-        <v>8.727018168484848</v>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>(46.216670255555556, 6.200812236625514)</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>46.21667025555556</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6.200812236625514</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4001320201</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces aux Eaux-Vives.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1207 Genève</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001320201</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>30</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>16</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R73" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4001320200</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces aux Eaux-Vives</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1207 Genève</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001320200</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>35</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>[(1810.0, '2024-18-08'), (1810.0, '2024-20-08'), (1810.0, '2024-21-08'), (1810.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>1810</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>16</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4001245886</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Charmant appartement de 2 pièces en étage élevé aux Eaux-vives</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Avenue Pictet-de-Rochemont, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001245886</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>38</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1820</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>(46.199071180898876, 6.16370553483146)</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>46.19907118089888</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6.16370553483146</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4001390113</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Baslerstrasse 107, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001390113</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>38</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1820</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>6</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>(47.38784678183972, 8.486769005132254)</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>47.38784678183972</v>
+      </c>
+      <c r="R76" t="n">
+        <v>8.486769005132254</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4001386972</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bel appartement dans le quartier de la Servette</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rue Louis-Favre 6, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386972</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>35</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1820</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>(46.211841474242426, 6.132065015151515)</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>46.21184147424243</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6.132065015151515</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4001341049</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hönggerstrasse 24, 8037 Zürich</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8037</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341049</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>36</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1840</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>(47.39401932382049, 8.526534328596087)</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>47.39401932382049</v>
+      </c>
+      <c r="R78" t="n">
+        <v>8.526534328596087</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4001371525</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Carouge.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1227 Carouge</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001371525</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>51</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1845</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>7</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>(46.18724205396518, 6.137160952417795)</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>46.18724205396518</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6.137160952417795</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4001350715</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Joli studio en plein coeur de la Vieille-Ville</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001350715</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1845</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>5</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>(46.20221909543828, 6.146693037119857)</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>46.20221909543828</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6.146693037119857</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4001369430</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Bel appartement de 3 pièces au 3e étage.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rue des Noirettes 27, 1227 Carouge</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369430</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>51</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1845</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>7</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>(46.18724205396518, 6.137160952417795)</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>46.18724205396518</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6.137160952417795</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4001298127</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Wohnen mit Aussicht</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001298127</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>65</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1849</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>8</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R82" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4001366896</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Plainpalais.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1203 Genève</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001366896</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>44</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>16</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R83" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4001275872</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Bel appartement en plein coeur de la Vieille-Ville</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rue de la Cité 9bis, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001275872</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>32</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08'), (1850.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>5</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>(46.20221909543828, 6.146693037119857)</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>46.20221909543828</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6.146693037119857</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4001333869</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Quartier de la Gradelle - Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Avenue des Amazones 8, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333869</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>44</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>(46.20082203493976, 6.1865041228915665)</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>46.20082203493976</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6.186504122891566</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4001398794</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Wohnen neben Sportplatz und Glattzentrum</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001398794</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>50</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>8</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R86" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4001386021</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Geeringstrasse 42, 8049 Zürich</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8102</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386021</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>60</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1855</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>(47.40885941533816, 8.464555297222223)</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>47.40885941533816</v>
+      </c>
+      <c r="R87" t="n">
+        <v>8.464555297222223</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4001221422</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Zentrale Lage - idyllisch und ruhig</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jungholzstrasse 20, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001221422</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>43</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1866</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>4</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>(47.41188227578912, 8.552227190564137)</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>47.41188227578912</v>
+      </c>
+      <c r="R88" t="n">
+        <v>8.552227190564137</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4001404338</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Appartement de 5 pièces avec balcon, situé au 8ème étage.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rue de la Calle 34, 1213 ONEX</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001404338</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>79</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>(46.18939533575419, 6.107730086592179)</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>46.18939533575419</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6.107730086592179</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4001360173</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wartauweg 19, 8049 Zürich</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001360173</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>28</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>(47.40363721573333, 8.496623159199999)</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>47.40363721573333</v>
+      </c>
+      <c r="R90" t="n">
+        <v>8.496623159199999</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4001400534</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>neu renovierte 3-Zimmerwohnung</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Am Luchsgraben 9, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001400534</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>65</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>8</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R91" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4001298128</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001298128</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>66</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>8</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R92" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4001333934</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Im Grünen in Zürich-Altstetten</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Vetterliweg 82, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333934</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>59</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1880</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>6</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>(47.38784678183972, 8.486769005132254)</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>47.38784678183972</v>
+      </c>
+      <c r="R93" t="n">
+        <v>8.486769005132254</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3001034675</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer in Oerlikon</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Friesstrasse 8, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/3001034675</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>20</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1890</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>4</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>(47.41188227578912, 8.552227190564137)</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>47.41188227578912</v>
+      </c>
+      <c r="R94" t="n">
+        <v>8.552227190564137</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4001372957</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Urbanes Wohnen im Kreis 4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Hildastrasse 1, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372957</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>29</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1890</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>3</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>(47.37722915823373, 8.522798633266932)</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>47.37722915823373</v>
+      </c>
+      <c r="R95" t="n">
+        <v>8.522798633266932</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4001313304</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2 pièces au Pâquis proche du lac</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rue des Pâquis 53, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313304</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>43</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>6</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>(46.2097742377551, 6.145239649744898)</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>46.2097742377551</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6.145239649744898</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4001187616</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Tolle Wohnung in einem der attraktivsten Quartiere der Stadt Zürich</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Eidmattstrasse 6, 8032 Zürich</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001187616</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>38</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>2</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>(47.366720333062524, 8.561976071105615)</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>47.36672033306252</v>
+      </c>
+      <c r="R97" t="n">
+        <v>8.561976071105615</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4001370602</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces au 3ème étage</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Avenue Blanc 34, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001370602</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>50</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>5</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>(46.2172232616622, 6.142129813136729)</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>46.2172232616622</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6.142129813136729</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4001385645</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Uetlibergstrasse 83, 8045 Zürich</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8045</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001385645</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>52</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>(47.359304231631135, 8.51290742444224)</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>47.35930423163114</v>
+      </c>
+      <c r="R99" t="n">
+        <v>8.51290742444224</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4001371524</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Genève.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001371524</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>50</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>16</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4001382538</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Charmant appartement en attique de 3 pièces situé à Bernex</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1233 Bernex</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001382538</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>60</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>(46.176846119148934, 6.0778733106382985)</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>46.17684611914893</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6.077873310638298</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1900</v>
       </c>
     </row>
   </sheetData>

--- a/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
+++ b/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Latest_Price</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Price per m²</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,7 +595,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -610,24 +615,27 @@
       <c r="S2" t="n">
         <v>750</v>
       </c>
+      <c r="T2" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4001405006</v>
+        <v>4001342150</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.0-Zimmerwohnung in Albisrieden</t>
+          <t>Chambre a louer au Eaux-Vives!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Albert-Schneider-Weg 10, 8047 Zürich</t>
+          <t>Chemin Neuf, 1207 Geneva</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -637,7 +645,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8047</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -652,63 +660,66 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405006</t>
+          <t>https://www.homegate.ch/rent/4001342150</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[(979.0, '2024-21-08')]</t>
+          <t>[(1665.0, '2024-18-08'), (1665.0, '2024-20-08'), (1665.0, '2024-21-08'), (1665.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>979</v>
+        <v>1665</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>(47.37438331278027, 8.49097973542601)</t>
+          <t>(46.202068743257, 6.15902832086514)</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>47.37438331278027</v>
+        <v>46.202068743257</v>
       </c>
       <c r="R3" t="n">
-        <v>8.490979735426009</v>
+        <v>6.15902832086514</v>
       </c>
       <c r="S3" t="n">
-        <v>979</v>
+        <v>1665</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18.2967032967033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4001402352</v>
+        <v>4001391266</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Glättlistrasse 1, 8048 Zürich</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -718,7 +729,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -733,22 +744,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402352</t>
+          <t>https://www.homegate.ch/rent/4001391266</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[(1023.0, '2024-20-08'), (1023.0, '2024-21-08'), (1023.0, '2024-22-08')]</t>
+          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1023</v>
+        <v>1254</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -756,40 +767,43 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>46.2017559</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R4" t="n">
-        <v>6.1466014</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S4" t="n">
-        <v>1023</v>
+        <v>1254</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18.44117647058824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4001405544</v>
+        <v>4001409730</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Studio en parfait état à Montbrillant proche des Nations disponible au 1er octobre</t>
+          <t>Befristet bis 31.01.2025: Zentral gelegene 2.5-Zimmerwohnung mit Balkon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rue du Valais 18, 1202 Genève</t>
+          <t>Badenerstrasse 253, 8003 Zürich</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -799,7 +813,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -814,58 +828,61 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405544</t>
+          <t>https://www.homegate.ch/rent/4001409730</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[(1165.0, '2024-21-08'), (1165.0, '2024-22-08'), (1165.0, '2024-23-08')]</t>
+          <t>[(1150.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.37275923394794, 8.515733035032538)</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>46.2172232616622</v>
+        <v>47.37275923394794</v>
       </c>
       <c r="R5" t="n">
-        <v>6.142129813136729</v>
+        <v>8.515733035032538</v>
       </c>
       <c r="S5" t="n">
-        <v>1165</v>
+        <v>1150</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18.85245901639344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4001400450</v>
+        <v>4001410215</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
+          <t>Charmante Altbauwohnung im Kreis 3 - befristeter Mietvertrag bis am 28. Februar 2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Baumackerstrasse 47, 8050 Zürich</t>
+          <t>Malzstrasse 16, 8045 Zürich</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -880,7 +897,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -895,58 +912,61 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400450</t>
+          <t>https://www.homegate.ch/rent/4001410215</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
+          <t>[(1250.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>(47.41188227578912, 8.552227190564137)</t>
+          <t>(47.359304231631135, 8.51290742444224)</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>47.41188227578912</v>
+        <v>47.35930423163114</v>
       </c>
       <c r="R6" t="n">
-        <v>8.552227190564137</v>
+        <v>8.51290742444224</v>
       </c>
       <c r="S6" t="n">
-        <v>1240</v>
+        <v>1250</v>
+      </c>
+      <c r="T6" t="n">
+        <v>21.92982456140351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4001401166</v>
+        <v>4001404338</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Studio situé à la Servette</t>
+          <t>Appartement de 5 pièces avec balcon, situé au 8ème étage.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Rue de la Calle 34, 1213 ONEX</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -961,7 +981,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -976,58 +996,61 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401166</t>
+          <t>https://www.homegate.ch/rent/4001404338</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[(1248.0, '2024-20-08'), (1248.0, '2024-21-08'), (1248.0, '2024-22-08')]</t>
+          <t>[(1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1248</v>
+        <v>1870</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(46.18939533575419, 6.107730086592179)</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>46.2017559</v>
+        <v>46.18939533575419</v>
       </c>
       <c r="R7" t="n">
-        <v>6.1466014</v>
+        <v>6.107730086592179</v>
       </c>
       <c r="S7" t="n">
-        <v>1248</v>
+        <v>1870</v>
+      </c>
+      <c r="T7" t="n">
+        <v>23.67088607594937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4001401691</v>
+        <v>4001380884</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chambre à Zurich</t>
+          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hottingerstrasse 34, 8032 Zürich</t>
+          <t>Wiesliacher 95, 8053 Zürich</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1042,7 +1065,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1057,26 +1080,26 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401691</t>
+          <t>https://www.homegate.ch/rent/4001380884</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1250</v>
+        <v>1715</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1084,31 +1107,34 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>(47.366720333062524, 8.561976071105615)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>47.36672033306252</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R8" t="n">
-        <v>8.561976071105615</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1715</v>
+      </c>
+      <c r="T8" t="n">
+        <v>26.796875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4001391266</v>
+        <v>4001406104</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
+          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Glättlistrasse 1, 8048 Zürich</t>
+          <t>Birnbaumstrasse 17, 8050 Zürich</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1123,7 +1149,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1138,63 +1164,66 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001391266</t>
+          <t>https://www.homegate.ch/rent/4001406104</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
+          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1254</v>
+        <v>1500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>47.38784678183972</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R9" t="n">
-        <v>8.486769005132254</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S9" t="n">
-        <v>1254</v>
+        <v>1500</v>
+      </c>
+      <c r="T9" t="n">
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4001365270</v>
+        <v>4001369307</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Studio à Genève.</t>
+          <t>Wir suchen genau Sie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1205 Genève</t>
+          <t>Badenerstrasse 779, 8048 Zürich</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1204,7 +1233,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1219,63 +1248,66 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001365270</t>
+          <t>https://www.homegate.ch/rent/4001369307</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[(1256.0, '2024-18-08'), (1256.0, '2024-20-08'), (1256.0, '2024-21-08'), (1256.0, '2024-22-08')]</t>
+          <t>[(1620.0, '2024-18-08'), (1620.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08'), (1620.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1256</v>
+        <v>1620</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>46.2017559</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R10" t="n">
-        <v>6.1466014</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S10" t="n">
-        <v>1256</v>
+        <v>1620</v>
+      </c>
+      <c r="T10" t="n">
+        <v>27.45762711864407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4001243823</v>
+        <v>4001289661</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>EINMALIGES WOHNEN NAHE ZÜRCHER -ZENTRUM IN EINER TRAUMHAFTEN ETAGENWOHNUNG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>Albisstrasse 161, 8038 Zürich</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1285,7 +1317,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1295,27 +1327,27 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001243823</t>
+          <t>https://www.immoscout24.ch/rent/4001289661</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[(1270.0, '2024-18-08'), (1270.0, '2024-20-08'), (1270.0, '2024-21-08'), (1270.0, '2024-22-08'), (1270.0, '2024-23-08')]</t>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1270</v>
+        <v>1790</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1323,40 +1355,43 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.34339435560345, 8.531125890517242)</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>46.2172232616622</v>
+        <v>47.34339435560345</v>
       </c>
       <c r="R11" t="n">
-        <v>6.142129813136729</v>
+        <v>8.531125890517242</v>
       </c>
       <c r="S11" t="n">
-        <v>1270</v>
+        <v>1790</v>
+      </c>
+      <c r="T11" t="n">
+        <v>27.53846153846154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4001296829</v>
+        <v>4001298128</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pâquis / Proche de la gare Cornavin</t>
+          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1366,7 +1401,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1381,58 +1416,61 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001296829</t>
+          <t>https://www.homegate.ch/rent/4001298128</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[(1390.0, '2024-18-08'), (1390.0, '2024-20-08'), (1390.0, '2024-21-08')]</t>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1390</v>
+        <v>1870</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.40365211404348, 8.579595054782608)</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>46.2172232616622</v>
+        <v>47.40365211404348</v>
       </c>
       <c r="R12" t="n">
-        <v>6.142129813136729</v>
+        <v>8.579595054782608</v>
       </c>
       <c r="S12" t="n">
-        <v>1390</v>
+        <v>1870</v>
+      </c>
+      <c r="T12" t="n">
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4001281444</v>
+        <v>4001395818</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>VERSOIX - 3 pièces</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1447,7 +1485,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1462,58 +1500,61 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001281444</t>
+          <t>https://www.homegate.ch/rent/4001395818</t>
         </is>
       </c>
       <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>62</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
-        <v>33</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1400</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>16</v>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(46.29489699752066, 6.152340249586777)</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>46.2017559</v>
+        <v>46.29489699752066</v>
       </c>
       <c r="R13" t="n">
-        <v>6.1466014</v>
+        <v>6.152340249586777</v>
       </c>
       <c r="S13" t="n">
-        <v>1400</v>
+        <v>1760</v>
+      </c>
+      <c r="T13" t="n">
+        <v>28.38709677419355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4001398165</v>
+        <v>4001395817</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>VERSOIX - 3 pièces</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rue de Richemont, 1202 Genève</t>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1528,7 +1569,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1543,58 +1584,61 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001398165</t>
+          <t>https://www.homegate.ch/rent/4001395817</t>
         </is>
       </c>
       <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>62</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
-        <v>44</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[(1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1400</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>6</v>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(46.29489699752066, 6.152340249586777)</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>46.2097742377551</v>
+        <v>46.29489699752066</v>
       </c>
       <c r="R14" t="n">
-        <v>6.145239649744898</v>
+        <v>6.152340249586777</v>
       </c>
       <c r="S14" t="n">
-        <v>1400</v>
+        <v>1760</v>
+      </c>
+      <c r="T14" t="n">
+        <v>28.38709677419355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4001393841</v>
+        <v>4001298127</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
+          <t>Wohnen mit Aussicht</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Magnusstrasse 8, 8004 Zürich</t>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1609,7 +1653,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1624,58 +1668,61 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001393841</t>
+          <t>https://www.homegate.ch/rent/4001298127</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
+          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1400</v>
+        <v>1849</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>(47.37722915823373, 8.522798633266932)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>47.37722915823373</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R15" t="n">
-        <v>8.522798633266932</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S15" t="n">
-        <v>1400</v>
+        <v>1849</v>
+      </c>
+      <c r="T15" t="n">
+        <v>28.44615384615384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4001381179</v>
+        <v>4001389721</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Studio situé à la Servette</t>
+          <t>Studio in Geneva</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Grand-Rue 12, 1204 Genève</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1690,7 +1737,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1705,63 +1752,66 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001381179</t>
+          <t>https://www.homegate.ch/rent/4001389721</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+          <t>[(1610.0, '2024-18-08'), (1610.0, '2024-20-08'), (1610.0, '2024-21-08'), (1610.0, '2024-22-08'), (1610.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1400</v>
+        <v>1610</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>46.2017559</v>
+        <v>46.20221909543828</v>
       </c>
       <c r="R16" t="n">
-        <v>6.1466014</v>
+        <v>6.146693037119857</v>
       </c>
       <c r="S16" t="n">
-        <v>1400</v>
+        <v>1610</v>
+      </c>
+      <c r="T16" t="n">
+        <v>28.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4001355523</v>
+        <v>4001400534</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>neu renovierte 3-Zimmerwohnung</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rue de la Navigation, 1201 Genève</t>
+          <t>Am Luchsgraben 9, 8051 Zürich</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1771,7 +1821,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1786,58 +1836,61 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001355523</t>
+          <t>https://www.homegate.ch/rent/4001400534</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[(1430.0, '2024-18-08'), (1430.0, '2024-20-08'), (1430.0, '2024-21-08'), (1430.0, '2024-22-08'), (1430.0, '2024-23-08')]</t>
+          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1430</v>
+        <v>1870</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>46.2097742377551</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R17" t="n">
-        <v>6.145239649744898</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S17" t="n">
-        <v>1430</v>
+        <v>1870</v>
+      </c>
+      <c r="T17" t="n">
+        <v>28.76923076923077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4001336642</v>
+        <v>4001407318</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bel appartement 2 pièces de style ancien à Carouge</t>
+          <t>Appartement de 3 pièces avec balcon, situé au rez-de-chaussé.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>avenue Industrielle, 1227 Carouge GE</t>
+          <t>Chemin Du-Villard 2, 1219 CHATELAINE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1852,7 +1905,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1867,58 +1920,61 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001336642</t>
+          <t>https://www.homegate.ch/rent/4001407318</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[(1483.0, '2024-18-08'), (1483.0, '2024-20-08'), (1483.0, '2024-21-08'), (1483.0, '2024-22-08'), (1483.0, '2024-23-08')]</t>
+          <t>[(1710.0, '2024-22-08'), (1710.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1483</v>
+        <v>1710</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(46.20368202088608, 6.101213236286919)</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>46.18724205396518</v>
+        <v>46.20368202088608</v>
       </c>
       <c r="R18" t="n">
-        <v>6.137160952417795</v>
+        <v>6.101213236286919</v>
       </c>
       <c r="S18" t="n">
-        <v>1483</v>
+        <v>1710</v>
+      </c>
+      <c r="T18" t="n">
+        <v>29.48275862068965</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4001355584</v>
+        <v>4001402922</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Studio komplett möbliert und ausgestattet</t>
+          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unterfeldstrasse 4, 8050 Zürich</t>
+          <t>Buchzelgstrasse 91, 8053 Zürich</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1933,7 +1989,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1948,63 +2004,66 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001355584</t>
+          <t>https://www.homegate.ch/rent/4001402922</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
+          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1490</v>
+        <v>1650</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>47.40365010130662</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R19" t="n">
-        <v>8.579578526872822</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S19" t="n">
-        <v>1490</v>
+        <v>1650</v>
+      </c>
+      <c r="T19" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4001401164</v>
+        <v>4001389683</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Studio situé aux pâquis</t>
+          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1201 Genève</t>
+          <t>Karstlernstrasse 6, 8048 Zürich</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2014,7 +2073,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2029,58 +2088,61 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401164</t>
+          <t>https://www.homegate.ch/rent/4001389683</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08')]</t>
+          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1490</v>
+        <v>1751</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>46.2017559</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R20" t="n">
-        <v>6.1466014</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S20" t="n">
-        <v>1490</v>
+        <v>1751</v>
+      </c>
+      <c r="T20" t="n">
+        <v>30.18965517241379</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4001401033</v>
+        <v>4001362025</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wohnung in Zürich</t>
+          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Stiglenstrasse 37, 8052 Zürich</t>
+          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2095,7 +2157,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2110,63 +2172,66 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401033</t>
+          <t>https://www.homegate.ch/rent/4001362025</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08')]</t>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1490</v>
+        <v>1780</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>47.42212409113385</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R21" t="n">
-        <v>8.544782277237852</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S21" t="n">
-        <v>1490</v>
+        <v>1780</v>
+      </c>
+      <c r="T21" t="n">
+        <v>30.68965517241379</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4001402351</v>
+        <v>4001386021</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Geeringstrasse 42, 8049 Zürich</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2176,7 +2241,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8102</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2191,63 +2256,66 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402351</t>
+          <t>https://www.homegate.ch/rent/4001386021</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1500</v>
+        <v>1855</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.40885941533816, 8.464555297222223)</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>46.2017559</v>
+        <v>47.40885941533816</v>
       </c>
       <c r="R22" t="n">
-        <v>6.1466014</v>
+        <v>8.464555297222223</v>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>1855</v>
+      </c>
+      <c r="T22" t="n">
+        <v>30.91666666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4001337045</v>
+        <v>4001355584</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>Studio komplett möbliert und ausgestattet</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
+          <t>Unterfeldstrasse 4, 8050 Zürich</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2257,7 +2325,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2272,58 +2340,61 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001337045</t>
+          <t>https://www.homegate.ch/rent/4001355584</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>1.5</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>46.20221909543828</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R23" t="n">
-        <v>6.146693037119857</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S23" t="n">
-        <v>1500</v>
+        <v>1490</v>
+      </c>
+      <c r="T23" t="n">
+        <v>31.04166666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4001406104</v>
+        <v>4001390278</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
+          <t>Gemütliche Single-Wohnung</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Birnbaumstrasse 17, 8050 Zürich</t>
+          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2338,7 +2409,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2353,58 +2424,61 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001406104</t>
+          <t>https://www.homegate.ch/rent/4001390278</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1500</v>
+        <v>1590</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>(47.41188227578912, 8.552227190564137)</t>
+          <t>(47.419142437571594, 8.511772920389461)</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>47.41188227578912</v>
+        <v>47.41914243757159</v>
       </c>
       <c r="R24" t="n">
-        <v>8.552227190564137</v>
+        <v>8.511772920389461</v>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>1590</v>
+      </c>
+      <c r="T24" t="n">
+        <v>31.17647058823529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4001356877</v>
+        <v>4001401166</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Appartement Location - Bon emplacement - Disponible imémédiatement.</t>
+          <t>Studio situé à la Servette</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1227 Acacias</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2419,7 +2493,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2434,22 +2508,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001356877</t>
+          <t>https://www.homegate.ch/rent/4001401166</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(1248.0, '2024-20-08'), (1248.0, '2024-21-08'), (1248.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1500</v>
+        <v>1248</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2457,40 +2531,43 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>46.18724205396518</v>
+        <v>46.2017559</v>
       </c>
       <c r="R25" t="n">
-        <v>6.137160952417795</v>
+        <v>6.1466014</v>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>1248</v>
+      </c>
+      <c r="T25" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4001320202</v>
+        <v>4001400576</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Studio à la Servette.</t>
+          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>8051 Zürich</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2500,7 +2577,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2515,22 +2592,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320202</t>
+          <t>https://www.homegate.ch/rent/4001400576</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1500</v>
+        <v>1760</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2538,40 +2615,43 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.3744489, 8.5410422)</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>46.2017559</v>
+        <v>47.3744489</v>
       </c>
       <c r="R26" t="n">
-        <v>6.1466014</v>
+        <v>8.5410422</v>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>1760</v>
+      </c>
+      <c r="T26" t="n">
+        <v>31.42857142857143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4001366897</v>
+        <v>4001393841</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à Plainpalais.</t>
+          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1205 Genève</t>
+          <t>Magnusstrasse 8, 8004 Zürich</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2581,7 +2661,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2596,58 +2676,61 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001366897</t>
+          <t>https://www.homegate.ch/rent/4001393841</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[(1505.0, '2024-18-08'), (1505.0, '2024-20-08'), (1505.0, '2024-21-08'), (1505.0, '2024-22-08')]</t>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1505</v>
+        <v>1400</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>46.2017559</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R27" t="n">
-        <v>6.1466014</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S27" t="n">
-        <v>1505</v>
+        <v>1400</v>
+      </c>
+      <c r="T27" t="n">
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4001351379</v>
+        <v>4001398165</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rue du Nant 23, 1207 Genève</t>
+          <t>Rue de Richemont, 1202 Genève</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2662,7 +2745,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2677,22 +2760,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001351379</t>
+          <t>https://www.homegate.ch/rent/4001398165</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[(1510.0, '2024-18-08'), (1510.0, '2024-20-08'), (1510.0, '2024-21-08'), (1510.0, '2024-22-08'), (1510.0, '2024-23-08')]</t>
+          <t>[(1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1510</v>
+        <v>1400</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2700,40 +2783,43 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>(46.202068743257, 6.15902832086514)</t>
+          <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>46.202068743257</v>
+        <v>46.2097742377551</v>
       </c>
       <c r="R28" t="n">
-        <v>6.15902832086514</v>
+        <v>6.145239649744898</v>
       </c>
       <c r="S28" t="n">
-        <v>1510</v>
+        <v>1400</v>
+      </c>
+      <c r="T28" t="n">
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4001373053</v>
+        <v>4001333934</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Appartement lumineux de 30 m situé dans 1203</t>
+          <t>Im Grünen in Zürich-Altstetten</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rue Daubin, 1203 Genève</t>
+          <t>Vetterliweg 82, 8048 Zürich</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2743,7 +2829,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2758,63 +2844,66 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001373053</t>
+          <t>https://www.homegate.ch/rent/4001333934</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[(1520.0, '2024-18-08'), (1520.0, '2024-20-08'), (1520.0, '2024-21-08'), (1520.0, '2024-22-08')]</t>
+          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1520</v>
+        <v>1880</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>(46.2063713, 6.1316504)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>46.2063713</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R29" t="n">
-        <v>6.1316504</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S29" t="n">
-        <v>1520</v>
+        <v>1880</v>
+      </c>
+      <c r="T29" t="n">
+        <v>31.86440677966102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4001364077</v>
+        <v>4001351110</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Studio situé aux Pâquis</t>
+          <t>Ihre neue Wohnung im Grünen?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1201 Genève</t>
+          <t>Balberstrasse 74, 8038 Zürich</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2824,7 +2913,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2839,63 +2928,66 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001364077</t>
+          <t>https://www.homegate.ch/rent/4001351110</t>
         </is>
       </c>
       <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>56</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="K30" t="n">
-        <v>35</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08')]</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1550</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>16</v>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.34339435560345, 8.531125890517242)</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>46.2017559</v>
+        <v>47.34339435560345</v>
       </c>
       <c r="R30" t="n">
-        <v>6.1466014</v>
+        <v>8.531125890517242</v>
       </c>
       <c r="S30" t="n">
-        <v>1550</v>
+        <v>1790</v>
+      </c>
+      <c r="T30" t="n">
+        <v>31.96428571428572</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4001343788</v>
+        <v>4001361662</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Meyrin.</t>
+          <t>2.0 Zimmerwohnung in Zürich</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1217 Meyrin</t>
+          <t>Dübendorfstrasse 333, 8051 Zürich</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2905,7 +2997,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2920,58 +3012,61 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001343788</t>
+          <t>https://www.homegate.ch/rent/4001361662</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[(1558.0, '2024-18-08'), (1558.0, '2024-20-08'), (1558.0, '2024-21-08'), (1558.0, '2024-22-08')]</t>
+          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1558</v>
+        <v>1643</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>(46.22410254895833, 6.106731841666666)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>46.22410254895833</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R31" t="n">
-        <v>6.106731841666666</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S31" t="n">
-        <v>1558</v>
+        <v>1643</v>
+      </c>
+      <c r="T31" t="n">
+        <v>32.21568627450981</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4001133546</v>
+        <v>4001403040</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2-Zimmer-Wohnung an bester Lage</t>
+          <t>Schöne Stadtnahe Wohnung</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hallwylstrasse 40, 8004 Zürich</t>
+          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2986,7 +3081,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3001,26 +3096,26 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001133546</t>
+          <t>https://www.homegate.ch/rent/4001403040</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
+          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1559</v>
+        <v>1791</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3028,36 +3123,39 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>(47.37722915823373, 8.522798633266932)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>47.37722915823373</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R32" t="n">
-        <v>8.522798633266932</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S32" t="n">
-        <v>1559</v>
+        <v>1791</v>
+      </c>
+      <c r="T32" t="n">
+        <v>32.56363636363636</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4001390278</v>
+        <v>4001349266</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gemütliche Single-Wohnung</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
+          <t>Route de Meinier 15, 1253 Vandoeuvres</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3067,7 +3165,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8046</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3082,58 +3180,61 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001390278</t>
+          <t>https://www.homegate.ch/rent/4001349266</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1590</v>
+        <v>1800</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>(47.419050886211345, 8.512615560824743)</t>
+          <t>(46.216670255555556, 6.200812236625514)</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>47.41905088621134</v>
+        <v>46.21667025555556</v>
       </c>
       <c r="R33" t="n">
-        <v>8.512615560824743</v>
+        <v>6.200812236625514</v>
       </c>
       <c r="S33" t="n">
-        <v>1590</v>
+        <v>1800</v>
+      </c>
+      <c r="T33" t="n">
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4001383897</v>
+        <v>4001409549</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Les Hauts de Saint-Jean</t>
+          <t>Appartement de 2 pièces au 7ème étage</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rue de l'Encyclopédie 7, 1201 Genève</t>
+          <t>chemin François-Lehmann 16, 1218 Le Grand-Saconnex</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3148,7 +3249,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3163,63 +3264,66 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001383897</t>
+          <t>https://www.homegate.ch/rent/4001409549</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+          <t>[(1110.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1590</v>
+        <v>1110</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>(46.2063713, 6.1316504)</t>
+          <t>(46.23105252, 6.1211587256)</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>46.2063713</v>
+        <v>46.23105252</v>
       </c>
       <c r="R34" t="n">
-        <v>6.1316504</v>
+        <v>6.1211587256</v>
       </c>
       <c r="S34" t="n">
-        <v>1590</v>
+        <v>1110</v>
+      </c>
+      <c r="T34" t="n">
+        <v>33.63636363636363</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3001912350</v>
+        <v>4001402352</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
+          <t>Appartement de 2 pièces à la Servette.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Viktoriastrasse 29, 8057 Zürich</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3229,7 +3333,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3244,22 +3348,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/3001912350</t>
+          <t>https://www.homegate.ch/rent/4001402352</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
+          <t>[(1023.0, '2024-20-08'), (1023.0, '2024-21-08'), (1023.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1600</v>
+        <v>1023</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3267,35 +3371,38 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>(47.39948119888603, 8.542812898886032)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>47.39948119888603</v>
+        <v>46.2017559</v>
       </c>
       <c r="R35" t="n">
-        <v>8.542812898886032</v>
+        <v>6.1466014</v>
       </c>
       <c r="S35" t="n">
-        <v>1600</v>
+        <v>1023</v>
+      </c>
+      <c r="T35" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4001292968</v>
+        <v>4001343788</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13 Rue Sautter, 1.5 pièce</t>
+          <t>Appartement de 3 pièces à Meyrin.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rue Sautter 13, 1205 Genève</t>
+          <t>1217 Meyrin</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3310,7 +3417,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3325,26 +3432,26 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001292968</t>
+          <t>https://www.homegate.ch/rent/4001343788</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[(1608.0, '2024-18-08'), (1608.0, '2024-20-08'), (1608.0, '2024-21-08')]</t>
+          <t>[(1558.0, '2024-18-08'), (1558.0, '2024-20-08'), (1558.0, '2024-21-08'), (1558.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1608</v>
+        <v>1558</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -3352,36 +3459,39 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>(46.191307215555554, 6.1553057877777775)</t>
+          <t>(46.22410254895833, 6.106731841666666)</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>46.19130721555555</v>
+        <v>46.22410254895833</v>
       </c>
       <c r="R36" t="n">
-        <v>6.155305787777777</v>
+        <v>6.106731841666666</v>
       </c>
       <c r="S36" t="n">
-        <v>1608</v>
+        <v>1558</v>
+      </c>
+      <c r="T36" t="n">
+        <v>34.62222222222222</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4001389721</v>
+        <v>4001383533</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Studio in Geneva</t>
+          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Grand-Rue 12, 1204 Genève</t>
+          <t>Felsenrainstrasse 15, 8052 Zürich</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3391,7 +3501,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3406,22 +3516,22 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001389721</t>
+          <t>https://www.homegate.ch/rent/4001383533</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[(1610.0, '2024-18-08'), (1610.0, '2024-20-08'), (1610.0, '2024-21-08'), (1610.0, '2024-22-08'), (1610.0, '2024-23-08')]</t>
+          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1610</v>
+        <v>1663</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3429,35 +3539,38 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>46.20221909543828</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R37" t="n">
-        <v>6.146693037119857</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S37" t="n">
-        <v>1610</v>
+        <v>1663</v>
+      </c>
+      <c r="T37" t="n">
+        <v>34.64583333333334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4001405543</v>
+        <v>4001292988</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Spacieux studio en attique dans le quartier prisé de Carouge disponible au 16 septembre</t>
+          <t>Appartement de 3 pièces à Carouge.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rue de la Filature 23, 1227 Carouge GE</t>
+          <t>1227 Carouge</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3487,22 +3600,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405543</t>
+          <t>https://www.homegate.ch/rent/4001292988</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[(1612.0, '2024-21-08'), (1612.0, '2024-22-08')]</t>
+          <t>[(1785.0, '2024-18-08'), (1785.0, '2024-20-08'), (1785.0, '2024-21-08'), (1785.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1612</v>
+        <v>1785</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3524,21 +3637,24 @@
         <v>6.137160952417795</v>
       </c>
       <c r="S38" t="n">
-        <v>1612</v>
+        <v>1785</v>
+      </c>
+      <c r="T38" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4001328195</v>
+        <v>4001407904</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Studio situé aux Servettes</t>
+          <t>A saisir ! Bel appartement à côté de la gare CFF de Genève Cornavin !</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3553,7 +3669,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3568,63 +3684,66 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001328195</t>
+          <t>https://www.homegate.ch/rent/4001407904</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[(1554.0, '2024-18-08'), (1554.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08')]</t>
+          <t>[(1720.0, '2024-22-08'), (1720.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1620</v>
+        <v>1720</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>46.2017559</v>
+        <v>46.2097742377551</v>
       </c>
       <c r="R39" t="n">
-        <v>6.1466014</v>
+        <v>6.145239649744898</v>
       </c>
       <c r="S39" t="n">
-        <v>1620</v>
+        <v>1720</v>
+      </c>
+      <c r="T39" t="n">
+        <v>35.83333333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4001369307</v>
+        <v>4001371525</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wir suchen genau Sie</t>
+          <t>Appartement de 3 pièces à Carouge.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Badenerstrasse 779, 8048 Zürich</t>
+          <t>1227 Carouge</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3634,7 +3753,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3649,22 +3768,22 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001369307</t>
+          <t>https://www.homegate.ch/rent/4001371525</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[(1620.0, '2024-18-08'), (1620.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08'), (1620.0, '2024-23-08')]</t>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1620</v>
+        <v>1845</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3672,35 +3791,38 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(46.187395062624255, 6.136916055467196)</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>47.38784678183972</v>
+        <v>46.18739506262425</v>
       </c>
       <c r="R40" t="n">
-        <v>8.486769005132254</v>
+        <v>6.136916055467196</v>
       </c>
       <c r="S40" t="n">
-        <v>1620</v>
+        <v>1845</v>
+      </c>
+      <c r="T40" t="n">
+        <v>36.1764705882353</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4001297083</v>
+        <v>4001369430</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces au 5ème en face du Parc la Grange</t>
+          <t>Bel appartement de 3 pièces au 3e étage.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
+          <t>Rue des Noirettes 27, 1227 Carouge</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3715,7 +3837,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3730,63 +3852,66 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001297083</t>
+          <t>https://www.homegate.ch/rent/4001369430</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[(1630.0, '2024-18-08'), (1630.0, '2024-20-08'), (1630.0, '2024-21-08'), (1630.0, '2024-22-08')]</t>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1630</v>
+        <v>1845</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>(46.199071180898876, 6.16370553483146)</t>
+          <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>46.19907118089888</v>
+        <v>46.18724205396518</v>
       </c>
       <c r="R41" t="n">
-        <v>6.16370553483146</v>
+        <v>6.137160952417795</v>
       </c>
       <c r="S41" t="n">
-        <v>1630</v>
+        <v>1845</v>
+      </c>
+      <c r="T41" t="n">
+        <v>36.1764705882353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4001066000</v>
+        <v>4001385645</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces au 2ème étage</t>
+          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rue Voltaire 31, 1201 Genève</t>
+          <t>Uetlibergstrasse 83, 8045 Zürich</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3796,7 +3921,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3811,63 +3936,66 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001066000</t>
+          <t>https://www.homegate.ch/rent/4001385645</t>
         </is>
       </c>
       <c r="J42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>52</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>2</v>
       </c>
-      <c r="K42" t="n">
-        <v>28</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>[(1640.0, '2024-18-08'), (1640.0, '2024-20-08'), (1640.0, '2024-21-08'), (1640.0, '2024-22-08'), (1640.0, '2024-23-08')]</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1640</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>6</v>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(47.359304231631135, 8.51290742444224)</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>46.2097742377551</v>
+        <v>47.35930423163114</v>
       </c>
       <c r="R42" t="n">
-        <v>6.145239649744898</v>
+        <v>8.51290742444224</v>
       </c>
       <c r="S42" t="n">
-        <v>1640</v>
+        <v>1900</v>
+      </c>
+      <c r="T42" t="n">
+        <v>36.53846153846154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4001361662</v>
+        <v>4001409556</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.0 Zimmerwohnung in Zürich</t>
+          <t>133 Rte d'Hermance, appartement de 3 pièces à Collonge-Bellerive</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Dübendorfstrasse 333, 8051 Zürich</t>
+          <t>Route d'Hermance 133, 1245 Collonge-Bellerive</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3877,7 +4005,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3892,58 +4020,61 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001361662</t>
+          <t>https://www.homegate.ch/rent/4001409556</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
+          <t>[(1810.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1643</v>
+        <v>1810</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(46.26270862626263, 6.209230067676768)</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>47.40365010130662</v>
+        <v>46.26270862626263</v>
       </c>
       <c r="R43" t="n">
-        <v>8.579578526872822</v>
+        <v>6.209230067676768</v>
       </c>
       <c r="S43" t="n">
-        <v>1643</v>
+        <v>1810</v>
+      </c>
+      <c r="T43" t="n">
+        <v>36.93877551020408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4001402922</v>
+        <v>4001398794</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
+          <t>Wohnen neben Sportplatz und Glattzentrum</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Buchzelgstrasse 91, 8053 Zürich</t>
+          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3958,7 +4089,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3973,63 +4104,66 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402922</t>
+          <t>https://www.homegate.ch/rent/4001398794</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>(47.35846491585127, 8.590339297586432)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>47.35846491585127</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R44" t="n">
-        <v>8.590339297586432</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S44" t="n">
-        <v>1650</v>
+        <v>1850</v>
+      </c>
+      <c r="T44" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4001386498</v>
+        <v>4001401164</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Singlewohnung in Zürich Seebach Kopie</t>
+          <t>Studio situé aux pâquis</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Arianestrasse 11, 8052 Zürich</t>
+          <t>1201 Genève</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4039,7 +4173,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4054,22 +4188,22 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386498</t>
+          <t>https://www.homegate.ch/rent/4001401164</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
+          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1654</v>
+        <v>1490</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -4077,40 +4211,43 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>47.42212409113385</v>
+        <v>46.2017559</v>
       </c>
       <c r="R45" t="n">
-        <v>8.544782277237852</v>
+        <v>6.1466014</v>
       </c>
       <c r="S45" t="n">
-        <v>1654</v>
+        <v>1490</v>
+      </c>
+      <c r="T45" t="n">
+        <v>37.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4001383533</v>
+        <v>4001371524</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
+          <t>Appartement de 3 pièces à Genève.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Felsenrainstrasse 15, 8052 Zürich</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4120,7 +4257,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4135,22 +4272,22 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001383533</t>
+          <t>https://www.homegate.ch/rent/4001371524</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1663</v>
+        <v>1900</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -4158,40 +4295,43 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>47.42212409113385</v>
+        <v>46.2017559</v>
       </c>
       <c r="R46" t="n">
-        <v>8.544782277237852</v>
+        <v>6.1466014</v>
       </c>
       <c r="S46" t="n">
-        <v>1663</v>
+        <v>1900</v>
+      </c>
+      <c r="T46" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4001342150</v>
+        <v>4001133546</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chambre a louer au Eaux-Vives!</t>
+          <t>2-Zimmer-Wohnung an bester Lage</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chemin Neuf, 1207 Geneva</t>
+          <t>Hallwylstrasse 40, 8004 Zürich</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4201,7 +4341,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4216,49 +4356,52 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001342150</t>
+          <t>https://www.homegate.ch/rent/4001133546</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[(1665.0, '2024-18-08'), (1665.0, '2024-20-08'), (1665.0, '2024-21-08'), (1665.0, '2024-22-08')]</t>
+          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1665</v>
+        <v>1559</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>(46.202068743257, 6.15902832086514)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>46.202068743257</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R47" t="n">
-        <v>6.15902832086514</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S47" t="n">
-        <v>1665</v>
+        <v>1559</v>
+      </c>
+      <c r="T47" t="n">
+        <v>41.02631578947368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4001313115</v>
+        <v>4001365270</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4267,7 +4410,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1204 Genève</t>
+          <t>1205 Genève</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4297,22 +4440,22 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001313115</t>
+          <t>https://www.homegate.ch/rent/4001365270</t>
         </is>
       </c>
       <c r="J48" t="n">
         <v>1.5</v>
       </c>
       <c r="K48" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[(1670.0, '2024-18-08'), (1670.0, '2024-20-08'), (1670.0, '2024-21-08'), (1670.0, '2024-22-08')]</t>
+          <t>[(1256.0, '2024-18-08'), (1256.0, '2024-20-08'), (1256.0, '2024-21-08'), (1256.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1670</v>
+        <v>1256</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4334,26 +4477,29 @@
         <v>6.1466014</v>
       </c>
       <c r="S48" t="n">
-        <v>1670</v>
+        <v>1256</v>
+      </c>
+      <c r="T48" t="n">
+        <v>41.86666666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4001364577</v>
+        <v>4001366896</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
+          <t>Appartement de 3 pièces à Plainpalais.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Glatttalstrasse 79, 8052 Zürich</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4363,7 +4509,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4373,27 +4519,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001364577</t>
+          <t>https://www.homegate.ch/rent/4001366896</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1678</v>
+        <v>1850</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4401,35 +4547,38 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>47.42212409113385</v>
+        <v>46.2017559</v>
       </c>
       <c r="R49" t="n">
-        <v>8.544782277237852</v>
+        <v>6.1466014</v>
       </c>
       <c r="S49" t="n">
-        <v>1678</v>
+        <v>1850</v>
+      </c>
+      <c r="T49" t="n">
+        <v>42.04545454545455</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4001259400</v>
+        <v>4001333869</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
+          <t>Quartier de la Gradelle - Chêne-Bougeries</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+          <t>Avenue des Amazones 8, 1224 Chêne-Bougeries</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4444,7 +4593,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4459,22 +4608,22 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001259400</t>
+          <t>https://www.homegate.ch/rent/4001333869</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K50" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>[(1680.0, '2024-18-08'), (1680.0, '2024-20-08'), (1680.0, '2024-21-08'), (1680.0, '2024-22-08'), (1680.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1680</v>
+        <v>1850</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4482,40 +4631,43 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(46.20082203493976, 6.1865041228915665)</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>46.18724205396518</v>
+        <v>46.20082203493976</v>
       </c>
       <c r="R50" t="n">
-        <v>6.137160952417795</v>
+        <v>6.186504122891566</v>
       </c>
       <c r="S50" t="n">
-        <v>1680</v>
+        <v>1850</v>
+      </c>
+      <c r="T50" t="n">
+        <v>42.04545454545455</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4001385233</v>
+        <v>4001410938</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Charmantes zentrales Studio zu mieten</t>
+          <t>Un superbe studio à deux pas du lac !</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Aprikosenstrasse 5, 8051 Zürich</t>
+          <t>Rue de Lausanne 145, 1202 Genève</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4525,7 +4677,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4540,63 +4692,66 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001385233</t>
+          <t>https://www.homegate.ch/rent/4001410938</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
+          <t>[(1640.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1690</v>
+        <v>1640</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>47.40365010130662</v>
+        <v>46.2172232616622</v>
       </c>
       <c r="R51" t="n">
-        <v>8.579578526872822</v>
+        <v>6.142129813136729</v>
       </c>
       <c r="S51" t="n">
-        <v>1690</v>
+        <v>1640</v>
+      </c>
+      <c r="T51" t="n">
+        <v>42.05128205128205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4001385958</v>
+        <v>4001243823</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4606,7 +4761,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4616,63 +4771,66 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001385958</t>
+          <t>https://www.homegate.ch/rent/4001243823</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>1.5</v>
       </c>
       <c r="K52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
+          <t>[(1270.0, '2024-18-08'), (1270.0, '2024-20-08'), (1270.0, '2024-21-08'), (1270.0, '2024-22-08'), (1270.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1700</v>
+        <v>1270</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>(47.39948119888603, 8.542812898886032)</t>
+          <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>47.39948119888603</v>
+        <v>46.2172232616622</v>
       </c>
       <c r="R52" t="n">
-        <v>8.542812898886032</v>
+        <v>6.142129813136729</v>
       </c>
       <c r="S52" t="n">
-        <v>1700</v>
+        <v>1270</v>
+      </c>
+      <c r="T52" t="n">
+        <v>42.33333333333334</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4001407318</v>
+        <v>4001281444</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces avec balcon, situé au rez-de-chaussé.</t>
+          <t>Appartement de 2 pièces à la Servette.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chemin Du-Villard 2, 1219 CHATELAINE</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4687,7 +4845,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4702,22 +4860,22 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001407318</t>
+          <t>https://www.homegate.ch/rent/4001281444</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>[(1710.0, '2024-22-08'), (1710.0, '2024-23-08')]</t>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1710</v>
+        <v>1400</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4725,40 +4883,43 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>(46.20368202088608, 6.101213236286919)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>46.20368202088608</v>
+        <v>46.2017559</v>
       </c>
       <c r="R53" t="n">
-        <v>6.101213236286919</v>
+        <v>6.1466014</v>
       </c>
       <c r="S53" t="n">
-        <v>1710</v>
+        <v>1400</v>
+      </c>
+      <c r="T53" t="n">
+        <v>42.42424242424242</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4001380884</v>
+        <v>4001381179</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
+          <t>Studio situé à la Servette</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wiesliacher 95, 8053 Zürich</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4768,7 +4929,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4783,22 +4944,22 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001380884</t>
+          <t>https://www.homegate.ch/rent/4001381179</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1715</v>
+        <v>1400</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4806,35 +4967,38 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>(47.35846491585127, 8.590339297586432)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>47.35846491585127</v>
+        <v>46.2017559</v>
       </c>
       <c r="R54" t="n">
-        <v>8.590339297586432</v>
+        <v>6.1466014</v>
       </c>
       <c r="S54" t="n">
-        <v>1715</v>
+        <v>1400</v>
+      </c>
+      <c r="T54" t="n">
+        <v>42.42424242424242</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4001333905</v>
+        <v>4001385958</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
+          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
+          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4849,7 +5013,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4859,27 +5023,27 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333905</t>
+          <t>https://www.immoscout24.ch/rent/4001385958</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>1.5</v>
       </c>
       <c r="K55" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
+          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4887,35 +5051,38 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>47.38784678183972</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R55" t="n">
-        <v>8.486769005132254</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S55" t="n">
-        <v>1715</v>
+        <v>1700</v>
+      </c>
+      <c r="T55" t="n">
+        <v>42.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4001151789</v>
+        <v>4001356877</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Joli studio au 3ème étage en plein coeur de la Vieille-Ville</t>
+          <t>Appartement Location - Bon emplacement - Disponible imémédiatement.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+          <t>1227 Acacias</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4930,7 +5097,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4945,22 +5112,22 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001151789</t>
+          <t>https://www.homegate.ch/rent/4001356877</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>[(1718.0, '2024-18-08'), (1718.0, '2024-20-08'), (1718.0, '2024-21-08'), (1718.0, '2024-22-08'), (1718.0, '2024-23-08')]</t>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1718</v>
+        <v>1500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4968,35 +5135,38 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>46.20221909543828</v>
+        <v>46.18724205396518</v>
       </c>
       <c r="R56" t="n">
-        <v>6.146693037119857</v>
+        <v>6.137160952417795</v>
       </c>
       <c r="S56" t="n">
-        <v>1718</v>
+        <v>1500</v>
+      </c>
+      <c r="T56" t="n">
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4001407904</v>
+        <v>4001383897</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A saisir ! Bel appartement à côté de la gare CFF de Genève Cornavin !</t>
+          <t>Les Hauts de Saint-Jean</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>rue Chantepoulet 12, 1201 Genève</t>
+          <t>Rue de l'Encyclopédie 7, 1201 Genève</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5011,7 +5181,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8973</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5026,63 +5196,66 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001407904</t>
+          <t>https://www.homegate.ch/rent/4001383897</t>
         </is>
       </c>
       <c r="J57" t="n">
         <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>[(1720.0, '2024-22-08'), (1720.0, '2024-23-08')]</t>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1720</v>
+        <v>1590</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(46.2063713, 6.1316504)</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>46.2097742377551</v>
+        <v>46.2063713</v>
       </c>
       <c r="R57" t="n">
-        <v>6.145239649744898</v>
+        <v>6.1316504</v>
       </c>
       <c r="S57" t="n">
-        <v>1720</v>
+        <v>1590</v>
+      </c>
+      <c r="T57" t="n">
+        <v>42.97297297297298</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4001372133</v>
+        <v>4001221422</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quartier des Eaux-Vives</t>
+          <t>Zentrale Lage - idyllisch und ruhig</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Avenue Théodore Flournoy 8, 1207 Genève</t>
+          <t>Jungholzstrasse 20, 8050 Zürich</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5092,7 +5265,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5107,63 +5280,66 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001372133</t>
+          <t>https://www.homegate.ch/rent/4001221422</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K58" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>[(1750.0, '2024-18-08'), (1750.0, '2024-20-08'), (1750.0, '2024-21-08'), (1750.0, '2024-22-08'), (1750.0, '2024-23-08')]</t>
+          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1750</v>
+        <v>1866</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>(46.199071180898876, 6.16370553483146)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>46.19907118089888</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R58" t="n">
-        <v>6.16370553483146</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S58" t="n">
-        <v>1750</v>
+        <v>1866</v>
+      </c>
+      <c r="T58" t="n">
+        <v>43.3953488372093</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4001389683</v>
+        <v>4001156178</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
+          <t>A saisir ! Au coeur de Genève !</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Karstlernstrasse 6, 8048 Zürich</t>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5173,7 +5349,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5188,63 +5364,66 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001389683</t>
+          <t>https://www.homegate.ch/rent/4001156178</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1751</v>
+        <v>1780</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>47.38784678183972</v>
+        <v>46.2097742377551</v>
       </c>
       <c r="R59" t="n">
-        <v>8.486769005132254</v>
+        <v>6.145239649744898</v>
       </c>
       <c r="S59" t="n">
-        <v>1751</v>
+        <v>1780</v>
+      </c>
+      <c r="T59" t="n">
+        <v>43.41463414634146</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4001390016</v>
+        <v>4001372133</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Moderne 1.5 Zimmer-Wohnung in Zürich (Neubau)</t>
+          <t>Quartier des Eaux-Vives</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Schaffhauserstrasse 453, 8052 Zürich</t>
+          <t>Avenue Théodore Flournoy 8, 1207 Genève</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5254,7 +5433,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5269,63 +5448,66 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001390016</t>
+          <t>https://www.homegate.ch/rent/4001372133</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K60" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+          <t>[(1750.0, '2024-18-08'), (1750.0, '2024-20-08'), (1750.0, '2024-21-08'), (1750.0, '2024-22-08'), (1750.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(46.199071180898876, 6.16370553483146)</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>47.42212409113385</v>
+        <v>46.19907118089888</v>
       </c>
       <c r="R60" t="n">
-        <v>8.544782277237852</v>
+        <v>6.16370553483146</v>
       </c>
       <c r="S60" t="n">
-        <v>1760</v>
+        <v>1750</v>
+      </c>
+      <c r="T60" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4001400576</v>
+        <v>4001364077</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
+          <t>Studio situé aux Pâquis</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8051 Zürich</t>
+          <t>1201 Genève</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5335,7 +5517,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5350,22 +5532,22 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400576</t>
+          <t>https://www.homegate.ch/rent/4001364077</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
+          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5373,35 +5555,38 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>(47.3744489, 8.5410422)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>47.3744489</v>
+        <v>46.2017559</v>
       </c>
       <c r="R61" t="n">
-        <v>8.5410422</v>
+        <v>6.1466014</v>
       </c>
       <c r="S61" t="n">
-        <v>1760</v>
+        <v>1550</v>
+      </c>
+      <c r="T61" t="n">
+        <v>44.28571428571428</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4001395817</v>
+        <v>4001336703</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VERSOIX - 3 pièces</t>
+          <t>Centre-ville / Proche de la gare Cornavin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rte de Sauverny 20, 1290 Versoix</t>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5416,7 +5601,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5431,58 +5616,61 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001395817</t>
+          <t>https://www.homegate.ch/rent/4001336703</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K62" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1760</v>
+        <v>1800</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>(46.29489699752066, 6.152340249586777)</t>
+          <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>46.29489699752066</v>
+        <v>46.2172232616622</v>
       </c>
       <c r="R62" t="n">
-        <v>6.152340249586777</v>
+        <v>6.142129813136729</v>
       </c>
       <c r="S62" t="n">
-        <v>1760</v>
+        <v>1800</v>
+      </c>
+      <c r="T62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4001395818</v>
+        <v>4001328195</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VERSOIX - 3 pièces</t>
+          <t>Studio situé aux Servettes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rte de Sauverny 20, 1290 Versoix</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5497,7 +5685,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5512,22 +5700,22 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001395818</t>
+          <t>https://www.homegate.ch/rent/4001328195</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+          <t>[(1554.0, '2024-18-08'), (1554.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1760</v>
+        <v>1620</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -5535,40 +5723,43 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>(46.29489699752066, 6.152340249586777)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>46.29489699752066</v>
+        <v>46.2017559</v>
       </c>
       <c r="R63" t="n">
-        <v>6.152340249586777</v>
+        <v>6.1466014</v>
       </c>
       <c r="S63" t="n">
-        <v>1760</v>
+        <v>1620</v>
+      </c>
+      <c r="T63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4001362025</v>
+        <v>4001405543</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
+          <t>Spacieux studio en attique dans le quartier prisé de Carouge disponible au 16 septembre</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
+          <t>Rue de la Filature 23, 1227 Carouge GE</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5578,7 +5769,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5593,22 +5784,22 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001362025</t>
+          <t>https://www.homegate.ch/rent/4001405543</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K64" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+          <t>[(1612.0, '2024-21-08'), (1612.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1780</v>
+        <v>1612</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -5616,35 +5807,38 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>47.40365010130662</v>
+        <v>46.18724205396518</v>
       </c>
       <c r="R64" t="n">
-        <v>8.579578526872822</v>
+        <v>6.137160952417795</v>
       </c>
       <c r="S64" t="n">
-        <v>1780</v>
+        <v>1612</v>
+      </c>
+      <c r="T64" t="n">
+        <v>46.05714285714286</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4001156178</v>
+        <v>4001410171</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A saisir ! Au coeur de Genève !</t>
+          <t>Jonction, Quai des Arenières, 2 pièces au 3ème étage, env. 31m2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>rue Chantepoulet 12, 1201 Genève</t>
+          <t>Arénières, 1205 Genève</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5659,7 +5853,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8973</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5674,58 +5868,61 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001156178</t>
+          <t>https://www.homegate.ch/rent/4001410171</t>
         </is>
       </c>
       <c r="J65" t="n">
         <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+          <t>[(1460.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1780</v>
+        <v>1460</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(46.2063713, 6.1316504)</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>46.2097742377551</v>
+        <v>46.2063713</v>
       </c>
       <c r="R65" t="n">
-        <v>6.145239649744898</v>
+        <v>6.1316504</v>
       </c>
       <c r="S65" t="n">
-        <v>1780</v>
+        <v>1460</v>
+      </c>
+      <c r="T65" t="n">
+        <v>47.09677419354838</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4001292988</v>
+        <v>4001336642</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Carouge.</t>
+          <t>Bel appartement 2 pièces de style ancien à Carouge</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1227 Carouge</t>
+          <t>avenue Industrielle, 1227 Carouge GE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5755,26 +5952,26 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001292988</t>
+          <t>https://www.homegate.ch/rent/4001336642</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>[(1785.0, '2024-18-08'), (1785.0, '2024-20-08'), (1785.0, '2024-21-08'), (1785.0, '2024-22-08')]</t>
+          <t>[(1483.0, '2024-18-08'), (1483.0, '2024-20-08'), (1483.0, '2024-21-08'), (1483.0, '2024-22-08'), (1483.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1785</v>
+        <v>1483</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -5792,26 +5989,29 @@
         <v>6.137160952417795</v>
       </c>
       <c r="S66" t="n">
-        <v>1785</v>
+        <v>1483</v>
+      </c>
+      <c r="T66" t="n">
+        <v>47.83870967741935</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4001318915</v>
+        <v>4001245886</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Erstvermietung</t>
+          <t>Charmant appartement de 2 pièces en étage élevé aux Eaux-vives</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
+          <t>Avenue Pictet-de-Rochemont, 1207 Genève</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5821,7 +6021,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>8046</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5836,58 +6036,61 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001318915</t>
+          <t>https://www.homegate.ch/rent/4001245886</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1790</v>
+        <v>1820</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>(47.419142437571594, 8.511772920389461)</t>
+          <t>(46.199071180898876, 6.16370553483146)</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>47.41914243757159</v>
+        <v>46.19907118089888</v>
       </c>
       <c r="R67" t="n">
-        <v>8.511772920389461</v>
+        <v>6.16370553483146</v>
       </c>
       <c r="S67" t="n">
-        <v>1790</v>
+        <v>1820</v>
+      </c>
+      <c r="T67" t="n">
+        <v>47.89473684210526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4001351110</v>
+        <v>4001390113</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ihre neue Wohnung im Grünen?</t>
+          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Balberstrasse 74, 8038 Zürich</t>
+          <t>Baslerstrasse 107, 8048 Zürich</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5902,7 +6105,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5912,63 +6115,66 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001351110</t>
+          <t>https://www.immoscout24.ch/rent/4001390113</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K68" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1790</v>
+        <v>1820</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>(47.34339435560345, 8.531125890517242)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>47.34339435560345</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R68" t="n">
-        <v>8.531125890517242</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S68" t="n">
-        <v>1790</v>
+        <v>1820</v>
+      </c>
+      <c r="T68" t="n">
+        <v>47.89473684210526</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4001289661</v>
+        <v>4001318915</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EINMALIGES WOHNEN NAHE ZÜRCHER -ZENTRUM IN EINER TRAUMHAFTEN ETAGENWOHNUNG</t>
+          <t>Erstvermietung</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Albisstrasse 161, 8038 Zürich</t>
+          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5983,7 +6189,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5993,23 +6199,23 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001289661</t>
+          <t>https://www.homegate.ch/rent/4001318915</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K69" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08')]</t>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -6017,7 +6223,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -6025,31 +6231,34 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>(47.34339435560345, 8.531125890517242)</t>
+          <t>(47.419142437571594, 8.511772920389461)</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>47.34339435560345</v>
+        <v>47.41914243757159</v>
       </c>
       <c r="R69" t="n">
-        <v>8.531125890517242</v>
+        <v>8.511772920389461</v>
       </c>
       <c r="S69" t="n">
         <v>1790</v>
       </c>
+      <c r="T69" t="n">
+        <v>48.37837837837838</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4001403040</v>
+        <v>4001386498</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Schöne Stadtnahe Wohnung</t>
+          <t>Singlewohnung in Zürich Seebach Kopie</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
+          <t>Arianestrasse 11, 8052 Zürich</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -6064,7 +6273,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6079,63 +6288,66 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001403040</t>
+          <t>https://www.homegate.ch/rent/4001386498</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
+          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1791</v>
+        <v>1654</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>(47.39948119888603, 8.542812898886032)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>47.39948119888603</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R70" t="n">
-        <v>8.542812898886032</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S70" t="n">
-        <v>1791</v>
+        <v>1654</v>
+      </c>
+      <c r="T70" t="n">
+        <v>48.64705882352941</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4001336703</v>
+        <v>4001364577</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centre-ville / Proche de la gare Cornavin</t>
+          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>Glatttalstrasse 79, 8052 Zürich</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6145,7 +6357,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6155,27 +6367,27 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001336703</t>
+          <t>https://www.immoscout24.ch/rent/4001364577</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>1.5</v>
       </c>
       <c r="K71" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1800</v>
+        <v>1678</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -6183,35 +6395,38 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>46.2172232616622</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R71" t="n">
-        <v>6.142129813136729</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S71" t="n">
-        <v>1800</v>
+        <v>1678</v>
+      </c>
+      <c r="T71" t="n">
+        <v>49.35294117647059</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4001349266</v>
+        <v>4001320202</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Studio à la Servette.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Route de Meinier 15, 1253 Vandoeuvres</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6226,7 +6441,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6241,22 +6456,22 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001349266</t>
+          <t>https://www.homegate.ch/rent/4001320202</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="K72" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -6264,35 +6479,38 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>(46.216670255555556, 6.200812236625514)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>46.21667025555556</v>
+        <v>46.2017559</v>
       </c>
       <c r="R72" t="n">
-        <v>6.200812236625514</v>
+        <v>6.1466014</v>
       </c>
       <c r="S72" t="n">
-        <v>1800</v>
+        <v>1500</v>
+      </c>
+      <c r="T72" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4001320201</v>
+        <v>4001402351</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces aux Eaux-Vives.</t>
+          <t>Appartement de 2 pièces à la Servette.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1207 Genève</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6322,7 +6540,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320201</t>
+          <t>https://www.homegate.ch/rent/4001402351</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -6333,11 +6551,11 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08')]</t>
+          <t>[(1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -6359,21 +6577,24 @@
         <v>6.1466014</v>
       </c>
       <c r="S73" t="n">
-        <v>1800</v>
+        <v>1500</v>
+      </c>
+      <c r="T73" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4001320200</v>
+        <v>4001366897</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces aux Eaux-Vives</t>
+          <t>Appartement de 2 pièces à Plainpalais.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1207 Genève</t>
+          <t>1205 Genève</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6403,22 +6624,22 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320200</t>
+          <t>https://www.homegate.ch/rent/4001366897</t>
         </is>
       </c>
       <c r="J74" t="n">
         <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>[(1810.0, '2024-18-08'), (1810.0, '2024-20-08'), (1810.0, '2024-21-08'), (1810.0, '2024-22-08')]</t>
+          <t>[(1505.0, '2024-18-08'), (1505.0, '2024-20-08'), (1505.0, '2024-21-08'), (1505.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1810</v>
+        <v>1505</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -6440,21 +6661,24 @@
         <v>6.1466014</v>
       </c>
       <c r="S74" t="n">
-        <v>1810</v>
+        <v>1505</v>
+      </c>
+      <c r="T74" t="n">
+        <v>50.16666666666666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4001245886</v>
+        <v>4001373053</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Charmant appartement de 2 pièces en étage élevé aux Eaux-vives</t>
+          <t>Appartement lumineux de 30 m situé dans 1203</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Avenue Pictet-de-Rochemont, 1207 Genève</t>
+          <t>Rue Daubin, 1203 Genève</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6469,7 +6693,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>8973</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6484,22 +6708,22 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001245886</t>
+          <t>https://www.homegate.ch/rent/4001373053</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K75" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1520.0, '2024-18-08'), (1520.0, '2024-20-08'), (1520.0, '2024-21-08'), (1520.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1820</v>
+        <v>1520</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -6511,31 +6735,34 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>(46.199071180898876, 6.16370553483146)</t>
+          <t>(46.2063713, 6.1316504)</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>46.19907118089888</v>
+        <v>46.2063713</v>
       </c>
       <c r="R75" t="n">
-        <v>6.16370553483146</v>
+        <v>6.1316504</v>
       </c>
       <c r="S75" t="n">
-        <v>1820</v>
+        <v>1520</v>
+      </c>
+      <c r="T75" t="n">
+        <v>50.66666666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4001390113</v>
+        <v>4001341049</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
+          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Baslerstrasse 107, 8048 Zürich</t>
+          <t>Hönggerstrasse 24, 8037 Zürich</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6550,7 +6777,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6560,63 +6787,66 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001390113</t>
+          <t>https://www.homegate.ch/rent/4001341049</t>
         </is>
       </c>
       <c r="J76" t="n">
         <v>1.5</v>
       </c>
       <c r="K76" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.39401932974684, 8.52653432301496)</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>47.38784678183972</v>
+        <v>47.39401932974684</v>
       </c>
       <c r="R76" t="n">
-        <v>8.486769005132254</v>
+        <v>8.52653432301496</v>
       </c>
       <c r="S76" t="n">
-        <v>1820</v>
+        <v>1840</v>
+      </c>
+      <c r="T76" t="n">
+        <v>51.11111111111111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4001386972</v>
+        <v>4001320200</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Bel appartement dans le quartier de la Servette</t>
+          <t>Appartement de 2 pièces aux Eaux-Vives</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rue Louis-Favre 6, 1201 Genève</t>
+          <t>1207 Genève</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6631,7 +6861,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6646,7 +6876,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386972</t>
+          <t>https://www.homegate.ch/rent/4001320200</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -6657,11 +6887,11 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1810.0, '2024-18-08'), (1810.0, '2024-20-08'), (1810.0, '2024-21-08'), (1810.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -6669,35 +6899,38 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>(46.211841474242426, 6.132065015151515)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>46.21184147424243</v>
+        <v>46.2017559</v>
       </c>
       <c r="R77" t="n">
-        <v>6.132065015151515</v>
+        <v>6.1466014</v>
       </c>
       <c r="S77" t="n">
-        <v>1820</v>
+        <v>1810</v>
+      </c>
+      <c r="T77" t="n">
+        <v>51.71428571428572</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4001341049</v>
+        <v>4001390016</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
+          <t>Moderne 1.5 Zimmer-Wohnung in Zürich (Neubau)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hönggerstrasse 24, 8037 Zürich</t>
+          <t>Schaffhauserstrasse 453, 8052 Zürich</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6712,7 +6945,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6727,58 +6960,61 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001341049</t>
+          <t>https://www.homegate.ch/rent/4001390016</t>
         </is>
       </c>
       <c r="J78" t="n">
         <v>1.5</v>
       </c>
       <c r="K78" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1840</v>
+        <v>1760</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>(47.39401932382049, 8.526534328596087)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>47.39401932382049</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R78" t="n">
-        <v>8.526534328596087</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S78" t="n">
-        <v>1840</v>
+        <v>1760</v>
+      </c>
+      <c r="T78" t="n">
+        <v>51.76470588235294</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4001371525</v>
+        <v>4001386972</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Carouge.</t>
+          <t>Bel appartement dans le quartier de la Servette</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1227 Carouge</t>
+          <t>Rue Louis-Favre 6, 1201 Genève</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6793,7 +7029,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6808,58 +7044,61 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001371525</t>
+          <t>https://www.homegate.ch/rent/4001386972</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08')]</t>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1845</v>
+        <v>1820</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(46.211841474242426, 6.132065015151515)</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>46.18724205396518</v>
+        <v>46.21184147424243</v>
       </c>
       <c r="R79" t="n">
-        <v>6.137160952417795</v>
+        <v>6.132065015151515</v>
       </c>
       <c r="S79" t="n">
-        <v>1845</v>
+        <v>1820</v>
+      </c>
+      <c r="T79" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4001350715</v>
+        <v>4001351379</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Joli studio en plein coeur de la Vieille-Ville</t>
+          <t>Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+          <t>Rue du Nant 23, 1207 Genève</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6874,7 +7113,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6889,58 +7128,61 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001350715</t>
+          <t>https://www.homegate.ch/rent/4001351379</t>
         </is>
       </c>
       <c r="J80" t="n">
         <v>1.5</v>
       </c>
       <c r="K80" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+          <t>[(1510.0, '2024-18-08'), (1510.0, '2024-20-08'), (1510.0, '2024-21-08'), (1510.0, '2024-22-08'), (1510.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1845</v>
+        <v>1510</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(46.202068743257, 6.15902832086514)</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>46.20221909543828</v>
+        <v>46.202068743257</v>
       </c>
       <c r="R80" t="n">
-        <v>6.146693037119857</v>
+        <v>6.15902832086514</v>
       </c>
       <c r="S80" t="n">
-        <v>1845</v>
+        <v>1510</v>
+      </c>
+      <c r="T80" t="n">
+        <v>52.06896551724138</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4001369430</v>
+        <v>4001355523</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bel appartement de 3 pièces au 3e étage.</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rue des Noirettes 27, 1227 Carouge</t>
+          <t>Rue de la Navigation, 1201 Genève</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6955,7 +7197,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -6970,63 +7212,66 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001369430</t>
+          <t>https://www.homegate.ch/rent/4001355523</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+          <t>[(1430.0, '2024-18-08'), (1430.0, '2024-20-08'), (1430.0, '2024-21-08'), (1430.0, '2024-22-08'), (1430.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1845</v>
+        <v>1430</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>46.18724205396518</v>
+        <v>46.2097742377551</v>
       </c>
       <c r="R81" t="n">
-        <v>6.137160952417795</v>
+        <v>6.145239649744898</v>
       </c>
       <c r="S81" t="n">
-        <v>1845</v>
+        <v>1430</v>
+      </c>
+      <c r="T81" t="n">
+        <v>57.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4001298127</v>
+        <v>4001275872</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wohnen mit Aussicht</t>
+          <t>Bel appartement en plein coeur de la Vieille-Ville</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Luegislandstr. 56, 8051 Zürich</t>
+          <t>Rue de la Cité 9bis, 1204 Genève</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7036,7 +7281,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7051,58 +7296,61 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001298127</t>
+          <t>https://www.homegate.ch/rent/4001275872</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08'), (1850.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O82" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(46.20221224904977, 6.146710279457014)</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>47.40365010130662</v>
+        <v>46.20221224904977</v>
       </c>
       <c r="R82" t="n">
-        <v>8.579578526872822</v>
+        <v>6.146710279457014</v>
       </c>
       <c r="S82" t="n">
-        <v>1849</v>
+        <v>1850</v>
+      </c>
+      <c r="T82" t="n">
+        <v>57.8125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4001366896</v>
+        <v>4001259400</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Plainpalais.</t>
+          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Route de Veyrier 41, 1227 Carouge GE</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7117,7 +7365,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7132,58 +7380,61 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001366896</t>
+          <t>https://www.homegate.ch/rent/4001259400</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1680.0, '2024-18-08'), (1680.0, '2024-20-08'), (1680.0, '2024-21-08'), (1680.0, '2024-22-08'), (1680.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1850</v>
+        <v>1680</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O83" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(46.18724205396518, 6.137160952417795)</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>46.2017559</v>
+        <v>46.18724205396518</v>
       </c>
       <c r="R83" t="n">
-        <v>6.1466014</v>
+        <v>6.137160952417795</v>
       </c>
       <c r="S83" t="n">
-        <v>1850</v>
+        <v>1680</v>
+      </c>
+      <c r="T83" t="n">
+        <v>57.93103448275862</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4001275872</v>
+        <v>4001066000</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Bel appartement en plein coeur de la Vieille-Ville</t>
+          <t>Appartement de 2 pièces au 2ème étage</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Rue de la Cité 9bis, 1204 Genève</t>
+          <t>Rue Voltaire 31, 1201 Genève</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -7198,7 +7449,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7213,26 +7464,26 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001275872</t>
+          <t>https://www.homegate.ch/rent/4001066000</t>
         </is>
       </c>
       <c r="J84" t="n">
         <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08'), (1850.0, '2024-23-08')]</t>
+          <t>[(1640.0, '2024-18-08'), (1640.0, '2024-20-08'), (1640.0, '2024-21-08'), (1640.0, '2024-22-08'), (1640.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1850</v>
+        <v>1640</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -7240,36 +7491,39 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(46.2097742377551, 6.145239649744898)</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>46.20221909543828</v>
+        <v>46.2097742377551</v>
       </c>
       <c r="R84" t="n">
-        <v>6.146693037119857</v>
+        <v>6.145239649744898</v>
       </c>
       <c r="S84" t="n">
-        <v>1850</v>
+        <v>1640</v>
+      </c>
+      <c r="T84" t="n">
+        <v>58.57142857142857</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4001333869</v>
+        <v>4001333905</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Quartier de la Gradelle - Chêne-Bougeries</t>
+          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Avenue des Amazones 8, 1224 Chêne-Bougeries</t>
+          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7279,7 +7533,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7294,22 +7548,22 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333869</t>
+          <t>https://www.homegate.ch/rent/4001333905</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K85" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1850</v>
+        <v>1715</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -7317,40 +7571,43 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>(46.20082203493976, 6.1865041228915665)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>46.20082203493976</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R85" t="n">
-        <v>6.186504122891566</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S85" t="n">
-        <v>1850</v>
+        <v>1715</v>
+      </c>
+      <c r="T85" t="n">
+        <v>59.13793103448276</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4001398794</v>
+        <v>4001337045</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wohnen neben Sportplatz und Glattzentrum</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
+          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7360,7 +7617,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -7375,63 +7632,66 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001398794</t>
+          <t>https://www.homegate.ch/rent/4001337045</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1850</v>
+        <v>1500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>47.40365010130662</v>
+        <v>46.20221909543828</v>
       </c>
       <c r="R86" t="n">
-        <v>8.579578526872822</v>
+        <v>6.146693037119857</v>
       </c>
       <c r="S86" t="n">
-        <v>1850</v>
+        <v>1500</v>
+      </c>
+      <c r="T86" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4001386021</v>
+        <v>4001320201</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
+          <t>Appartement de 2 pièces aux Eaux-Vives.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Geeringstrasse 42, 8049 Zürich</t>
+          <t>1207 Genève</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7441,7 +7701,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>8102</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7456,63 +7716,66 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386021</t>
+          <t>https://www.homegate.ch/rent/4001320201</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
+        <v>30</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>16</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>(46.2017559, 6.1466014)</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6.1466014</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1800</v>
+      </c>
+      <c r="T87" t="n">
         <v>60</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1855</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O87" t="n">
-        <v>1</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>(47.40885941533816, 8.464555297222223)</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>47.40885941533816</v>
-      </c>
-      <c r="R87" t="n">
-        <v>8.464555297222223</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1855</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4001221422</v>
+        <v>4001405544</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Zentrale Lage - idyllisch und ruhig</t>
+          <t>Studio en parfait état à Montbrillant proche des Nations disponible au 1er octobre</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jungholzstrasse 20, 8050 Zürich</t>
+          <t>Rue du Valais 18, 1202 Genève</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7522,7 +7785,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7537,26 +7800,26 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001221422</t>
+          <t>https://www.homegate.ch/rent/4001405544</t>
         </is>
       </c>
       <c r="J88" t="n">
         <v>1.5</v>
       </c>
       <c r="K88" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
+          <t>[(1165.0, '2024-21-08'), (1165.0, '2024-22-08'), (1165.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1866</v>
+        <v>1165</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -7564,31 +7827,34 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>(47.41188227578912, 8.552227190564137)</t>
+          <t>(46.2172232616622, 6.142129813136729)</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>47.41188227578912</v>
+        <v>46.2172232616622</v>
       </c>
       <c r="R88" t="n">
-        <v>8.552227190564137</v>
+        <v>6.142129813136729</v>
       </c>
       <c r="S88" t="n">
-        <v>1866</v>
+        <v>1165</v>
+      </c>
+      <c r="T88" t="n">
+        <v>61.31578947368421</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4001404338</v>
+        <v>4001151789</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Appartement de 5 pièces avec balcon, situé au 8ème étage.</t>
+          <t>Joli studio au 3ème étage en plein coeur de la Vieille-Ville</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rue de la Calle 34, 1213 ONEX</t>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7603,7 +7869,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7618,58 +7884,61 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001404338</t>
+          <t>https://www.homegate.ch/rent/4001151789</t>
         </is>
       </c>
       <c r="J89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>28</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>[(1718.0, '2024-18-08'), (1718.0, '2024-20-08'), (1718.0, '2024-21-08'), (1718.0, '2024-22-08'), (1718.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1718</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
         <v>5</v>
       </c>
-      <c r="K89" t="n">
-        <v>79</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>[(1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1870</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O89" t="n">
-        <v>1</v>
-      </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>(46.18939533575419, 6.107730086592179)</t>
+          <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>46.18939533575419</v>
+        <v>46.20221909543828</v>
       </c>
       <c r="R89" t="n">
-        <v>6.107730086592179</v>
+        <v>6.146693037119857</v>
       </c>
       <c r="S89" t="n">
-        <v>1870</v>
+        <v>1718</v>
+      </c>
+      <c r="T89" t="n">
+        <v>61.35714285714285</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4001360173</v>
+        <v>4001400450</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
+          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wartauweg 19, 8049 Zürich</t>
+          <t>Baumackerstrasse 47, 8050 Zürich</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7684,7 +7953,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>8049</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7699,58 +7968,61 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001360173</t>
+          <t>https://www.homegate.ch/rent/4001400450</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>1.5</v>
       </c>
       <c r="K90" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1870</v>
+        <v>1240</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>(47.40363721573333, 8.496623159199999)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>47.40363721573333</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R90" t="n">
-        <v>8.496623159199999</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S90" t="n">
-        <v>1870</v>
+        <v>1240</v>
+      </c>
+      <c r="T90" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4001400534</v>
+        <v>4001372957</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>neu renovierte 3-Zimmerwohnung</t>
+          <t>Urbanes Wohnen im Kreis 4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Am Luchsgraben 9, 8051 Zürich</t>
+          <t>Hildastrasse 1, 8004 Zürich</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7765,7 +8037,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7780,63 +8052,66 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400534</t>
+          <t>https://www.homegate.ch/rent/4001372957</t>
         </is>
       </c>
       <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K91" t="n">
+        <v>29</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1890</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
         <v>3</v>
       </c>
-      <c r="K91" t="n">
-        <v>65</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1870</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O91" t="n">
-        <v>8</v>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.37720112623169, 8.522884019074567)</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>47.40365010130662</v>
+        <v>47.37720112623169</v>
       </c>
       <c r="R91" t="n">
-        <v>8.579578526872822</v>
+        <v>8.522884019074567</v>
       </c>
       <c r="S91" t="n">
-        <v>1870</v>
+        <v>1890</v>
+      </c>
+      <c r="T91" t="n">
+        <v>65.17241379310344</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4001298128</v>
+        <v>4001297083</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
+          <t>Appartement de 2 pièces au 5ème en face du Parc la Grange</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Luegislandstr. 56, 8051 Zürich</t>
+          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7846,7 +8121,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7861,63 +8136,66 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001298128</t>
+          <t>https://www.homegate.ch/rent/4001297083</t>
         </is>
       </c>
       <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="n">
+        <v>25</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>[(1630.0, '2024-18-08'), (1630.0, '2024-20-08'), (1630.0, '2024-21-08'), (1630.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1630</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
         <v>3</v>
       </c>
-      <c r="K92" t="n">
-        <v>66</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1870</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O92" t="n">
-        <v>8</v>
-      </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(46.199071180898876, 6.16370553483146)</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>47.40365010130662</v>
+        <v>46.19907118089888</v>
       </c>
       <c r="R92" t="n">
-        <v>8.579578526872822</v>
+        <v>6.16370553483146</v>
       </c>
       <c r="S92" t="n">
-        <v>1870</v>
+        <v>1630</v>
+      </c>
+      <c r="T92" t="n">
+        <v>65.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4001333934</v>
+        <v>4001350715</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Im Grünen in Zürich-Altstetten</t>
+          <t>Joli studio en plein coeur de la Vieille-Ville</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Vetterliweg 82, 8048 Zürich</t>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -7927,7 +8205,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7942,58 +8220,61 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333934</t>
+          <t>https://www.homegate.ch/rent/4001350715</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K93" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1880</v>
+        <v>1845</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(46.20221909543828, 6.146693037119857)</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>47.38784678183972</v>
+        <v>46.20221909543828</v>
       </c>
       <c r="R93" t="n">
-        <v>8.486769005132254</v>
+        <v>6.146693037119857</v>
       </c>
       <c r="S93" t="n">
-        <v>1880</v>
+        <v>1845</v>
+      </c>
+      <c r="T93" t="n">
+        <v>65.89285714285714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3001034675</v>
+        <v>4001360173</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.5 Zimmer in Oerlikon</t>
+          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Friesstrasse 8, 8050 Zürich</t>
+          <t>Wartauweg 19, 8049 Zürich</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8008,7 +8289,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8049</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8018,63 +8299,66 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/3001034675</t>
+          <t>https://www.homegate.ch/rent/4001360173</t>
         </is>
       </c>
       <c r="J94" t="n">
         <v>1.5</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>(47.41188227578912, 8.552227190564137)</t>
+          <t>(47.40363721573333, 8.496623159199999)</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>47.41188227578912</v>
+        <v>47.40363721573333</v>
       </c>
       <c r="R94" t="n">
-        <v>8.552227190564137</v>
+        <v>8.496623159199999</v>
       </c>
       <c r="S94" t="n">
-        <v>1890</v>
+        <v>1870</v>
+      </c>
+      <c r="T94" t="n">
+        <v>66.78571428571429</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4001372957</v>
+        <v>3001912350</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Urbanes Wohnen im Kreis 4</t>
+          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Hildastrasse 1, 8004 Zürich</t>
+          <t>Viktoriastrasse 29, 8057 Zürich</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8089,7 +8373,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8104,26 +8388,26 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001372957</t>
+          <t>https://www.homegate.ch/rent/3001912350</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K95" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
+          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1890</v>
+        <v>1600</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -8131,31 +8415,34 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>(47.37722915823373, 8.522798633266932)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>47.37722915823373</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R95" t="n">
-        <v>8.522798633266932</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S95" t="n">
-        <v>1890</v>
+        <v>1600</v>
+      </c>
+      <c r="T95" t="n">
+        <v>69.56521739130434</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4001313304</v>
+        <v>4001313115</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2 pièces au Pâquis proche du lac</t>
+          <t>Studio à Genève.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rue des Pâquis 53, 1201 Genève</t>
+          <t>1204 Genève</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8170,7 +8457,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8185,22 +8472,22 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001313304</t>
+          <t>https://www.homegate.ch/rent/4001313115</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K96" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+          <t>[(1670.0, '2024-18-08'), (1670.0, '2024-20-08'), (1670.0, '2024-21-08'), (1670.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1900</v>
+        <v>1670</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -8208,35 +8495,38 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(46.2017559, 6.1466014)</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>46.2097742377551</v>
+        <v>46.2017559</v>
       </c>
       <c r="R96" t="n">
-        <v>6.145239649744898</v>
+        <v>6.1466014</v>
       </c>
       <c r="S96" t="n">
-        <v>1900</v>
+        <v>1670</v>
+      </c>
+      <c r="T96" t="n">
+        <v>72.60869565217391</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4001187616</v>
+        <v>4001385233</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tolle Wohnung in einem der attraktivsten Quartiere der Stadt Zürich</t>
+          <t>Charmantes zentrales Studio zu mieten</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Eidmattstrasse 6, 8032 Zürich</t>
+          <t>Aprikosenstrasse 5, 8051 Zürich</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8251,7 +8541,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8266,63 +8556,66 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001187616</t>
+          <t>https://www.homegate.ch/rent/4001385233</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K97" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
+          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1900</v>
+        <v>1690</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O97" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>(47.366720333062524, 8.561976071105615)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>47.36672033306252</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R97" t="n">
-        <v>8.561976071105615</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S97" t="n">
-        <v>2100</v>
+        <v>1690</v>
+      </c>
+      <c r="T97" t="n">
+        <v>73.47826086956522</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4001370602</v>
+        <v>4001401691</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces au 3ème étage</t>
+          <t>Chambre à Zurich</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Avenue Blanc 34, 1202 Genève</t>
+          <t>Hottingerstrasse 34, 8032 Zürich</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -8332,7 +8625,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8347,58 +8640,61 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001370602</t>
+          <t>https://www.homegate.ch/rent/4001401691</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K98" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.366720333062524, 8.561976071105615)</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>46.2172232616622</v>
+        <v>47.36672033306252</v>
       </c>
       <c r="R98" t="n">
-        <v>6.142129813136729</v>
+        <v>8.561976071105615</v>
       </c>
       <c r="S98" t="n">
-        <v>1900</v>
+        <v>1250</v>
+      </c>
+      <c r="T98" t="n">
+        <v>83.33333333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4001385645</v>
+        <v>4001410711</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
+          <t>Erstvermietung - Wohnen an der Zürcher Seepromenade</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Uetlibergstrasse 83, 8045 Zürich</t>
+          <t>Florastrasse 7, 8008 Zürich</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -8413,7 +8709,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8045</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8428,26 +8724,26 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001385645</t>
+          <t>https://www.homegate.ch/rent/4001410711</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K99" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -8455,36 +8751,39 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>(47.359304231631135, 8.51290742444224)</t>
+          <t>(47.3537532, 8.560742331897757)</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>47.35930423163114</v>
+        <v>47.3537532</v>
       </c>
       <c r="R99" t="n">
-        <v>8.51290742444224</v>
+        <v>8.560742331897757</v>
       </c>
       <c r="S99" t="n">
-        <v>1900</v>
+        <v>1850</v>
+      </c>
+      <c r="T99" t="n">
+        <v>88.0952380952381</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4001371524</v>
+        <v>3001034675</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Genève.</t>
+          <t>1.5 Zimmer in Oerlikon</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Friesstrasse 8, 8050 Zürich</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -8494,7 +8793,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8504,27 +8803,27 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001371524</t>
+          <t>https://www.immoscout24.ch/rent/3001034675</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K100" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -8532,102 +8831,24 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>46.2017559</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R100" t="n">
-        <v>6.1466014</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S100" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>4001382538</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Charmant appartement en attique de 3 pièces situé à Bernex</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>1233 Bernex</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Geneve</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>1233</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>homegate</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://www.homegate.ch/rent/4001382538</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>60</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1900</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O101" t="n">
-        <v>1</v>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>(46.176846119148934, 6.0778733106382985)</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>46.17684611914893</v>
-      </c>
-      <c r="R101" t="n">
-        <v>6.077873310638298</v>
-      </c>
-      <c r="S101" t="n">
-        <v>1900</v>
+        <v>1890</v>
+      </c>
+      <c r="T100" t="n">
+        <v>94.5</v>
       </c>
     </row>
   </sheetData>

--- a/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
+++ b/streamlit/plotar_mapa/enderecos_com_coordenadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -621,21 +621,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4001342150</v>
+        <v>4001391266</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chambre a louer au Eaux-Vives!</t>
+          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chemin Neuf, 1207 Geneva</t>
+          <t>Glättlistrasse 1, 8048 Zürich</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -660,22 +660,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001342150</t>
+          <t>https://www.homegate.ch/rent/4001391266</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[(1665.0, '2024-18-08'), (1665.0, '2024-20-08'), (1665.0, '2024-21-08'), (1665.0, '2024-22-08')]</t>
+          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1665</v>
+        <v>1254</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -683,38 +683,38 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>(46.202068743257, 6.15902832086514)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>46.202068743257</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R3" t="n">
-        <v>6.15902832086514</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S3" t="n">
-        <v>1665</v>
+        <v>1254</v>
       </c>
       <c r="T3" t="n">
-        <v>18.2967032967033</v>
+        <v>18.44117647058824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4001391266</v>
+        <v>4001409730</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
+          <t>Befristet bis 31.01.2025: Zentral gelegene 2.5-Zimmerwohnung mit Balkon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Glättlistrasse 1, 8048 Zürich</t>
+          <t>Badenerstrasse 253, 8003 Zürich</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -744,61 +744,61 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001391266</t>
+          <t>https://www.homegate.ch/rent/4001409730</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
+          <t>[(1150.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1254</v>
+        <v>1150</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.37275923394794, 8.515733035032538)</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>47.38784678183972</v>
+        <v>47.37275923394794</v>
       </c>
       <c r="R4" t="n">
-        <v>8.486769005132254</v>
+        <v>8.515733035032538</v>
       </c>
       <c r="S4" t="n">
-        <v>1254</v>
+        <v>1150</v>
       </c>
       <c r="T4" t="n">
-        <v>18.44117647058824</v>
+        <v>18.85245901639344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4001409730</v>
+        <v>4000996884</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Befristet bis 31.01.2025: Zentral gelegene 2.5-Zimmerwohnung mit Balkon</t>
+          <t>Befristet bis Ende Februar 2025 zu vermieten 4-Zimmer-Wohnung Zürich 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Badenerstrasse 253, 8003 Zürich</t>
+          <t>Schulhausstrasse 50, 8002 Zürich</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8003</t>
+          <t>8002</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -828,22 +828,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001409730</t>
+          <t>https://www.homegate.ch/rent/4000996884</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[(1150.0, '2024-23-08')]</t>
+          <t>[(2000.0, '2024-18-08'), (2000.0, '2024-20-08'), (2000.0, '2024-21-08'), (2000.0, '2024-22-08'), (2000.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1150</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -851,24 +851,24 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>(47.37275923394794, 8.515733035032538)</t>
+          <t>(47.361771095769235, 8.530453141730769)</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>47.37275923394794</v>
+        <v>47.36177109576924</v>
       </c>
       <c r="R5" t="n">
-        <v>8.515733035032538</v>
+        <v>8.530453141730769</v>
       </c>
       <c r="S5" t="n">
-        <v>1150</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
-        <v>18.85245901639344</v>
+        <v>19.8019801980198</v>
       </c>
     </row>
     <row r="6">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -957,21 +957,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4001404338</v>
+        <v>4001392790</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Appartement de 5 pièces avec balcon, situé au 8ème étage.</t>
+          <t>Wohnen direkt beim HB Zürich</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rue de la Calle 34, 1213 ONEX</t>
+          <t>Konradstrasse 20, 8005 Zürich</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>8005</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -996,22 +996,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001404338</t>
+          <t>https://www.homegate.ch/rent/4001392790</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(2010.0, '2024-18-08'), (2010.0, '2024-20-08'), (2010.0, '2024-21-08'), (2010.0, '2024-22-08'), (2010.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1870</v>
+        <v>2010</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1019,38 +1019,38 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>(46.18939533575419, 6.107730086592179)</t>
+          <t>(47.386330033162615, 8.524630250896287)</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>46.18939533575419</v>
+        <v>47.38633003316261</v>
       </c>
       <c r="R7" t="n">
-        <v>6.107730086592179</v>
+        <v>8.524630250896287</v>
       </c>
       <c r="S7" t="n">
-        <v>1870</v>
+        <v>2010</v>
       </c>
       <c r="T7" t="n">
-        <v>23.67088607594937</v>
+        <v>23.37209302325581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4001380884</v>
+        <v>4001217934</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
+          <t>Ansprechende Wohnung an zentraler Lage in Seebach</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wiesliacher 95, 8053 Zürich</t>
+          <t>Schaffhauserstrasse 457, 8052 Zürich</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1080,22 +1080,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001380884</t>
+          <t>https://www.homegate.ch/rent/4001217934</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
+          <t>[(2145.0, '2024-18-08'), (2145.0, '2024-20-08'), (2145.0, '2024-21-08'), (2145.0, '2024-22-08'), (2145.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1715</v>
+        <v>2145</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1103,38 +1103,38 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>(47.35846491585127, 8.590339297586432)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>47.35846491585127</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R8" t="n">
-        <v>8.590339297586432</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S8" t="n">
-        <v>1715</v>
+        <v>2145</v>
       </c>
       <c r="T8" t="n">
-        <v>26.796875</v>
+        <v>25.8433734939759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4001406104</v>
+        <v>4001390013</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
+          <t>helle und grosszügige Gartensitzplatzwohnung</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Birnbaumstrasse 17, 8050 Zürich</t>
+          <t>Frohbühlstrasse 8, 8052 Zürich</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1164,22 +1164,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001406104</t>
+          <t>https://www.homegate.ch/rent/4001390013</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+          <t>[(1940.0, '2024-18-08'), (1940.0, '2024-20-08'), (1940.0, '2024-21-08'), (1940.0, '2024-22-08'), (1940.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1500</v>
+        <v>1940</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1187,38 +1187,38 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>(47.41188227578912, 8.552227190564137)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>47.41188227578912</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R9" t="n">
-        <v>8.552227190564137</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1940</v>
       </c>
       <c r="T9" t="n">
-        <v>27.27272727272727</v>
+        <v>25.86666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4001369307</v>
+        <v>4001381067</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wir suchen genau Sie</t>
+          <t>Ruhige und sonnige 3-Zimmerwohnung in Zürich-Höngg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Badenerstrasse 779, 8048 Zürich</t>
+          <t>Vorhaldenstrasse 14, 8049 Zürich</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8049</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001369307</t>
+          <t>https://www.homegate.ch/rent/4001381067</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[(1620.0, '2024-18-08'), (1620.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08'), (1620.0, '2024-23-08')]</t>
+          <t>[(1970.0, '2024-18-08'), (1970.0, '2024-20-08'), (1970.0, '2024-21-08'), (1970.0, '2024-22-08'), (1970.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1620</v>
+        <v>1970</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1271,38 +1271,38 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.40363721573333, 8.496623159199999)</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>47.38784678183972</v>
+        <v>47.40363721573333</v>
       </c>
       <c r="R10" t="n">
-        <v>8.486769005132254</v>
+        <v>8.496623159199999</v>
       </c>
       <c r="S10" t="n">
-        <v>1620</v>
+        <v>1970</v>
       </c>
       <c r="T10" t="n">
-        <v>27.45762711864407</v>
+        <v>26.26666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4001289661</v>
+        <v>4001394629</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EINMALIGES WOHNEN NAHE ZÜRCHER -ZENTRUM IN EINER TRAUMHAFTEN ETAGENWOHNUNG</t>
+          <t>Ruhige und sonnige 3-Zimmerwohnung in Zürich-Höngg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Albisstrasse 161, 8038 Zürich</t>
+          <t>Vorhaldenstrasse 14, 8049 Zürich</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>8049</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1332,61 +1332,61 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001289661</t>
+          <t>https://www.immoscout24.ch/rent/4001394629</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08')]</t>
+          <t>[(1970.0, '2024-18-08'), (1970.0, '2024-20-08'), (1970.0, '2024-21-08'), (1970.0, '2024-22-08'), (1970.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1790</v>
+        <v>1970</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>(47.34339435560345, 8.531125890517242)</t>
+          <t>(47.40363721573333, 8.496623159199999)</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>47.34339435560345</v>
+        <v>47.40363721573333</v>
       </c>
       <c r="R11" t="n">
-        <v>8.531125890517242</v>
+        <v>8.496623159199999</v>
       </c>
       <c r="S11" t="n">
-        <v>1790</v>
+        <v>1970</v>
       </c>
       <c r="T11" t="n">
-        <v>27.53846153846154</v>
+        <v>26.26666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4001298128</v>
+        <v>4001380884</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
+          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Luegislandstr. 56, 8051 Zürich</t>
+          <t>Wiesliacher 95, 8053 Zürich</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1416,22 +1416,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001298128</t>
+          <t>https://www.homegate.ch/rent/4001380884</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1870</v>
+        <v>1715</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1439,43 +1439,43 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>(47.40365211404348, 8.579595054782608)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>47.40365211404348</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R12" t="n">
-        <v>8.579595054782608</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S12" t="n">
-        <v>1870</v>
+        <v>1715</v>
       </c>
       <c r="T12" t="n">
-        <v>28.33333333333333</v>
+        <v>26.796875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4001395818</v>
+        <v>4001275211</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VERSOIX - 3 pièces</t>
+          <t>Wohnen an ruhiger Lage</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rte de Sauverny 20, 1290 Versoix</t>
+          <t>In der Looren 48, 8053 Zürich</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1500,22 +1500,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001395818</t>
+          <t>https://www.homegate.ch/rent/4001275211</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+          <t>[(1940.0, '2024-18-08'), (1940.0, '2024-20-08'), (1940.0, '2024-21-08'), (1940.0, '2024-22-08'), (1940.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1760</v>
+        <v>1940</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1523,43 +1523,43 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>(46.29489699752066, 6.152340249586777)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>46.29489699752066</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R13" t="n">
-        <v>6.152340249586777</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S13" t="n">
-        <v>1760</v>
+        <v>1940</v>
       </c>
       <c r="T13" t="n">
-        <v>28.38709677419355</v>
+        <v>26.94444444444444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4001395817</v>
+        <v>4001406104</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VERSOIX - 3 pièces</t>
+          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rte de Sauverny 20, 1290 Versoix</t>
+          <t>Birnbaumstrasse 17, 8050 Zürich</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1584,22 +1584,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001395817</t>
+          <t>https://www.homegate.ch/rent/4001406104</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1760</v>
+        <v>1500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1607,38 +1607,38 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>(46.29489699752066, 6.152340249586777)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>46.29489699752066</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R14" t="n">
-        <v>6.152340249586777</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S14" t="n">
-        <v>1760</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
-        <v>28.38709677419355</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4001298127</v>
+        <v>4001403304</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wohnen mit Aussicht</t>
+          <t>Wohnen in einem Riegelhaus im alten Dorfkern von Zürich-Witikon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Luegislandstr. 56, 8051 Zürich</t>
+          <t>Berghaldenstr. 54, 8053 Zürich</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1668,22 +1668,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001298127</t>
+          <t>https://www.homegate.ch/rent/4001403304</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
+          <t>[(2082.0, '2024-21-08'), (2082.0, '2024-22-08'), (2082.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1849</v>
+        <v>2082</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1691,43 +1691,43 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>47.40365010130662</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R15" t="n">
-        <v>8.579578526872822</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S15" t="n">
-        <v>1849</v>
+        <v>2082</v>
       </c>
       <c r="T15" t="n">
-        <v>28.44615384615384</v>
+        <v>27.39473684210526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4001389721</v>
+        <v>4001369307</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Studio in Geneva</t>
+          <t>Wir suchen genau Sie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Grand-Rue 12, 1204 Genève</t>
+          <t>Badenerstrasse 779, 8048 Zürich</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1752,22 +1752,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001389721</t>
+          <t>https://www.homegate.ch/rent/4001369307</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[(1610.0, '2024-18-08'), (1610.0, '2024-20-08'), (1610.0, '2024-21-08'), (1610.0, '2024-22-08'), (1610.0, '2024-23-08')]</t>
+          <t>[(1620.0, '2024-18-08'), (1620.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08'), (1620.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1775,38 +1775,38 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>46.20221909543828</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R16" t="n">
-        <v>6.146693037119857</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S16" t="n">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="T16" t="n">
-        <v>28.75</v>
+        <v>27.45762711864407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4001400534</v>
+        <v>4001289661</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>neu renovierte 3-Zimmerwohnung</t>
+          <t>EINMALIGES WOHNEN NAHE ZÜRCHER -ZENTRUM IN EINER TRAUMHAFTEN ETAGENWOHNUNG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Am Luchsgraben 9, 8051 Zürich</t>
+          <t>Albisstrasse 161, 8038 Zürich</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1831,71 +1831,71 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400534</t>
+          <t>https://www.immoscout24.ch/rent/4001289661</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
         <v>65</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1870</v>
+        <v>1790</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.34339435560345, 8.531125890517242)</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>47.40365010130662</v>
+        <v>47.34339435560345</v>
       </c>
       <c r="R17" t="n">
-        <v>8.579578526872822</v>
+        <v>8.531125890517242</v>
       </c>
       <c r="S17" t="n">
-        <v>1870</v>
+        <v>1790</v>
       </c>
       <c r="T17" t="n">
-        <v>28.76923076923077</v>
+        <v>27.53846153846154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4001407318</v>
+        <v>4001298128</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces avec balcon, situé au rez-de-chaussé.</t>
+          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chemin Du-Villard 2, 1219 CHATELAINE</t>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1920,22 +1920,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001407318</t>
+          <t>https://www.homegate.ch/rent/4001298128</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[(1710.0, '2024-22-08'), (1710.0, '2024-23-08')]</t>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1710</v>
+        <v>1870</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1943,38 +1943,38 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>(46.20368202088608, 6.101213236286919)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>46.20368202088608</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R18" t="n">
-        <v>6.101213236286919</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S18" t="n">
-        <v>1710</v>
+        <v>1870</v>
       </c>
       <c r="T18" t="n">
-        <v>29.48275862068965</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4001402922</v>
+        <v>4001298127</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
+          <t>Wohnen mit Aussicht</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Buchzelgstrasse 91, 8053 Zürich</t>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2004,22 +2004,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402922</t>
+          <t>https://www.homegate.ch/rent/4001298127</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
+          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1650</v>
+        <v>1849</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -2027,38 +2027,38 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>(47.35846491585127, 8.590339297586432)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>47.35846491585127</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R19" t="n">
-        <v>8.590339297586432</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S19" t="n">
-        <v>1650</v>
+        <v>1849</v>
       </c>
       <c r="T19" t="n">
-        <v>30</v>
+        <v>28.44615384615384</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4001389683</v>
+        <v>4001400534</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
+          <t>neu renovierte 3-Zimmerwohnung</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Karstlernstrasse 6, 8048 Zürich</t>
+          <t>Am Luchsgraben 9, 8051 Zürich</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2088,22 +2088,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001389683</t>
+          <t>https://www.homegate.ch/rent/4001400534</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
+          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1751</v>
+        <v>1870</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -2111,38 +2111,38 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>47.38784678183972</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R20" t="n">
-        <v>8.486769005132254</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S20" t="n">
-        <v>1751</v>
+        <v>1870</v>
       </c>
       <c r="T20" t="n">
-        <v>30.18965517241379</v>
+        <v>28.76923076923077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4001362025</v>
+        <v>4001390533</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
+          <t>Sanierte 3.0-Zimmerwohnung mit viel Charme!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
+          <t>Uetlibergstrasse 129, 8045 Zürich</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001362025</t>
+          <t>https://www.homegate.ch/rent/4001390533</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+          <t>[(2014.0, '2024-18-08'), (2014.0, '2024-20-08'), (2014.0, '2024-21-08'), (2014.0, '2024-22-08'), (2014.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1780</v>
+        <v>2014</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2195,38 +2195,38 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.359304231631135, 8.51290742444224)</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>47.40365010130662</v>
+        <v>47.35930423163114</v>
       </c>
       <c r="R21" t="n">
-        <v>8.579578526872822</v>
+        <v>8.51290742444224</v>
       </c>
       <c r="S21" t="n">
-        <v>1780</v>
+        <v>2014</v>
       </c>
       <c r="T21" t="n">
-        <v>30.68965517241379</v>
+        <v>28.77142857142857</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4001386021</v>
+        <v>4001387079</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
+          <t>Grosszügige 3-Zimmerwohung in gepflegter Liegenschaft - befristet bis 30.09.2026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Geeringstrasse 42, 8049 Zürich</t>
+          <t>Heidwiesen 25, 8051 Zürich</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8102</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2256,22 +2256,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386021</t>
+          <t>https://www.homegate.ch/rent/4001387079</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
+          <t>[(1980.0, '2024-18-08'), (1980.0, '2024-20-08'), (1980.0, '2024-21-08'), (1980.0, '2024-22-08'), (1980.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1855</v>
+        <v>1980</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2279,38 +2279,38 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>(47.40885941533816, 8.464555297222223)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>47.40885941533816</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R22" t="n">
-        <v>8.464555297222223</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S22" t="n">
-        <v>1855</v>
+        <v>1980</v>
       </c>
       <c r="T22" t="n">
-        <v>30.91666666666667</v>
+        <v>29.11764705882353</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4001355584</v>
+        <v>4001402922</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Studio komplett möbliert und ausgestattet</t>
+          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Unterfeldstrasse 4, 8050 Zürich</t>
+          <t>Buchzelgstrasse 91, 8053 Zürich</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2340,22 +2340,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001355584</t>
+          <t>https://www.homegate.ch/rent/4001402922</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
+          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1490</v>
+        <v>1650</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2363,38 +2363,38 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>47.40365010130662</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R23" t="n">
-        <v>8.579578526872822</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S23" t="n">
-        <v>1490</v>
+        <v>1650</v>
       </c>
       <c r="T23" t="n">
-        <v>31.04166666666667</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4001390278</v>
+        <v>4001389683</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gemütliche Single-Wohnung</t>
+          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
+          <t>Karstlernstrasse 6, 8048 Zürich</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8046</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2424,22 +2424,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001390278</t>
+          <t>https://www.homegate.ch/rent/4001389683</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1590</v>
+        <v>1751</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2447,43 +2447,43 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>(47.419142437571594, 8.511772920389461)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>47.41914243757159</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R24" t="n">
-        <v>8.511772920389461</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S24" t="n">
-        <v>1590</v>
+        <v>1751</v>
       </c>
       <c r="T24" t="n">
-        <v>31.17647058823529</v>
+        <v>30.18965517241379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4001401166</v>
+        <v>4001226511</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Studio situé à la Servette</t>
+          <t>Kleine, herzige Single-Wohnung frisch saniert</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Schwandenholzstrasse 204, 8046 Zürich</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2508,61 +2508,61 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401166</t>
+          <t>https://www.homegate.ch/rent/4001226511</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[(1248.0, '2024-20-08'), (1248.0, '2024-21-08'), (1248.0, '2024-22-08')]</t>
+          <t>[(1940.0, '2024-18-08'), (1940.0, '2024-20-08'), (1940.0, '2024-21-08'), (1940.0, '2024-22-08'), (1940.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1248</v>
+        <v>1940</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.419142437571594, 8.511772920389461)</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>46.2017559</v>
+        <v>47.41914243757159</v>
       </c>
       <c r="R25" t="n">
-        <v>6.1466014</v>
+        <v>8.511772920389461</v>
       </c>
       <c r="S25" t="n">
-        <v>1248</v>
+        <v>1940</v>
       </c>
       <c r="T25" t="n">
-        <v>31.2</v>
+        <v>30.3125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4001400576</v>
+        <v>4001390534</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
+          <t>Ruhige Wohnlage Nähe Bucheggplatz</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8051 Zürich</t>
+          <t>Grabenwies 15/17/19, 8057 Zürich</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2592,22 +2592,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400576</t>
+          <t>https://www.homegate.ch/rent/4001390534</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
+          <t>[(2160.0, '2024-18-08'), (2160.0, '2024-20-08'), (2160.0, '2024-21-08'), (2160.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1760</v>
+        <v>2160</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2615,38 +2615,38 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>(47.3744489, 8.5410422)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>47.3744489</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R26" t="n">
-        <v>8.5410422</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S26" t="n">
-        <v>1760</v>
+        <v>2160</v>
       </c>
       <c r="T26" t="n">
-        <v>31.42857142857143</v>
+        <v>30.4225352112676</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4001393841</v>
+        <v>4001364792</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
+          <t>1. - 28.9.2024 Zentrale Stadtwohnung 65m2 mit Garagenplatz</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Magnusstrasse 8, 8004 Zürich</t>
+          <t>Luisenstrasse, 8005 Zürich</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8031</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2671,71 +2671,71 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001393841</t>
+          <t>https://www.immoscout24.ch/rent/4001364792</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
+          <t>[(1990.0, '2024-18-08'), (1990.0, '2024-20-08'), (1990.0, '2024-21-08'), (1990.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1400</v>
+        <v>1990</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>(47.37722915823373, 8.522798633266932)</t>
+          <t>(47.3840732, 8.5326388)</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>47.37722915823373</v>
+        <v>47.3840732</v>
       </c>
       <c r="R27" t="n">
-        <v>8.522798633266932</v>
+        <v>8.532638800000001</v>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>1990</v>
       </c>
       <c r="T27" t="n">
-        <v>31.81818181818182</v>
+        <v>30.61538461538462</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4001398165</v>
+        <v>4001362025</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rue de Richemont, 1202 Genève</t>
+          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2760,61 +2760,61 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001398165</t>
+          <t>https://www.homegate.ch/rent/4001362025</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1400</v>
+        <v>1780</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>46.2097742377551</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R28" t="n">
-        <v>6.145239649744898</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S28" t="n">
-        <v>1400</v>
+        <v>1780</v>
       </c>
       <c r="T28" t="n">
-        <v>31.81818181818182</v>
+        <v>30.68965517241379</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4001333934</v>
+        <v>4001386021</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Im Grünen in Zürich-Altstetten</t>
+          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Vetterliweg 82, 8048 Zürich</t>
+          <t>Geeringstrasse 42, 8049 Zürich</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8102</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2844,22 +2844,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333934</t>
+          <t>https://www.homegate.ch/rent/4001386021</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
+          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1880</v>
+        <v>1855</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2867,38 +2867,38 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.40885941533816, 8.464555297222223)</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>47.38784678183972</v>
+        <v>47.40885941533816</v>
       </c>
       <c r="R29" t="n">
-        <v>8.486769005132254</v>
+        <v>8.464555297222223</v>
       </c>
       <c r="S29" t="n">
-        <v>1880</v>
+        <v>1855</v>
       </c>
       <c r="T29" t="n">
-        <v>31.86440677966102</v>
+        <v>30.91666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4001351110</v>
+        <v>4001355584</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ihre neue Wohnung im Grünen?</t>
+          <t>Studio komplett möbliert und ausgestattet</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Balberstrasse 74, 8038 Zürich</t>
+          <t>Unterfeldstrasse 4, 8050 Zürich</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2928,22 +2928,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001351110</t>
+          <t>https://www.homegate.ch/rent/4001355584</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K30" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1790</v>
+        <v>1490</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2951,38 +2951,38 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>(47.34339435560345, 8.531125890517242)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>47.34339435560345</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R30" t="n">
-        <v>8.531125890517242</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S30" t="n">
-        <v>1790</v>
+        <v>1490</v>
       </c>
       <c r="T30" t="n">
-        <v>31.96428571428572</v>
+        <v>31.04166666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4001361662</v>
+        <v>4001410351</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.0 Zimmerwohnung in Zürich</t>
+          <t>Moderne 2.5-Zimmerwohnung - Zürich Seebach</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dübendorfstrasse 333, 8051 Zürich</t>
+          <t>Arianestrasse 19, 8052 Zürich</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3012,22 +3012,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001361662</t>
+          <t>https://www.homegate.ch/rent/4001410351</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
+          <t>[(2080.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1643</v>
+        <v>2080</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -3035,38 +3035,38 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>47.40365010130662</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R31" t="n">
-        <v>8.579578526872822</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S31" t="n">
-        <v>1643</v>
+        <v>2080</v>
       </c>
       <c r="T31" t="n">
-        <v>32.21568627450981</v>
+        <v>31.04477611940299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4001403040</v>
+        <v>4001390278</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Schöne Stadtnahe Wohnung</t>
+          <t>Gemütliche Single-Wohnung</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
+          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3096,22 +3096,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001403040</t>
+          <t>https://www.homegate.ch/rent/4001390278</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1791</v>
+        <v>1590</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -3123,39 +3123,39 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>(47.39948119888603, 8.542812898886032)</t>
+          <t>(47.419142437571594, 8.511772920389461)</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>47.39948119888603</v>
+        <v>47.41914243757159</v>
       </c>
       <c r="R32" t="n">
-        <v>8.542812898886032</v>
+        <v>8.511772920389461</v>
       </c>
       <c r="S32" t="n">
-        <v>1791</v>
+        <v>1590</v>
       </c>
       <c r="T32" t="n">
-        <v>32.56363636363636</v>
+        <v>31.17647058823529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4001349266</v>
+        <v>4001267854</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Wohnen an zentraler Lage</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Route de Meinier 15, 1253 Vandoeuvres</t>
+          <t>Glattwiesenstrasse 20, 8051 Zürich</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3180,22 +3180,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001349266</t>
+          <t>https://www.homegate.ch/rent/4001267854</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+          <t>[(1970.0, '2024-18-08'), (1970.0, '2024-20-08'), (1970.0, '2024-21-08'), (1970.0, '2024-22-08'), (1970.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1800</v>
+        <v>1970</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -3203,43 +3203,43 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>(46.216670255555556, 6.200812236625514)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>46.21667025555556</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R33" t="n">
-        <v>6.200812236625514</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S33" t="n">
-        <v>1800</v>
+        <v>1970</v>
       </c>
       <c r="T33" t="n">
-        <v>33.33333333333334</v>
+        <v>31.26984126984127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4001409549</v>
+        <v>4001400576</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces au 7ème étage</t>
+          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chemin François-Lehmann 16, 1218 Le Grand-Saconnex</t>
+          <t>8051 Zürich</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3264,66 +3264,66 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001409549</t>
+          <t>https://www.homegate.ch/rent/4001400576</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>[(1110.0, '2024-23-08')]</t>
+          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1110</v>
+        <v>1760</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>(46.23105252, 6.1211587256)</t>
+          <t>(47.3744489, 8.5410422)</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>46.23105252</v>
+        <v>47.3744489</v>
       </c>
       <c r="R34" t="n">
-        <v>6.1211587256</v>
+        <v>8.5410422</v>
       </c>
       <c r="S34" t="n">
-        <v>1110</v>
+        <v>1760</v>
       </c>
       <c r="T34" t="n">
-        <v>33.63636363636363</v>
+        <v>31.42857142857143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4001402352</v>
+        <v>4001379375</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>Apartment in Zurich</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Schaffhauserstrasse 556, 8052 Zurich</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3348,66 +3348,66 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402352</t>
+          <t>https://www.homegate.ch/rent/4001379375</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[(1023.0, '2024-20-08'), (1023.0, '2024-21-08'), (1023.0, '2024-22-08')]</t>
+          <t>[(1985.0, '2024-18-08'), (1985.0, '2024-20-08'), (1985.0, '2024-21-08'), (1985.0, '2024-22-08'), (1985.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1023</v>
+        <v>1985</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>46.2017559</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R35" t="n">
-        <v>6.1466014</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S35" t="n">
-        <v>1023</v>
+        <v>1985</v>
       </c>
       <c r="T35" t="n">
-        <v>34.1</v>
+        <v>31.50793650793651</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4001343788</v>
+        <v>4001407331</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Meyrin.</t>
+          <t>Grosszügige 2.5 Zimmerwohnung zu einem attraktiven Preis</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1217 Meyrin</t>
+          <t>Albulastrasse 56, 8048 Zürich</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3432,61 +3432,61 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001343788</t>
+          <t>https://www.homegate.ch/rent/4001407331</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K36" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[(1558.0, '2024-18-08'), (1558.0, '2024-20-08'), (1558.0, '2024-21-08'), (1558.0, '2024-22-08')]</t>
+          <t>[(2026.0, '2024-22-08'), (2026.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1558</v>
+        <v>2026</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>(46.22410254895833, 6.106731841666666)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>46.22410254895833</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R36" t="n">
-        <v>6.106731841666666</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S36" t="n">
-        <v>1558</v>
+        <v>2026</v>
       </c>
       <c r="T36" t="n">
-        <v>34.62222222222222</v>
+        <v>31.65625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4001383533</v>
+        <v>4001393841</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
+          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Felsenrainstrasse 15, 8052 Zürich</t>
+          <t>Magnusstrasse 8, 8004 Zürich</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3516,66 +3516,66 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001383533</t>
+          <t>https://www.homegate.ch/rent/4001393841</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1663</v>
+        <v>1400</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>47.42212409113385</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R37" t="n">
-        <v>8.544782277237852</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S37" t="n">
-        <v>1663</v>
+        <v>1400</v>
       </c>
       <c r="T37" t="n">
-        <v>34.64583333333334</v>
+        <v>31.81818181818182</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4001292988</v>
+        <v>4001333934</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Carouge.</t>
+          <t>Im Grünen in Zürich-Altstetten</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1227 Carouge</t>
+          <t>Vetterliweg 82, 8048 Zürich</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3600,66 +3600,66 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001292988</t>
+          <t>https://www.homegate.ch/rent/4001333934</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[(1785.0, '2024-18-08'), (1785.0, '2024-20-08'), (1785.0, '2024-21-08'), (1785.0, '2024-22-08')]</t>
+          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1785</v>
+        <v>1880</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>46.18724205396518</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R38" t="n">
-        <v>6.137160952417795</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S38" t="n">
-        <v>1785</v>
+        <v>1880</v>
       </c>
       <c r="T38" t="n">
-        <v>35</v>
+        <v>31.86440677966102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4001407904</v>
+        <v>4001351110</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A saisir ! Bel appartement à côté de la gare CFF de Genève Cornavin !</t>
+          <t>Ihre neue Wohnung im Grünen?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>rue Chantepoulet 12, 1201 Genève</t>
+          <t>Balberstrasse 74, 8038 Zürich</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3684,22 +3684,22 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001407904</t>
+          <t>https://www.homegate.ch/rent/4001351110</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[(1720.0, '2024-22-08'), (1720.0, '2024-23-08')]</t>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1720</v>
+        <v>1790</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3707,43 +3707,43 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(47.34339435560345, 8.531125890517242)</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>46.2097742377551</v>
+        <v>47.34339435560345</v>
       </c>
       <c r="R39" t="n">
-        <v>6.145239649744898</v>
+        <v>8.531125890517242</v>
       </c>
       <c r="S39" t="n">
-        <v>1720</v>
+        <v>1790</v>
       </c>
       <c r="T39" t="n">
-        <v>35.83333333333334</v>
+        <v>31.96428571428572</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4001371525</v>
+        <v>4001361662</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Carouge.</t>
+          <t>2.0 Zimmerwohnung in Zürich</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1227 Carouge</t>
+          <t>Dübendorfstrasse 333, 8051 Zürich</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3768,66 +3768,66 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001371525</t>
+          <t>https://www.homegate.ch/rent/4001361662</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>51</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08')]</t>
+          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1845</v>
+        <v>1643</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>(46.187395062624255, 6.136916055467196)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>46.18739506262425</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R40" t="n">
-        <v>6.136916055467196</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S40" t="n">
-        <v>1845</v>
+        <v>1643</v>
       </c>
       <c r="T40" t="n">
-        <v>36.1764705882353</v>
+        <v>32.21568627450981</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4001369430</v>
+        <v>4001390271</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bel appartement de 3 pièces au 3e étage.</t>
+          <t>Hochparterrewohnung unweit vom Waldrand im schönen Zürich-Witikon</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rue des Noirettes 27, 1227 Carouge</t>
+          <t>Im Brächli 25/27, 8053 Zürich</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3852,22 +3852,22 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001369430</t>
+          <t>https://www.homegate.ch/rent/4001390271</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+          <t>[(2070.0, '2024-18-08'), (2070.0, '2024-20-08'), (2070.0, '2024-21-08'), (2070.0, '2024-22-08'), (2070.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1845</v>
+        <v>2070</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3875,38 +3875,38 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>46.18724205396518</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R41" t="n">
-        <v>6.137160952417795</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S41" t="n">
-        <v>1845</v>
+        <v>2070</v>
       </c>
       <c r="T41" t="n">
-        <v>36.1764705882353</v>
+        <v>32.34375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4001385645</v>
+        <v>4001403040</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
+          <t>Schöne Stadtnahe Wohnung</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Uetlibergstrasse 83, 8045 Zürich</t>
+          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>8045</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3936,22 +3936,22 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001385645</t>
+          <t>https://www.homegate.ch/rent/4001403040</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1900</v>
+        <v>1791</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3959,43 +3959,43 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>(47.359304231631135, 8.51290742444224)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>47.35930423163114</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R42" t="n">
-        <v>8.51290742444224</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S42" t="n">
-        <v>1900</v>
+        <v>1791</v>
       </c>
       <c r="T42" t="n">
-        <v>36.53846153846154</v>
+        <v>32.56363636363636</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4001409556</v>
+        <v>4001398870</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>133 Rte d'Hermance, appartement de 3 pièces à Collonge-Bellerive</t>
+          <t>Dachwohnung in Zürich</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Route d'Hermance 133, 1245 Collonge-Bellerive</t>
+          <t>Meisenrain 23, 8044 Zürich</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>8044</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4020,22 +4020,22 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001409556</t>
+          <t>https://www.homegate.ch/rent/4001398870</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[(1810.0, '2024-23-08')]</t>
+          <t>[(2120.0, '2024-20-08'), (2120.0, '2024-21-08'), (2120.0, '2024-22-08'), (2120.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1810</v>
+        <v>2120</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -4047,34 +4047,34 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>(46.26270862626263, 6.209230067676768)</t>
+          <t>(47.3799878422, 8.563693994733333)</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>46.26270862626263</v>
+        <v>47.3799878422</v>
       </c>
       <c r="R43" t="n">
-        <v>6.209230067676768</v>
+        <v>8.563693994733333</v>
       </c>
       <c r="S43" t="n">
-        <v>1810</v>
+        <v>2120</v>
       </c>
       <c r="T43" t="n">
-        <v>36.93877551020408</v>
+        <v>32.61538461538461</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4001398794</v>
+        <v>4001364780</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Wohnen neben Sportplatz und Glattzentrum</t>
+          <t>Charmante Wohnung beim Bhf. Altstetten befristet bis 31.3.25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
+          <t>8048 Zürich</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4099,71 +4099,71 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001398794</t>
+          <t>https://www.immoscout24.ch/rent/4001364780</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1999.0, '2024-18-08'), (1999.0, '2024-20-08'), (1999.0, '2024-21-08'), (1999.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1850</v>
+        <v>1999</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.3744489, 8.5410422)</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>47.40365010130662</v>
+        <v>47.3744489</v>
       </c>
       <c r="R44" t="n">
-        <v>8.579578526872822</v>
+        <v>8.5410422</v>
       </c>
       <c r="S44" t="n">
-        <v>1850</v>
+        <v>1999</v>
       </c>
       <c r="T44" t="n">
-        <v>37</v>
+        <v>33.31666666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4001401164</v>
+        <v>4001405711</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Studio situé aux pâquis</t>
+          <t>Charmante 2.5-Zimmer-Wohnung in Zürich-Wiedikon</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1201 Genève</t>
+          <t>Uetlibergstrasse 244, 8045 Zürich</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4188,22 +4188,22 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401164</t>
+          <t>https://www.homegate.ch/rent/4001405711</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K45" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08')]</t>
+          <t>[(2020.0, '2024-21-08'), (2020.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1490</v>
+        <v>2020</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -4211,43 +4211,43 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.359304231631135, 8.51290742444224)</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>46.2017559</v>
+        <v>47.35930423163114</v>
       </c>
       <c r="R45" t="n">
-        <v>6.1466014</v>
+        <v>8.51290742444224</v>
       </c>
       <c r="S45" t="n">
-        <v>1490</v>
+        <v>2020</v>
       </c>
       <c r="T45" t="n">
-        <v>37.25</v>
+        <v>33.66666666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4001371524</v>
+        <v>4001405908</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Genève.</t>
+          <t>Sonnige 2 1/2 Zi. Wohnung mit Cheminée in Zürich Oerlikon/Grenze Neuaffoltern an Buslinie 80</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Kügeliloostrasse 50, 8050 Zürich</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4272,61 +4272,61 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001371524</t>
+          <t>https://www.homegate.ch/rent/4001405908</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K46" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+          <t>[(2020.0, '2024-21-08'), (2020.0, '2024-22-08'), (2020.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>46.2017559</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R46" t="n">
-        <v>6.1466014</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S46" t="n">
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="T46" t="n">
-        <v>38</v>
+        <v>33.66666666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4001133546</v>
+        <v>4001386444</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2-Zimmer-Wohnung an bester Lage</t>
+          <t>3.5-Zimmer-Wohnung in Albisrieden</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hallwylstrasse 40, 8004 Zürich</t>
+          <t>Altstetterstrasse 288, 8047 Zürich</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001133546</t>
+          <t>https://www.homegate.ch/rent/4001386444</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
+          <t>[(2160.0, '2024-18-08'), (2160.0, '2024-20-08'), (2160.0, '2024-21-08'), (2160.0, '2024-22-08'), (2160.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1559</v>
+        <v>2160</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -4379,43 +4379,43 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>(47.37722915823373, 8.522798633266932)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>47.37722915823373</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R47" t="n">
-        <v>8.522798633266932</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S47" t="n">
-        <v>1559</v>
+        <v>2160</v>
       </c>
       <c r="T47" t="n">
-        <v>41.02631578947368</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4001365270</v>
+        <v>4001287219</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Studio à Genève.</t>
+          <t>Sanierte Wohnung in Zürich-Seebach</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1205 Genève</t>
+          <t>Caspar Wüst-Strasse 42, 8052 Zürich</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4440,66 +4440,66 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001365270</t>
+          <t>https://www.homegate.ch/rent/4001287219</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[(1256.0, '2024-18-08'), (1256.0, '2024-20-08'), (1256.0, '2024-21-08'), (1256.0, '2024-22-08')]</t>
+          <t>[(2009.0, '2024-18-08'), (2009.0, '2024-20-08'), (2009.0, '2024-21-08'), (2009.0, '2024-22-08'), (2009.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1256</v>
+        <v>2009</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>46.2017559</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R48" t="n">
-        <v>6.1466014</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S48" t="n">
-        <v>1256</v>
+        <v>2009</v>
       </c>
       <c r="T48" t="n">
-        <v>41.86666666666667</v>
+        <v>34.05084745762712</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4001366896</v>
+        <v>4001336915</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Plainpalais.</t>
+          <t>Gemütliche 3-Zimmer-Wohnung zur Untermiete in Zürich</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Albisstrasse 37, 8038 Zürich</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4519,27 +4519,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001366896</t>
+          <t>https://www.immoscout24.ch/rent/4001336915</t>
         </is>
       </c>
       <c r="J49" t="n">
         <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4547,43 +4547,43 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.34339435560345, 8.531125890517242)</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>46.2017559</v>
+        <v>47.34339435560345</v>
       </c>
       <c r="R49" t="n">
-        <v>6.1466014</v>
+        <v>8.531125890517242</v>
       </c>
       <c r="S49" t="n">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="T49" t="n">
-        <v>42.04545454545455</v>
+        <v>34.12698412698413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4001333869</v>
+        <v>4001383533</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Quartier de la Gradelle - Chêne-Bougeries</t>
+          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Avenue des Amazones 8, 1224 Chêne-Bougeries</t>
+          <t>Felsenrainstrasse 15, 8052 Zürich</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4608,22 +4608,22 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333869</t>
+          <t>https://www.homegate.ch/rent/4001383533</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1850</v>
+        <v>1663</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4631,43 +4631,43 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>(46.20082203493976, 6.1865041228915665)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>46.20082203493976</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R50" t="n">
-        <v>6.186504122891566</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S50" t="n">
-        <v>1850</v>
+        <v>1663</v>
       </c>
       <c r="T50" t="n">
-        <v>42.04545454545455</v>
+        <v>34.64583333333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4001410938</v>
+        <v>4001117336</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Un superbe studio à deux pas du lac !</t>
+          <t>möblierte 2 Zimmer Wohnung, zentral und ruhig gelegen</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rue de Lausanne 145, 1202 Genève</t>
+          <t>Hanfrose 8, 8055 Zürich</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8055</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4687,71 +4687,71 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001410938</t>
+          <t>https://www.immoscout24.ch/rent/4001117336</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>[(1640.0, '2024-23-08')]</t>
+          <t>[(2100.0, '2024-18-08'), (2100.0, '2024-20-08'), (2100.0, '2024-21-08'), (2100.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1640</v>
+        <v>2100</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.3668774384657, 8.506228103619664)</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>46.2172232616622</v>
+        <v>47.3668774384657</v>
       </c>
       <c r="R51" t="n">
-        <v>6.142129813136729</v>
+        <v>8.506228103619664</v>
       </c>
       <c r="S51" t="n">
-        <v>1640</v>
+        <v>2100</v>
       </c>
       <c r="T51" t="n">
-        <v>42.05128205128205</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4001243823</v>
+        <v>4001397903</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>Quiet flat in Enge close to Sihlcity, Rieterpark and public transport</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>Engimattstrasse 31, 8002 Zurigo</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8002</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4776,22 +4776,22 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001243823</t>
+          <t>https://www.homegate.ch/rent/4001397903</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K52" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>[(1270.0, '2024-18-08'), (1270.0, '2024-20-08'), (1270.0, '2024-21-08'), (1270.0, '2024-22-08'), (1270.0, '2024-23-08')]</t>
+          <t>[(2154.0, '2024-20-08'), (2154.0, '2024-21-08'), (2154.0, '2024-22-08'), (2154.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1270</v>
+        <v>2154</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4799,43 +4799,43 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.361771095769235, 8.530453141730769)</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>46.2172232616622</v>
+        <v>47.36177109576924</v>
       </c>
       <c r="R52" t="n">
-        <v>6.142129813136729</v>
+        <v>8.530453141730769</v>
       </c>
       <c r="S52" t="n">
-        <v>1270</v>
+        <v>2154</v>
       </c>
       <c r="T52" t="n">
-        <v>42.33333333333334</v>
+        <v>35.31147540983606</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4001281444</v>
+        <v>4001403450</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>Singlewohnung nähe Irchelpark - Befristet bis 31.03.2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Schaffhauserstrasse 165, 8057 Zürich</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4860,66 +4860,66 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001281444</t>
+          <t>https://www.homegate.ch/rent/4001403450</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+          <t>[(1910.0, '2024-21-08'), (1910.0, '2024-22-08'), (1910.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1400</v>
+        <v>1910</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>46.2017559</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R53" t="n">
-        <v>6.1466014</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S53" t="n">
-        <v>1400</v>
+        <v>1910</v>
       </c>
       <c r="T53" t="n">
-        <v>42.42424242424242</v>
+        <v>35.37037037037037</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4001381179</v>
+        <v>4001411209</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Studio situé à la Servette</t>
+          <t>Charming 1.5-Room Apartment in for Sublet - 6 months</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Pfingstweidstrasse 104, 8005 Zürich</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8005</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4944,61 +4944,61 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001381179</t>
+          <t>https://www.homegate.ch/rent/4001411209</t>
         </is>
       </c>
       <c r="J54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>54</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[(1950.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>2</v>
       </c>
-      <c r="K54" t="n">
-        <v>33</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1400</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>2024-22-08</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>16</v>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.386330033162615, 8.524630250896287)</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>46.2017559</v>
+        <v>47.38633003316261</v>
       </c>
       <c r="R54" t="n">
-        <v>6.1466014</v>
+        <v>8.524630250896287</v>
       </c>
       <c r="S54" t="n">
-        <v>1400</v>
+        <v>1950</v>
       </c>
       <c r="T54" t="n">
-        <v>42.42424242424242</v>
+        <v>36.11111111111111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4001385958</v>
+        <v>4001385645</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
+          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
+          <t>Uetlibergstrasse 83, 8045 Zürich</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5023,71 +5023,71 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001385958</t>
+          <t>https://www.homegate.ch/rent/4001385645</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K55" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>(47.39948119888603, 8.542812898886032)</t>
+          <t>(47.359304231631135, 8.51290742444224)</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>47.39948119888603</v>
+        <v>47.35930423163114</v>
       </c>
       <c r="R55" t="n">
-        <v>8.542812898886032</v>
+        <v>8.51290742444224</v>
       </c>
       <c r="S55" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T55" t="n">
-        <v>42.5</v>
+        <v>36.53846153846154</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4001356877</v>
+        <v>4001305589</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Appartement Location - Bon emplacement - Disponible imémédiatement.</t>
+          <t>Gemütliches Wohnen in der Nähe Uni Irchel - - MIETEN OHNE KAUTION</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1227 Acacias</t>
+          <t>Winterthurerstr. 85, 8006 Zürich</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8006</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5112,66 +5112,66 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001356877</t>
+          <t>https://www.homegate.ch/rent/4001305589</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(2105.0, '2024-18-08'), (2105.0, '2024-20-08'), (2105.0, '2024-21-08'), (2105.0, '2024-22-08'), (2105.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1500</v>
+        <v>2105</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(47.386169475845605, 8.545059607361718)</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>46.18724205396518</v>
+        <v>47.38616947584561</v>
       </c>
       <c r="R56" t="n">
-        <v>6.137160952417795</v>
+        <v>8.545059607361718</v>
       </c>
       <c r="S56" t="n">
-        <v>1500</v>
+        <v>2105</v>
       </c>
       <c r="T56" t="n">
-        <v>42.85714285714285</v>
+        <v>36.92982456140351</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4001383897</v>
+        <v>4001398794</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Les Hauts de Saint-Jean</t>
+          <t>Wohnen neben Sportplatz und Glattzentrum</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Rue de l'Encyclopédie 7, 1201 Genève</t>
+          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5196,61 +5196,61 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001383897</t>
+          <t>https://www.homegate.ch/rent/4001398794</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
+        <v>50</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>10</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>(47.40365010130662, 8.579578526872822)</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>47.40365010130662</v>
+      </c>
+      <c r="R57" t="n">
+        <v>8.579578526872822</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1850</v>
+      </c>
+      <c r="T57" t="n">
         <v>37</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1590</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>2024-23-08</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>3</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>(46.2063713, 6.1316504)</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>46.2063713</v>
-      </c>
-      <c r="R57" t="n">
-        <v>6.1316504</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1590</v>
-      </c>
-      <c r="T57" t="n">
-        <v>42.97297297297298</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4001221422</v>
+        <v>4001386669</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Zentrale Lage - idyllisch und ruhig</t>
+          <t>Teilsanierte Wohnung im Herzen der Stadt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jungholzstrasse 20, 8050 Zürich</t>
+          <t>Langstrasse 133, 8004 Zürich</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5280,66 +5280,66 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001221422</t>
+          <t>https://www.homegate.ch/rent/4001386669</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1866</v>
+        <v>2150</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>(47.41188227578912, 8.552227190564137)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>47.41188227578912</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R58" t="n">
-        <v>8.552227190564137</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S58" t="n">
-        <v>1866</v>
+        <v>2150</v>
       </c>
       <c r="T58" t="n">
-        <v>43.3953488372093</v>
+        <v>37.71929824561403</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4001156178</v>
+        <v>4001335272</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A saisir ! Au coeur de Genève !</t>
+          <t>Moderne möblierte 1 .5-Zimmerwohnung an beliebter Lage</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>rue Chantepoulet 12, 1201 Genève</t>
+          <t>Riedgrabenweg 2, 8051 Zürich</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5364,22 +5364,22 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001156178</t>
+          <t>https://www.homegate.ch/rent/4001335272</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K59" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08'), (2150.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1780</v>
+        <v>2150</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -5387,43 +5387,43 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>46.2097742377551</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R59" t="n">
-        <v>6.145239649744898</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S59" t="n">
-        <v>1780</v>
+        <v>2150</v>
       </c>
       <c r="T59" t="n">
-        <v>43.41463414634146</v>
+        <v>38.39285714285715</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4001372133</v>
+        <v>4001390213</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Quartier des Eaux-Vives</t>
+          <t>Moderne 2 Zimmer Wohnung 52m2 Nähe Bhf Oerlikon mit Balkon</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Avenue Théodore Flournoy 8, 1207 Genève</t>
+          <t>Bühlwiesenstrasse 20, 8001 Zürich</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5448,66 +5448,66 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001372133</t>
+          <t>https://www.homegate.ch/rent/4001390213</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>[(1750.0, '2024-18-08'), (1750.0, '2024-20-08'), (1750.0, '2024-21-08'), (1750.0, '2024-22-08'), (1750.0, '2024-23-08')]</t>
+          <t>[(1999.0, '2024-18-08'), (1999.0, '2024-20-08'), (1999.0, '2024-21-08'), (1999.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1750</v>
+        <v>1999</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>(46.199071180898876, 6.16370553483146)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>46.19907118089888</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R60" t="n">
-        <v>6.16370553483146</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S60" t="n">
-        <v>1750</v>
+        <v>1999</v>
       </c>
       <c r="T60" t="n">
-        <v>43.75</v>
+        <v>38.44230769230769</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4001364077</v>
+        <v>4001385922</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Studio situé aux Pâquis</t>
+          <t>Schöne möblierte Wohnung in der Nähe des Zürisee,hell&amp; ruhig</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1201 Genève</t>
+          <t>Widmerstrasse, 8038 Zürich</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5527,27 +5527,27 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001364077</t>
+          <t>https://www.immoscout24.ch/rent/4001385922</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K61" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08')]</t>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1550</v>
+        <v>2150</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5555,43 +5555,43 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.34339435560345, 8.531125890517242)</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>46.2017559</v>
+        <v>47.34339435560345</v>
       </c>
       <c r="R61" t="n">
-        <v>6.1466014</v>
+        <v>8.531125890517242</v>
       </c>
       <c r="S61" t="n">
-        <v>1550</v>
+        <v>2150</v>
       </c>
       <c r="T61" t="n">
-        <v>44.28571428571428</v>
+        <v>39.09090909090909</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4001336703</v>
+        <v>4001275630</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Centre-ville / Proche de la gare Cornavin</t>
+          <t>2.5 Zimmerwohnung mit wunderschöner Aussicht in Zürich Nord</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>8052 Zürich</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5611,71 +5611,71 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001336703</t>
+          <t>https://www.immoscout24.ch/rent/4001275630</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
+        <v>51</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[(2040.0, '2024-18-08'), (2040.0, '2024-20-08'), (2040.0, '2024-21-08'), (2040.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>2040</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>5</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>(47.3744489, 8.5410422)</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>47.3744489</v>
+      </c>
+      <c r="R62" t="n">
+        <v>8.5410422</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2040</v>
+      </c>
+      <c r="T62" t="n">
         <v>40</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1800</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>2024-23-08</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>4</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>46.2172232616622</v>
-      </c>
-      <c r="R62" t="n">
-        <v>6.142129813136729</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1800</v>
-      </c>
-      <c r="T62" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4001328195</v>
+        <v>4001410284</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Studio situé aux Servettes</t>
+          <t>TOP-AUSSICHT, ZENTRAL UND RUHIGE LAGE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Rümlangstrasse 111, 8052 Zürich</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5700,66 +5700,66 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001328195</t>
+          <t>https://www.homegate.ch/rent/4001410284</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K63" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>[(1554.0, '2024-18-08'), (1554.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08')]</t>
+          <t>[(2050.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1620</v>
+        <v>2050</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>46.2017559</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R63" t="n">
-        <v>6.1466014</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S63" t="n">
-        <v>1620</v>
+        <v>2050</v>
       </c>
       <c r="T63" t="n">
-        <v>45</v>
+        <v>40.19607843137255</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4001405543</v>
+        <v>4001133546</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Spacieux studio en attique dans le quartier prisé de Carouge disponible au 16 septembre</t>
+          <t>2-Zimmer-Wohnung an bester Lage</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Rue de la Filature 23, 1227 Carouge GE</t>
+          <t>Hallwylstrasse 40, 8004 Zürich</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5784,66 +5784,66 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405543</t>
+          <t>https://www.homegate.ch/rent/4001133546</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>[(1612.0, '2024-21-08'), (1612.0, '2024-22-08')]</t>
+          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1612</v>
+        <v>1559</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>46.18724205396518</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R64" t="n">
-        <v>6.137160952417795</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S64" t="n">
-        <v>1612</v>
+        <v>1559</v>
       </c>
       <c r="T64" t="n">
-        <v>46.05714285714286</v>
+        <v>41.02631578947368</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4001410171</v>
+        <v>4001385958</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jonction, Quai des Arenières, 2 pièces au 3ème étage, env. 31m2</t>
+          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Arénières, 1205 Genève</t>
+          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5863,71 +5863,71 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001410171</t>
+          <t>https://www.immoscout24.ch/rent/4001385958</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K65" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>[(1460.0, '2024-23-08')]</t>
+          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1460</v>
+        <v>1700</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>(46.2063713, 6.1316504)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>46.2063713</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R65" t="n">
-        <v>6.1316504</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S65" t="n">
-        <v>1460</v>
+        <v>1700</v>
       </c>
       <c r="T65" t="n">
-        <v>47.09677419354838</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4001336642</v>
+        <v>4001221422</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bel appartement 2 pièces de style ancien à Carouge</t>
+          <t>Zentrale Lage - idyllisch und ruhig</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>avenue Industrielle, 1227 Carouge GE</t>
+          <t>Jungholzstrasse 20, 8050 Zürich</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5952,22 +5952,22 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001336642</t>
+          <t>https://www.homegate.ch/rent/4001221422</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K66" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>[(1483.0, '2024-18-08'), (1483.0, '2024-20-08'), (1483.0, '2024-21-08'), (1483.0, '2024-22-08'), (1483.0, '2024-23-08')]</t>
+          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1483</v>
+        <v>1866</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5975,43 +5975,43 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>46.18724205396518</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R66" t="n">
-        <v>6.137160952417795</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S66" t="n">
-        <v>1483</v>
+        <v>1866</v>
       </c>
       <c r="T66" t="n">
-        <v>47.83870967741935</v>
+        <v>43.3953488372093</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4001245886</v>
+        <v>4001207854</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Charmant appartement de 2 pièces en étage élevé aux Eaux-vives</t>
+          <t>Studio an ruhiger Lage mit Gartensitzplatz</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Avenue Pictet-de-Rochemont, 1207 Genève</t>
+          <t>Carl Spitteler-Strasse 70, 8053 Zürich</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001245886</t>
+          <t>https://www.homegate.ch/rent/4001207854</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K67" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1980.0, '2024-18-08'), (1980.0, '2024-20-08'), (1980.0, '2024-21-08'), (1980.0, '2024-22-08'), (1980.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1820</v>
+        <v>1980</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -6059,38 +6059,38 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>(46.199071180898876, 6.16370553483146)</t>
+          <t>(47.35846491585127, 8.590339297586432)</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>46.19907118089888</v>
+        <v>47.35846491585127</v>
       </c>
       <c r="R67" t="n">
-        <v>6.16370553483146</v>
+        <v>8.590339297586432</v>
       </c>
       <c r="S67" t="n">
-        <v>1820</v>
+        <v>1980</v>
       </c>
       <c r="T67" t="n">
-        <v>47.89473684210526</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4001390113</v>
+        <v>4001408886</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
+          <t>Erstvermietung 2.5-Zimmer-Wohnung nach Totalsanierung - Idastrasse 23</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Baslerstrasse 107, 8048 Zürich</t>
+          <t>Idastrasse 23, 8003 Zürich</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8003</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6115,27 +6115,27 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001390113</t>
+          <t>https://www.homegate.ch/rent/4001408886</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K68" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1924.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1820</v>
+        <v>1924</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -6143,38 +6143,38 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.37275923394794, 8.515733035032538)</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>47.38784678183972</v>
+        <v>47.37275923394794</v>
       </c>
       <c r="R68" t="n">
-        <v>8.486769005132254</v>
+        <v>8.515733035032538</v>
       </c>
       <c r="S68" t="n">
-        <v>1820</v>
+        <v>1924</v>
       </c>
       <c r="T68" t="n">
-        <v>47.89473684210526</v>
+        <v>45.80952380952381</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4001318915</v>
+        <v>4001390113</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Erstvermietung</t>
+          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
+          <t>Baslerstrasse 107, 8048 Zürich</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>8046</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6199,27 +6199,27 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001318915</t>
+          <t>https://www.immoscout24.ch/rent/4001390113</t>
         </is>
       </c>
       <c r="J69" t="n">
         <v>1.5</v>
       </c>
       <c r="K69" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1790</v>
+        <v>1820</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -6227,38 +6227,38 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>(47.419142437571594, 8.511772920389461)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>47.41914243757159</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R69" t="n">
-        <v>8.511772920389461</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S69" t="n">
-        <v>1790</v>
+        <v>1820</v>
       </c>
       <c r="T69" t="n">
-        <v>48.37837837837838</v>
+        <v>47.89473684210526</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4001386498</v>
+        <v>4001171499</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Singlewohnung in Zürich Seebach Kopie</t>
+          <t>Schöne 2-Zimmer-Wohnung an Toplage in Höngg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Arianestrasse 11, 8052 Zürich</t>
+          <t>Michelstrasse 17, 8049 Zürich</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>8049</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6288,22 +6288,22 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386498</t>
+          <t>https://www.homegate.ch/rent/4001171499</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
+          <t>[(2165.0, '2024-18-08'), (2165.0, '2024-20-08'), (2165.0, '2024-21-08'), (2165.0, '2024-22-08'), (2165.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1654</v>
+        <v>2165</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -6315,34 +6315,34 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(47.40363721573333, 8.496623159199999)</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>47.42212409113385</v>
+        <v>47.40363721573333</v>
       </c>
       <c r="R70" t="n">
-        <v>8.544782277237852</v>
+        <v>8.496623159199999</v>
       </c>
       <c r="S70" t="n">
-        <v>1654</v>
+        <v>2165</v>
       </c>
       <c r="T70" t="n">
-        <v>48.64705882352941</v>
+        <v>48.11111111111111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4001364577</v>
+        <v>4001318915</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
+          <t>Erstvermietung</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Glatttalstrasse 79, 8052 Zürich</t>
+          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6367,71 +6367,71 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001364577</t>
+          <t>https://www.homegate.ch/rent/4001318915</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>1.5</v>
       </c>
       <c r="K71" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1678</v>
+        <v>1790</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>(47.422124091133846, 8.544782277237852)</t>
+          <t>(47.419142437571594, 8.511772920389461)</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>47.42212409113385</v>
+        <v>47.41914243757159</v>
       </c>
       <c r="R71" t="n">
-        <v>8.544782277237852</v>
+        <v>8.511772920389461</v>
       </c>
       <c r="S71" t="n">
-        <v>1678</v>
+        <v>1790</v>
       </c>
       <c r="T71" t="n">
-        <v>49.35294117647059</v>
+        <v>48.37837837837838</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4001320202</v>
+        <v>4001386498</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Studio à la Servette.</t>
+          <t>Singlewohnung in Zürich Seebach Kopie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Arianestrasse 11, 8052 Zürich</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6456,66 +6456,66 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320202</t>
+          <t>https://www.homegate.ch/rent/4001386498</t>
         </is>
       </c>
       <c r="J72" t="n">
         <v>1.5</v>
       </c>
       <c r="K72" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1500</v>
+        <v>1654</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O72" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>46.2017559</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R72" t="n">
-        <v>6.1466014</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S72" t="n">
-        <v>1500</v>
+        <v>1654</v>
       </c>
       <c r="T72" t="n">
-        <v>50</v>
+        <v>48.64705882352941</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4001402351</v>
+        <v>4001364577</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Glatttalstrasse 79, 8052 Zürich</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6535,27 +6535,27 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402351</t>
+          <t>https://www.immoscout24.ch/rent/4001364577</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K73" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1500</v>
+        <v>1678</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -6563,43 +6563,43 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.422124091133846, 8.544782277237852)</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>46.2017559</v>
+        <v>47.42212409113385</v>
       </c>
       <c r="R73" t="n">
-        <v>6.1466014</v>
+        <v>8.544782277237852</v>
       </c>
       <c r="S73" t="n">
-        <v>1500</v>
+        <v>1678</v>
       </c>
       <c r="T73" t="n">
-        <v>50</v>
+        <v>49.35294117647059</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4001366897</v>
+        <v>4001219148</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à Plainpalais.</t>
+          <t>Modernes Wohnen im Guggachpark</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1205 Genève</t>
+          <t>Käferholzstrasse 58, 8057 Zürich</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6624,66 +6624,66 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001366897</t>
+          <t>https://www.homegate.ch/rent/4001219148</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K74" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>[(1505.0, '2024-18-08'), (1505.0, '2024-20-08'), (1505.0, '2024-21-08'), (1505.0, '2024-22-08')]</t>
+          <t>[(1978.0, '2024-18-08'), (1978.0, '2024-20-08'), (1978.0, '2024-21-08'), (1978.0, '2024-22-08'), (1978.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1505</v>
+        <v>1978</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O74" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>46.2017559</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R74" t="n">
-        <v>6.1466014</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S74" t="n">
-        <v>1505</v>
+        <v>1978</v>
       </c>
       <c r="T74" t="n">
-        <v>50.16666666666666</v>
+        <v>50.71794871794872</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4001373053</v>
+        <v>4001341049</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Appartement lumineux de 30 m situé dans 1203</t>
+          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rue Daubin, 1203 Genève</t>
+          <t>Hönggerstrasse 24, 8037 Zürich</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6708,61 +6708,61 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001373053</t>
+          <t>https://www.homegate.ch/rent/4001341049</t>
         </is>
       </c>
       <c r="J75" t="n">
         <v>1.5</v>
       </c>
       <c r="K75" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>[(1520.0, '2024-18-08'), (1520.0, '2024-20-08'), (1520.0, '2024-21-08'), (1520.0, '2024-22-08')]</t>
+          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1520</v>
+        <v>1840</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>(46.2063713, 6.1316504)</t>
+          <t>(47.39401932974684, 8.52653432301496)</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>46.2063713</v>
+        <v>47.39401932974684</v>
       </c>
       <c r="R75" t="n">
-        <v>6.1316504</v>
+        <v>8.52653432301496</v>
       </c>
       <c r="S75" t="n">
-        <v>1520</v>
+        <v>1840</v>
       </c>
       <c r="T75" t="n">
-        <v>50.66666666666666</v>
+        <v>51.11111111111111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4001341049</v>
+        <v>4001391348</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
+          <t>Wohnen im Herzen von Zürich</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hönggerstrasse 24, 8037 Zürich</t>
+          <t>Brauerstrasse 29, 8004 Zürich</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6792,22 +6792,22 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001341049</t>
+          <t>https://www.homegate.ch/rent/4001391348</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
+          <t>[(2052.0, '2024-18-08'), (2052.0, '2024-20-08'), (2052.0, '2024-21-08'), (2052.0, '2024-22-08'), (2052.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1840</v>
+        <v>2052</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -6815,43 +6815,43 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>(47.39401932974684, 8.52653432301496)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>47.39401932974684</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R76" t="n">
-        <v>8.52653432301496</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S76" t="n">
-        <v>1840</v>
+        <v>2052</v>
       </c>
       <c r="T76" t="n">
-        <v>51.11111111111111</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4001320200</v>
+        <v>4001371001</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces aux Eaux-Vives</t>
+          <t>BELLISSIMO MONOLOCALE A ZURIGO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1207 Genève</t>
+          <t>Käferholzstrasse 42, 8057 Zürich</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6871,27 +6871,27 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320200</t>
+          <t>https://www.immoscout24.ch/rent/4001371001</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K77" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>[(1810.0, '2024-18-08'), (1810.0, '2024-20-08'), (1810.0, '2024-21-08'), (1810.0, '2024-22-08')]</t>
+          <t>[(1953.0, '2024-18-08'), (1953.0, '2024-20-08'), (1953.0, '2024-21-08'), (1953.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1810</v>
+        <v>1953</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -6899,24 +6899,24 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>46.2017559</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R77" t="n">
-        <v>6.1466014</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S77" t="n">
-        <v>1810</v>
+        <v>1953</v>
       </c>
       <c r="T77" t="n">
-        <v>51.71428571428572</v>
+        <v>51.39473684210526</v>
       </c>
     </row>
     <row r="78">
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -7005,21 +7005,21 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4001386972</v>
+        <v>4001281768</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Bel appartement dans le quartier de la Servette</t>
+          <t>1.5 Zimmerwohnung in Zürich Albisrieden</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Rue Louis-Favre 6, 1201 Genève</t>
+          <t>Wydäckerring 61, 8047 Zürich</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>8047</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -7044,22 +7044,22 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386972</t>
+          <t>https://www.homegate.ch/rent/4001281768</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K79" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(2020.0, '2024-18-08'), (2020.0, '2024-20-08'), (2020.0, '2024-21-08'), (2020.0, '2024-22-08'), (2020.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1820</v>
+        <v>2020</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -7071,39 +7071,39 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>(46.211841474242426, 6.132065015151515)</t>
+          <t>(47.37438331278027, 8.49097973542601)</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>46.21184147424243</v>
+        <v>47.37438331278027</v>
       </c>
       <c r="R79" t="n">
-        <v>6.132065015151515</v>
+        <v>8.490979735426009</v>
       </c>
       <c r="S79" t="n">
-        <v>1820</v>
+        <v>2020</v>
       </c>
       <c r="T79" t="n">
-        <v>52</v>
+        <v>51.7948717948718</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4001351379</v>
+        <v>4001384119</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives</t>
+          <t>Attraktive Wohnung an Top-Lage</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rue du Nant 23, 1207 Genève</t>
+          <t>Engweg 1, 8006 Zürich</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>8006</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -7128,22 +7128,22 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001351379</t>
+          <t>https://www.homegate.ch/rent/4001384119</t>
         </is>
       </c>
       <c r="J80" t="n">
         <v>1.5</v>
       </c>
       <c r="K80" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>[(1510.0, '2024-18-08'), (1510.0, '2024-20-08'), (1510.0, '2024-21-08'), (1510.0, '2024-22-08'), (1510.0, '2024-23-08')]</t>
+          <t>[(1920.0, '2024-18-08'), (1920.0, '2024-20-08'), (1920.0, '2024-21-08'), (1920.0, '2024-22-08'), (1920.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1510</v>
+        <v>1920</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -7155,39 +7155,39 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>(46.202068743257, 6.15902832086514)</t>
+          <t>(47.386169475845605, 8.545059607361718)</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>46.202068743257</v>
+        <v>47.38616947584561</v>
       </c>
       <c r="R80" t="n">
-        <v>6.15902832086514</v>
+        <v>8.545059607361718</v>
       </c>
       <c r="S80" t="n">
-        <v>1510</v>
+        <v>1920</v>
       </c>
       <c r="T80" t="n">
-        <v>52.06896551724138</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4001355523</v>
+        <v>4001187616</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>Tolle Wohnung in einem der attraktivsten Quartiere der Stadt Zürich</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rue de la Navigation, 1201 Genève</t>
+          <t>Eidmattstrasse 6, 8032 Zürich</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7212,22 +7212,22 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001355523</t>
+          <t>https://www.homegate.ch/rent/4001187616</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K81" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>[(1430.0, '2024-18-08'), (1430.0, '2024-20-08'), (1430.0, '2024-21-08'), (1430.0, '2024-22-08'), (1430.0, '2024-23-08')]</t>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1430</v>
+        <v>2100</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -7235,43 +7235,43 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(47.366720333062524, 8.561976071105615)</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>46.2097742377551</v>
+        <v>47.36672033306252</v>
       </c>
       <c r="R81" t="n">
-        <v>6.145239649744898</v>
+        <v>8.561976071105615</v>
       </c>
       <c r="S81" t="n">
-        <v>1430</v>
+        <v>2100</v>
       </c>
       <c r="T81" t="n">
-        <v>57.2</v>
+        <v>55.26315789473684</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4001275872</v>
+        <v>4001141576</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bel appartement en plein coeur de la Vieille-Ville</t>
+          <t>Wohnung am Park Artergut</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Rue de la Cité 9bis, 1204 Genève</t>
+          <t>Zeltweg 83, 8032 Zürich</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7296,22 +7296,22 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001275872</t>
+          <t>https://www.homegate.ch/rent/4001141576</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K82" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08'), (1850.0, '2024-23-08')]</t>
+          <t>[(2050.0, '2024-18-08'), (2050.0, '2024-20-08'), (2050.0, '2024-21-08'), (2050.0, '2024-22-08'), (2050.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -7319,43 +7319,43 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>(46.20221224904977, 6.146710279457014)</t>
+          <t>(47.366720333062524, 8.561976071105615)</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>46.20221224904977</v>
+        <v>47.36672033306252</v>
       </c>
       <c r="R82" t="n">
-        <v>6.146710279457014</v>
+        <v>8.561976071105615</v>
       </c>
       <c r="S82" t="n">
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="T82" t="n">
-        <v>57.8125</v>
+        <v>58.57142857142857</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4001259400</v>
+        <v>4001333905</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
+          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7380,66 +7380,66 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001259400</t>
+          <t>https://www.homegate.ch/rent/4001333905</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K83" t="n">
         <v>29</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>[(1680.0, '2024-18-08'), (1680.0, '2024-20-08'), (1680.0, '2024-21-08'), (1680.0, '2024-22-08'), (1680.0, '2024-23-08')]</t>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1680</v>
+        <v>1715</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>(46.18724205396518, 6.137160952417795)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>46.18724205396518</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R83" t="n">
-        <v>6.137160952417795</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S83" t="n">
-        <v>1680</v>
+        <v>1715</v>
       </c>
       <c r="T83" t="n">
-        <v>57.93103448275862</v>
+        <v>59.13793103448276</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4001066000</v>
+        <v>4001374444</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces au 2ème étage</t>
+          <t>Urbanes Wohngefühl sucht neuen Mieter</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Rue Voltaire 31, 1201 Genève</t>
+          <t>Nordstrasse 168, 8037 Zürich</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7464,22 +7464,22 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001066000</t>
+          <t>https://www.homegate.ch/rent/4001374444</t>
         </is>
       </c>
       <c r="J84" t="n">
         <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>[(1640.0, '2024-18-08'), (1640.0, '2024-20-08'), (1640.0, '2024-21-08'), (1640.0, '2024-22-08'), (1640.0, '2024-23-08')]</t>
+          <t>[(2045.0, '2024-18-08'), (2045.0, '2024-20-08'), (2045.0, '2024-21-08'), (2045.0, '2024-22-08'), (2045.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1640</v>
+        <v>2045</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -7487,38 +7487,38 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>(46.2097742377551, 6.145239649744898)</t>
+          <t>(47.39401932974684, 8.52653432301496)</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>46.2097742377551</v>
+        <v>47.39401932974684</v>
       </c>
       <c r="R84" t="n">
-        <v>6.145239649744898</v>
+        <v>8.52653432301496</v>
       </c>
       <c r="S84" t="n">
-        <v>1640</v>
+        <v>2045</v>
       </c>
       <c r="T84" t="n">
-        <v>58.57142857142857</v>
+        <v>60.14705882352941</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4001333905</v>
+        <v>3001034692</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
+          <t>1.5 Zimmer Apartment in Oerlikon</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
+          <t>Gubelstrasse 64, 8050 Zürich</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7543,27 +7543,27 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333905</t>
+          <t>https://www.immoscout24.ch/rent/3001034692</t>
         </is>
       </c>
       <c r="J85" t="n">
         <v>1.5</v>
       </c>
       <c r="K85" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1715</v>
+        <v>2150</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -7571,43 +7571,43 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>(47.38784678183972, 8.486769005132254)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>47.38784678183972</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R85" t="n">
-        <v>8.486769005132254</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S85" t="n">
-        <v>1715</v>
+        <v>2150</v>
       </c>
       <c r="T85" t="n">
-        <v>59.13793103448276</v>
+        <v>61.42857142857143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4001337045</v>
+        <v>4001400450</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
+          <t>Baumackerstrasse 47, 8050 Zürich</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -7632,22 +7632,22 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001337045</t>
+          <t>https://www.homegate.ch/rent/4001400450</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>1.5</v>
       </c>
       <c r="K86" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -7655,43 +7655,43 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>46.20221909543828</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R86" t="n">
-        <v>6.146693037119857</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S86" t="n">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="T86" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4001320201</v>
+        <v>4001372957</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces aux Eaux-Vives.</t>
+          <t>Urbanes Wohnen im Kreis 4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1207 Genève</t>
+          <t>Hildastrasse 1, 8004 Zürich</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7716,66 +7716,66 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320201</t>
+          <t>https://www.homegate.ch/rent/4001372957</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08')]</t>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O87" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>46.2017559</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R87" t="n">
-        <v>6.1466014</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S87" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="T87" t="n">
-        <v>60</v>
+        <v>65.17241379310344</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4001405544</v>
+        <v>4001187621</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Studio en parfait état à Montbrillant proche des Nations disponible au 1er octobre</t>
+          <t>Im Herzen von Zürich !</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rue du Valais 18, 1202 Genève</t>
+          <t>Weinbergstrasse 23, 8001 Zurich</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7795,71 +7795,71 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405544</t>
+          <t>https://www.immoscout24.ch/rent/4001187621</t>
         </is>
       </c>
       <c r="J88" t="n">
         <v>1.5</v>
       </c>
       <c r="K88" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>[(1165.0, '2024-21-08'), (1165.0, '2024-22-08'), (1165.0, '2024-23-08')]</t>
+          <t>[(2000.0, '2024-18-08'), (2000.0, '2024-20-08'), (2000.0, '2024-21-08'), (2000.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1165</v>
+        <v>2000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>(46.2172232616622, 6.142129813136729)</t>
+          <t>(47.37269446268744, 8.541681887180241)</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>46.2172232616622</v>
+        <v>47.37269446268744</v>
       </c>
       <c r="R88" t="n">
-        <v>6.142129813136729</v>
+        <v>8.541681887180241</v>
       </c>
       <c r="S88" t="n">
-        <v>1165</v>
+        <v>2000</v>
       </c>
       <c r="T88" t="n">
-        <v>61.31578947368421</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4001151789</v>
+        <v>4001360173</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Joli studio au 3ème étage en plein coeur de la Vieille-Ville</t>
+          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+          <t>Wartauweg 19, 8049 Zürich</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8049</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001151789</t>
+          <t>https://www.homegate.ch/rent/4001360173</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -7895,11 +7895,11 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>[(1718.0, '2024-18-08'), (1718.0, '2024-20-08'), (1718.0, '2024-21-08'), (1718.0, '2024-22-08'), (1718.0, '2024-23-08')]</t>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1718</v>
+        <v>1870</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -7907,38 +7907,38 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(47.40363721573333, 8.496623159199999)</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>46.20221909543828</v>
+        <v>47.40363721573333</v>
       </c>
       <c r="R89" t="n">
-        <v>6.146693037119857</v>
+        <v>8.496623159199999</v>
       </c>
       <c r="S89" t="n">
-        <v>1718</v>
+        <v>1870</v>
       </c>
       <c r="T89" t="n">
-        <v>61.35714285714285</v>
+        <v>66.78571428571429</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4001400450</v>
+        <v>3001912350</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
+          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Baumackerstrasse 47, 8050 Zürich</t>
+          <t>Viktoriastrasse 29, 8057 Zürich</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7968,22 +7968,22 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400450</t>
+          <t>https://www.homegate.ch/rent/3001912350</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>1.5</v>
       </c>
       <c r="K90" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
+          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -7991,38 +7991,38 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>(47.41188227578912, 8.552227190564137)</t>
+          <t>(47.39948119888603, 8.542812898886032)</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>47.41188227578912</v>
+        <v>47.39948119888603</v>
       </c>
       <c r="R90" t="n">
-        <v>8.552227190564137</v>
+        <v>8.542812898886032</v>
       </c>
       <c r="S90" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="T90" t="n">
-        <v>62</v>
+        <v>69.56521739130434</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4001372957</v>
+        <v>4001385233</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Urbanes Wohnen im Kreis 4</t>
+          <t>Charmantes zentrales Studio zu mieten</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hildastrasse 1, 8004 Zürich</t>
+          <t>Aprikosenstrasse 5, 8051 Zürich</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -8052,22 +8052,22 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001372957</t>
+          <t>https://www.homegate.ch/rent/4001385233</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K91" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
+          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1890</v>
+        <v>1690</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -8075,43 +8075,43 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>(47.37720112623169, 8.522884019074567)</t>
+          <t>(47.40365010130662, 8.579578526872822)</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>47.37720112623169</v>
+        <v>47.40365010130662</v>
       </c>
       <c r="R91" t="n">
-        <v>8.522884019074567</v>
+        <v>8.579578526872822</v>
       </c>
       <c r="S91" t="n">
-        <v>1890</v>
+        <v>1690</v>
       </c>
       <c r="T91" t="n">
-        <v>65.17241379310344</v>
+        <v>73.47826086956522</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4001297083</v>
+        <v>4001316783</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces au 5ème en face du Parc la Grange</t>
+          <t>Moderne Wohnung in Altstetten</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
+          <t>Herrligweg 9, 8048 Zürich</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -8136,66 +8136,66 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001297083</t>
+          <t>https://www.homegate.ch/rent/4001316783</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K92" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>[(1630.0, '2024-18-08'), (1630.0, '2024-20-08'), (1630.0, '2024-21-08'), (1630.0, '2024-22-08')]</t>
+          <t>[(1997.0, '2024-18-08'), (1997.0, '2024-20-08'), (1997.0, '2024-21-08'), (1997.0, '2024-22-08'), (1997.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1630</v>
+        <v>1997</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>(46.199071180898876, 6.16370553483146)</t>
+          <t>(47.38784678183972, 8.486769005132254)</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>46.19907118089888</v>
+        <v>47.38784678183972</v>
       </c>
       <c r="R92" t="n">
-        <v>6.16370553483146</v>
+        <v>8.486769005132254</v>
       </c>
       <c r="S92" t="n">
-        <v>1630</v>
+        <v>1997</v>
       </c>
       <c r="T92" t="n">
-        <v>65.2</v>
+        <v>76.80769230769231</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4001350715</v>
+        <v>4001410710</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Joli studio en plein coeur de la Vieille-Ville</t>
+          <t>Erstvermietung - Wohnen an der Zürcher Seepromenade</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+          <t>Florastrasse 7, 8008 Zürich</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -8220,22 +8220,22 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001350715</t>
+          <t>https://www.homegate.ch/rent/4001410710</t>
         </is>
       </c>
       <c r="J93" t="n">
         <v>1.5</v>
       </c>
       <c r="K93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+          <t>[(2110.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1845</v>
+        <v>2110</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -8243,38 +8243,38 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>(46.20221909543828, 6.146693037119857)</t>
+          <t>(47.3537532, 8.560742331897757)</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>46.20221909543828</v>
+        <v>47.3537532</v>
       </c>
       <c r="R93" t="n">
-        <v>6.146693037119857</v>
+        <v>8.560742331897757</v>
       </c>
       <c r="S93" t="n">
-        <v>1845</v>
+        <v>2110</v>
       </c>
       <c r="T93" t="n">
-        <v>65.89285714285714</v>
+        <v>78.14814814814815</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4001360173</v>
+        <v>4001322661</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
+          <t>Erstvermietung - Wohnen an der Zürcher Seepromenade</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wartauweg 19, 8049 Zürich</t>
+          <t>Florastrasse 7, 8008 Zürich</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8049</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8304,61 +8304,61 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001360173</t>
+          <t>https://www.homegate.ch/rent/4001322661</t>
         </is>
       </c>
       <c r="J94" t="n">
         <v>1.5</v>
       </c>
       <c r="K94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(2110.0, '2024-18-08'), (2110.0, '2024-20-08'), (2110.0, '2024-21-08'), (2110.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1870</v>
+        <v>2110</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>(47.40363721573333, 8.496623159199999)</t>
+          <t>(47.3537532, 8.560742331897757)</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>47.40363721573333</v>
+        <v>47.3537532</v>
       </c>
       <c r="R94" t="n">
-        <v>8.496623159199999</v>
+        <v>8.560742331897757</v>
       </c>
       <c r="S94" t="n">
-        <v>1870</v>
+        <v>2110</v>
       </c>
       <c r="T94" t="n">
-        <v>66.78571428571429</v>
+        <v>78.14814814814815</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3001912350</v>
+        <v>3001034689</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
+          <t>1.5 Zimmer Apartment in Oerlikon</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Viktoriastrasse 29, 8057 Zürich</t>
+          <t>Friesstrasse 33, 8050 Zürich</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8383,71 +8383,71 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/3001912350</t>
+          <t>https://www.immoscout24.ch/rent/3001034689</t>
         </is>
       </c>
       <c r="J95" t="n">
         <v>1.5</v>
       </c>
       <c r="K95" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
+          <t>[(2080.0, '2024-18-08'), (2080.0, '2024-20-08'), (2080.0, '2024-21-08'), (2080.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1600</v>
+        <v>2080</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2024-23-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
       <c r="O95" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>(47.39948119888603, 8.542812898886032)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>47.39948119888603</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R95" t="n">
-        <v>8.542812898886032</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S95" t="n">
-        <v>1600</v>
+        <v>2080</v>
       </c>
       <c r="T95" t="n">
-        <v>69.56521739130434</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4001313115</v>
+        <v>3001034688</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Studio à Genève.</t>
+          <t>1.5 Zimmer Apartment in Oerlikon</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1204 Genève</t>
+          <t>Friesstrasse 33, 8050 Zürich</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8467,27 +8467,27 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001313115</t>
+          <t>https://www.immoscout24.ch/rent/3001034688</t>
         </is>
       </c>
       <c r="J96" t="n">
         <v>1.5</v>
       </c>
       <c r="K96" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>[(1670.0, '2024-18-08'), (1670.0, '2024-20-08'), (1670.0, '2024-21-08'), (1670.0, '2024-22-08')]</t>
+          <t>[(2080.0, '2024-18-08'), (2080.0, '2024-20-08'), (2080.0, '2024-21-08'), (2080.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1670</v>
+        <v>2080</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -8495,38 +8495,38 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>(46.2017559, 6.1466014)</t>
+          <t>(47.41188227578912, 8.552227190564137)</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>46.2017559</v>
+        <v>47.41188227578912</v>
       </c>
       <c r="R96" t="n">
-        <v>6.1466014</v>
+        <v>8.552227190564137</v>
       </c>
       <c r="S96" t="n">
-        <v>1670</v>
+        <v>2080</v>
       </c>
       <c r="T96" t="n">
-        <v>72.60869565217391</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4001385233</v>
+        <v>4001401691</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Charmantes zentrales Studio zu mieten</t>
+          <t>Chambre à Zurich</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Aprikosenstrasse 5, 8051 Zürich</t>
+          <t>Hottingerstrasse 34, 8032 Zürich</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8556,22 +8556,22 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001385233</t>
+          <t>https://www.homegate.ch/rent/4001401691</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K97" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
+          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1690</v>
+        <v>1250</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -8579,38 +8579,38 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>(47.40365010130662, 8.579578526872822)</t>
+          <t>(47.366720333062524, 8.561976071105615)</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>47.40365010130662</v>
+        <v>47.36672033306252</v>
       </c>
       <c r="R97" t="n">
-        <v>8.579578526872822</v>
+        <v>8.561976071105615</v>
       </c>
       <c r="S97" t="n">
-        <v>1690</v>
+        <v>1250</v>
       </c>
       <c r="T97" t="n">
-        <v>73.47826086956522</v>
+        <v>83.33333333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4001401691</v>
+        <v>4001363108</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chambre à Zurich</t>
+          <t>Attraktiv, möbliert direkt beim Lochergut</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Hottingerstrasse 34, 8032 Zürich</t>
+          <t>Badenerstrasse 250, 8004 Zürich</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8640,22 +8640,22 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401691</t>
+          <t>https://www.homegate.ch/rent/4001363108</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="K98" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
+          <t>[(2100.0, '2024-18-08'), (2100.0, '2024-20-08'), (2100.0, '2024-21-08'), (2100.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1250</v>
+        <v>2100</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -8663,24 +8663,24 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>(47.366720333062524, 8.561976071105615)</t>
+          <t>(47.37722915823373, 8.522798633266932)</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>47.36672033306252</v>
+        <v>47.37722915823373</v>
       </c>
       <c r="R98" t="n">
-        <v>8.561976071105615</v>
+        <v>8.522798633266932</v>
       </c>
       <c r="S98" t="n">
-        <v>1250</v>
+        <v>2100</v>
       </c>
       <c r="T98" t="n">
-        <v>83.33333333333333</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -8769,16 +8769,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3001034675</v>
+        <v>4001186674</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.5 Zimmer in Oerlikon</t>
+          <t>City Pop - Your flexible solution for long and short stays!</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Friesstrasse 8, 8050 Zürich</t>
+          <t>Hagenholzstrasse 59, 8050 Zürich</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -8803,35 +8803,35 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/3001034675</t>
+          <t>https://www.homegate.ch/rent/4001186674</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>1.5</v>
       </c>
       <c r="K100" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
+          <t>[(2122.0, '2024-18-08'), (2122.0, '2024-20-08'), (2122.0, '2024-21-08'), (2122.0, '2024-22-08'), (2122.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1890</v>
+        <v>2122</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
       <c r="O100" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -8845,10 +8845,262 @@
         <v>8.552227190564137</v>
       </c>
       <c r="S100" t="n">
+        <v>2122</v>
+      </c>
+      <c r="T100" t="n">
+        <v>88.41666666666667</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3001912432</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>City Pop - Deine flexible Lösung für lange und kürzere Aufenthalte um dich wie zu Hause zu fühlen</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bernerstrasse S 169, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8064</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/3001912432</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>23</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>[(2035.0, '2024-18-08'), (2035.0, '2024-20-08'), (2035.0, '2024-21-08'), (2035.0, '2024-22-08'), (2035.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>2035</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>(47.39730204229391, 8.48793456702509)</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>47.39730204229391</v>
+      </c>
+      <c r="R101" t="n">
+        <v>8.487934567025089</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2035</v>
+      </c>
+      <c r="T101" t="n">
+        <v>88.47826086956522</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3001034675</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer in Oerlikon</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Friesstrasse 8, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/3001034675</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>20</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1890</v>
       </c>
-      <c r="T100" t="n">
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>10</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>(47.41188227578912, 8.552227190564137)</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>47.41188227578912</v>
+      </c>
+      <c r="R102" t="n">
+        <v>8.552227190564137</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1890</v>
+      </c>
+      <c r="T102" t="n">
         <v>94.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4001395062</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mitten im Universitätsquartier von Zürich</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001395062</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>20</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>[(2000.0, '2024-18-08'), (2000.0, '2024-20-08'), (2000.0, '2024-21-08'), (2000.0, '2024-22-08'), (2000.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>5</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>(47.3744489, 8.5410422)</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>47.3744489</v>
+      </c>
+      <c r="R103" t="n">
+        <v>8.5410422</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T103" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
